--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -149,12 +149,6 @@
     <t>Карбид кальция Словакия 50-80 кг</t>
   </si>
   <si>
-    <t>Бочка металлическая 200л б\у</t>
-  </si>
-  <si>
-    <t>Бег Бег б/у на 1,25 т (без юго)</t>
-  </si>
-  <si>
     <t>Мешок п/п 105х55 без вклад/с вклад.</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
   </si>
   <si>
     <t>Битум</t>
-  </si>
-  <si>
-    <t>Канистра б/у</t>
   </si>
   <si>
     <t>Шпагат льняной</t>
@@ -637,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,27 +645,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +679,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -754,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,15 +765,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -791,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,31 +796,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,13 +848,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -875,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -913,27 +904,27 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,7 +935,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,6 +954,12 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -966,18 +969,30 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,10 +1000,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,16 +1022,28 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,10 +1051,16 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,7 +1071,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,39 +1085,45 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1080,22 +1131,28 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
@@ -1105,8 +1162,14 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
@@ -1116,8 +1179,14 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -1127,27 +1196,45 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -1157,203 +1244,230 @@
       <c r="C45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="1">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
+      <c r="B64" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="1">
-        <v>3</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,19 +631,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -664,9 +665,10 @@
       <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1100,50 +1102,112 @@
     <row r="32" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>56</v>
@@ -1154,75 +1218,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1230,247 +1266,215 @@
       <c r="D44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
+      <c r="E44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +288,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,7 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,41 +646,43 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1168,7 +1182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1245,7 +1259,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>29</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1285,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>32</v>
       </c>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -29,7 +29,7 @@
     <author>Beregulenko</author>
   </authors>
   <commentList>
-    <comment ref="D21" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -252,13 +252,59 @@
   </si>
   <si>
     <t>Низький</t>
+  </si>
+  <si>
+    <t>atena.com.ua</t>
+  </si>
+  <si>
+    <r>
+      <t>Ориентировочная цена за</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кг</t>
+    </r>
+  </si>
+  <si>
+    <t>ориентировочная стоимость тонны</t>
+  </si>
+  <si>
+    <t>отрасль промышленности</t>
+  </si>
+  <si>
+    <t>Пищевая, Текстильная, Дорожное хозяйство</t>
+  </si>
+  <si>
+    <t>Пищевая, Текстильная, Сельское хозяйство, Производство бетона</t>
+  </si>
+  <si>
+    <t>Пищевая, Текстильная, Производство бетона</t>
+  </si>
+  <si>
+    <t>Производство бетона</t>
+  </si>
+  <si>
+    <t>Пищевая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пищевая </t>
+  </si>
+  <si>
+    <t>Дезинфекция воды и оборудования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +344,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +381,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,11 +396,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,6 +439,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,10 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,106 +793,157 @@
     <col min="1" max="1" width="32.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10" style="16" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="I1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="I3" s="20">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17">
+        <f>I3*1000</f>
+        <v>9000</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="20"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -763,48 +953,68 @@
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="20">
+        <v>20</v>
+      </c>
+      <c r="J8" s="17">
+        <f>I8*1000</f>
+        <v>20000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="17"/>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="20"/>
+      <c r="J10" s="17"/>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -814,15 +1024,16 @@
       <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -832,31 +1043,44 @@
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="I13" s="20">
+        <v>45</v>
+      </c>
+      <c r="J13" s="17">
+        <f>I13*1000</f>
+        <v>45000</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="20"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -866,67 +1090,93 @@
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="12">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="I17" s="20">
+        <v>70</v>
+      </c>
+      <c r="J17" s="17">
+        <f>I17*1000</f>
+        <v>70000</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="I18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
+        <v>40</v>
+      </c>
+      <c r="J20" s="18">
+        <f>I20*1000</f>
+        <v>40000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -936,14 +1186,14 @@
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -953,48 +1203,62 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="12">
         <v>3</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="I23" s="8">
+        <v>130</v>
+      </c>
+      <c r="J23" s="16">
+        <f>I23*1000</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="12">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I24" s="8">
+        <v>120</v>
+      </c>
+      <c r="J24" s="16">
+        <f>I24*1000</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -1004,48 +1268,60 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="B26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="I26" s="20">
+        <v>80</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" ref="J26:J27" si="0">I26*1000</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I27" s="20"/>
+      <c r="J27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1055,14 +1331,14 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1072,14 +1348,14 @@
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -1089,32 +1365,39 @@
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="B31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I31" s="8">
+        <v>170</v>
+      </c>
+      <c r="J31" s="16">
+        <f>I31*1000</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -1124,124 +1407,159 @@
       <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="I34" s="8">
+        <v>40</v>
+      </c>
+      <c r="J34" s="16">
+        <f>I34*1000</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="I35" s="8">
+        <v>180</v>
+      </c>
+      <c r="J35" s="16">
+        <f>I35*1000</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="12">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="I36" s="8">
+        <v>10</v>
+      </c>
+      <c r="J36" s="18">
+        <f>I36*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="B38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="I38" s="8">
+        <v>10</v>
+      </c>
+      <c r="J38" s="18">
+        <f>I38*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="I39" s="8">
+        <v>100</v>
+      </c>
+      <c r="J39" s="18">
+        <f>I39*1000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -1251,15 +1569,15 @@
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>29</v>
       </c>
@@ -1267,25 +1585,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="12">
         <v>2</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
@@ -1295,48 +1613,57 @@
       <c r="C46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B47" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="I47" s="20">
+        <v>120</v>
+      </c>
+      <c r="J47" s="15">
+        <f>I47*1000</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="12">
         <v>2</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="13">
         <v>2</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I48" s="20"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -1346,43 +1673,57 @@
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="50" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="12">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="I51" s="8">
+        <v>25</v>
+      </c>
+      <c r="J51" s="18">
+        <f>I51*1000</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="12">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I52" s="8">
+        <v>30</v>
+      </c>
+      <c r="J52" s="16">
+        <f>I52*1000</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
@@ -1392,31 +1733,38 @@
       <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I54" s="8">
+        <v>50</v>
+      </c>
+      <c r="J54" s="16">
+        <f>I54*1000</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -1427,7 +1775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>33</v>
       </c>
@@ -1438,7 +1786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
@@ -1449,8 +1797,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
@@ -1458,7 +1806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
@@ -1486,8 +1834,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="20">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -450,55 +450,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,26 +785,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G10"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10" style="14" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -823,37 +822,37 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -871,14 +870,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="28">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="29">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -898,9 +897,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -918,9 +917,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -938,9 +937,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -959,10 +958,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="28">
         <v>20</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="29">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -986,8 +985,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -1008,8 +1007,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -1030,7 +1029,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1049,14 +1048,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="28">
         <v>45</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="29">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1076,9 +1075,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1096,9 +1095,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1117,14 +1116,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="28">
         <v>70</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="29">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1144,9 +1143,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1168,7 +1167,7 @@
       <c r="I20" s="8">
         <v>40</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <f>I20*1000</f>
         <v>40000</v>
       </c>
@@ -1229,7 +1228,7 @@
       <c r="I23" s="8">
         <v>130</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <f>I23*1000</f>
         <v>130000</v>
       </c>
@@ -1253,7 +1252,7 @@
       <c r="I24" s="8">
         <v>120</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="14">
         <f>I24*1000</f>
         <v>120000</v>
       </c>
@@ -1291,10 +1290,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="28">
         <v>80</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="20">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -1315,8 +1314,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="15">
+      <c r="I27" s="28"/>
+      <c r="J27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1391,7 +1390,7 @@
       <c r="I31" s="8">
         <v>170</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <f>I31*1000</f>
         <v>170000</v>
       </c>
@@ -1433,7 +1432,7 @@
       <c r="I34" s="8">
         <v>40</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="14">
         <f>I34*1000</f>
         <v>40000</v>
       </c>
@@ -1457,7 +1456,7 @@
       <c r="I35" s="8">
         <v>180</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="14">
         <f>I35*1000</f>
         <v>180000</v>
       </c>
@@ -1481,7 +1480,7 @@
       <c r="I36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <f>I36*1000</f>
         <v>10000</v>
       </c>
@@ -1519,7 +1518,7 @@
       <c r="I38" s="8">
         <v>10</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="15">
         <f>I38*1000</f>
         <v>10000</v>
       </c>
@@ -1543,7 +1542,7 @@
       <c r="I39" s="8">
         <v>100</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="15">
         <f>I39*1000</f>
         <v>100000</v>
       </c>
@@ -1636,10 +1635,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="28">
         <v>120</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="20">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -1660,8 +1659,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1700,7 +1699,7 @@
       <c r="I51" s="8">
         <v>25</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="15">
         <f>I51*1000</f>
         <v>25000</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="I52" s="8">
         <v>30</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="14">
         <f>I52*1000</f>
         <v>30000</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="I54" s="8">
         <v>50</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="14">
         <f>I54*1000</f>
         <v>50000</v>
       </c>
@@ -1835,6 +1834,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="A1:A2"/>
@@ -1851,13 +1854,9 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
+    <sheet name="Соль" sheetId="2" r:id="rId2"/>
+    <sheet name="Сода" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="196">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -298,13 +300,1939 @@
   </si>
   <si>
     <t>Дезинфекция воды и оборудования</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль харчова 25кг Турція </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p2104625592-povarennaya-sol-pischevaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль в мішках по 25 кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1920844456-sol-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль харчова помелу 1 в мішках по 25 кг Румунія</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1724027673-sol-pischevaya-povarennaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль кам'яна харчова мішок 25кг румунская</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1260037040-sol-kamennaya-pischevaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль кам'яна харчова мішок 25кг румунська</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1928244192-sol-kamennaya-pischevaya.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Существующие страницы</t>
+  </si>
+  <si>
+    <t>9,9 - 10,2</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харч №1 Румун, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">25кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(Деж) </t>
+    </r>
+  </si>
+  <si>
+    <t>Ціна, грн з ПДВ</t>
+  </si>
+  <si>
+    <t>К-ть уп.</t>
+  </si>
+  <si>
+    <t>Од.Вим</t>
+  </si>
+  <si>
+    <t>Назва товару</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харчова помел  №1 Румунія, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Slanik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>25 кг</t>
+    </r>
+  </si>
+  <si>
+    <t>10 - 11</t>
+  </si>
+  <si>
+    <t>Сіль харч Risalte Туреччина, 25кг помел  № 1</t>
+  </si>
+  <si>
+    <t>7,9 - 8,6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль  харч  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Туреччина Risalte помел 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Екстра)</t>
+    </r>
+  </si>
+  <si>
+    <t>8,2 - 8,8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харч помел №1, 25кг, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>HAKAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Туреччина (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>без палет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>7,6 - 8,6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харч помел №1, 25кг, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>HAKAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Туреччина </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кропивниц</t>
+    </r>
+  </si>
+  <si>
+    <t>8,7 - 9,5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харч </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Єгипет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, 25 кг  помел № 0 (Екстра) / помел №1</t>
+    </r>
+  </si>
+  <si>
+    <t>6,9 - 7,4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль харч </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Єгипет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, 25 кг  помел № 2 з Києва / з порту</t>
+    </r>
+  </si>
+  <si>
+    <t>6,6 - 7,2 / 5,5</t>
+  </si>
+  <si>
+    <r>
+      <t>Сіль харчова помел  №1 Румунія,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">пачка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 кг </t>
+    </r>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль Екстра Ciech 25кг, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Польща</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Німеччина</t>
+    </r>
+  </si>
+  <si>
+    <t>15,6 - 16,6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль Екстра 25кг, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Румунія </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Turda</t>
+    </r>
+  </si>
+  <si>
+    <t>13,8 - 14,6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль Екстра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Румунія </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>бег 1 т</t>
+    </r>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>14,2 - 14,8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль Екстра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SMARTSALT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Туреччина, 25кг бег (без палет)</t>
+    </r>
+  </si>
+  <si>
+    <t>8,8 - 9,2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль Екстра мішок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25 кг https://atena.com.ua/ua/p1786057094-sol-ekstra-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль Екстра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1785566628-sol-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Сіль кормова брикетована Румунія 5 кг / 10 кг  </t>
+  </si>
+  <si>
+    <t>14-15 / 12,2-13</t>
+  </si>
+  <si>
+    <t>Сіль кормова брикетована 10 кг  Польща</t>
+  </si>
+  <si>
+    <t>17,6 - 19</t>
+  </si>
+  <si>
+    <t>Сіль таблетована CIECH Польща / Німеччина</t>
+  </si>
+  <si>
+    <t>18,2-20 / 18-19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сіль таблетована Румунія </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кропивницький</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Київ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15,6-16 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>16-17</t>
+    </r>
+  </si>
+  <si>
+    <t>Сіль таблетована Туреччина Risalte</t>
+  </si>
+  <si>
+    <t>12 - 13,6</t>
+  </si>
+  <si>
+    <t>Сіль таблетована Єгипет</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль ЛИЗУНЕЦЬ брикет 10кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1370105960-sol-lizunets-briket.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль брикетована, лизунець 10кг CIECH польська</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1747027094-sol-briketirovannaya-lizunets.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль ЛИЗУНЕЦЬ брикет 5кг (виробництво Румунія) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1782235172-sol-lizunets-briket.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль ЛИЗУНЕЦЬ брикет 10кг румунська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1802110479-sol-lizunets-briket.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль Кормова Ллизунець брикет 5кг румунська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2000771284-sol-kormovaya-lizunets.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль брикетована, лизунець 10кг польська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p57029481-sol-briketirovannaya-lizunets.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль таблетована екстра в мішках по 25 кг турцька </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1872669821-sol-tabletirovannaya-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сіль таблетована екстра в мішках по 25 кг румунська</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   https://atena.com.ua/ua/p1830522660-sol-tabletirovannaya-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль для очищення води таблетована польська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p50286155-sol-dlya-ochistki.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль таблетована виварена Ciech </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1434116123-sol-tabletirovannaya-vyvarennaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль таблетована екстра в мішках по 25 кг польська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1259868798-sol-tabletirovannaya-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль таблетована Німеччина </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2092359578-sol-tabletirovannaya-germaniya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль таблетована екстра в мішках по 25 кг турцька  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1928422319-sol-tabletirovannaya-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Сіль тех навал  25т з доставкою по Україні </t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>Сіль технічна пом. №3 Єгипет   мішки 50 кг / мішки 25 кг</t>
+  </si>
+  <si>
+    <t>6,6 - 7,6 / 7- 8</t>
+  </si>
+  <si>
+    <t>Сіль технічна пом. № 3,  10 кг Єгипет</t>
+  </si>
+  <si>
+    <t>8 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сіль технічна №3 Кропивницький Румунія 50кг/Єгипет 25кг </t>
+  </si>
+  <si>
+    <t>7,6 - 8,4 / 6,8 - 8</t>
+  </si>
+  <si>
+    <t>Сіль промислова пом. №3, 25 кг Туреччина, 1 сорт</t>
+  </si>
+  <si>
+    <t>7,2 - 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль технічна 25т з Доставкою  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1163487126-sol-tehnicheskayanaval-egipet.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль технічна в мішках по 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2073628781-sol-tehnicheskaya-pomol.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль технічна в мішках по 50кг Кропивницький  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1724029232-sol-tehnicheskaya-rumuniya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль технічна в Біг бегах з Доставкою  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1985828013-sol-tehnicheskaya-big.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сіль технічна для посипання доріг в мішках 50кг єгипетська </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2027807841-sol-tehnicheskaya-dlya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сода</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">харчова </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Туреччина </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ЕТІ   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  склад  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ДО</t>
+    </r>
+  </si>
+  <si>
+    <t>24  - 25,8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сода</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">харчова </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Туреччина </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ЕТІ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2022 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ДО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>МХ, Кропивицький</t>
+    </r>
+  </si>
+  <si>
+    <t>22 - 24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сода</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>харчова</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Боснія    2022   склад</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   МХ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сода каустична, луска, Оman Сhlorine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кропивицький</t>
+    </r>
+  </si>
+  <si>
+    <t>38 - 40</t>
+  </si>
+  <si>
+    <t>Сода каустична, луска, Туреччина</t>
+  </si>
+  <si>
+    <t>37,5 - 39</t>
+  </si>
+  <si>
+    <t>Сода каустична гранула, Китай, Індія</t>
+  </si>
+  <si>
+    <t>54 - 56</t>
+  </si>
+  <si>
+    <t>Сода каустична, луска, Польща</t>
+  </si>
+  <si>
+    <t>40 - 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сода кальцинована марка Б, Туреччина, 25 кг </t>
+  </si>
+  <si>
+    <t>26 - 28</t>
+  </si>
+  <si>
+    <t>Сода кальцинована марка Б, Туреччина, біг-бег</t>
+  </si>
+  <si>
+    <t>25 - 27</t>
+  </si>
+  <si>
+    <t>Сода кальцинована марка Б, Болгарія, 25 кг</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сода кальцинована,марка А, Туреччина ЕТІ 25 кг / бег 1,25т </t>
+  </si>
+  <si>
+    <t>24,5 - 26/22,8 - 23,8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сода кальцинована пачка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">700 г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>600 г</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, банка</t>
+    </r>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>32 - 38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Харчова сода в мішках по 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1288732307-pischevaya-soda-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода харчова бікарбонат натрію  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1182066255-soda-pischevaya-bikarbonat.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода харчова бікарбонат натрію ОПТ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1747683779-soda-pischevaya-bikarbonat.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода харчова, сода кормова, бікарбонат натрія в мішках по 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1259995131-soda-pischevaya-soda.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода харчова в мішках 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1748474642-soda-pischevaya-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода каустична луска в мішках по 25кг замовлення від 1т  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p53864331-soda-kausticheskaya-cheshuya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода каустична лускована польська, замовлення від 1т  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1179739823-soda-kausticheskaya-cheshuirovannaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода каустична, каустик луска в мішках по 25кг, замовлення від 500кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1930997033-soda-kausticheskaya-kaustik.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода каустична, каустик луска, луска в мішках по 25 кг. Виробництво Польща  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1931072600-soda-kausticheskaya-kaustik.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Каустична сода виробництво Оман  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2091143969-kausticheskaya-soda-proizvodsvo.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода каустична, каустик луска, луска в мішках по 25 кг. Виробництво Польща  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1930997603-soda-kausticheskaya-kaustik.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Каустична сода гранула в мішках по 25 кг Китай Детальніше: https://atena.com.ua/ua/p1938271873-kausticheskaya-soda-granula.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода кальцинована в мішках по 25кг марка А  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1182090772-soda-kaltsinirovannaya-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода кальцинована в мішках марка Б, мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1370731692-soda-kaltsinirovannaya-marka.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сода кальцинована марка Б, Біг-Бег</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1669623386-soda-kaltsinirovannaya-marka.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода кальцинована пачка 600г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1706490577-soda-kaltsinirovannaya-600g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сода кальцинована марка А в мішках по 25кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1753496847-soda-kaltsinirovannaya-marka.html</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +2289,147 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +2454,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -405,11 +2508,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +2597,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,18 +2627,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гіперпосилання" xfId="2" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,9 +3088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +3108,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
+      <c r="A1" s="22"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -822,18 +3127,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -850,9 +3155,9 @@
         <v>57</v>
       </c>
       <c r="G2" s="30"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -870,14 +3175,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="19">
         <v>9</v>
       </c>
       <c r="J3" s="29">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -897,9 +3202,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="29"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -917,9 +3222,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -937,9 +3242,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -958,7 +3263,7 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="19">
         <v>20</v>
       </c>
       <c r="J8" s="29">
@@ -985,7 +3290,7 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="29"/>
       <c r="K9" t="s">
         <v>70</v>
@@ -1007,7 +3312,7 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="29"/>
       <c r="K10" t="s">
         <v>71</v>
@@ -1029,7 +3334,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,14 +3353,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="19">
         <v>45</v>
       </c>
       <c r="J13" s="29">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1075,9 +3380,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1095,9 +3400,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,14 +3421,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="19">
         <v>70</v>
       </c>
       <c r="J17" s="29">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1143,9 +3448,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,10 +3595,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="19">
         <v>80</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="21">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -1314,8 +3619,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="20">
+      <c r="I27" s="19"/>
+      <c r="J27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1635,10 +3940,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="19">
         <v>120</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="21">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -1659,8 +3964,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1834,11 +4139,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
@@ -1854,9 +4154,1790 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="52.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="31"/>
+    <col min="4" max="4" width="8.7109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="31"/>
+    <col min="7" max="7" width="72.7109375" style="31" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="31"/>
+    <col min="10" max="10" width="22.5703125" style="31" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="31"/>
+    <col min="14" max="14" width="44.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="37">
+        <v>25</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="32">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="E7" s="32">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>2</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="46">
+        <v>25</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>3</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="46">
+        <v>25</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="32">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="32">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45">
+        <v>4</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="46">
+        <v>25</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45">
+        <v>5</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="46">
+        <v>25</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45">
+        <v>6</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="46">
+        <v>25</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45">
+        <v>8</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="46">
+        <v>25</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49">
+        <v>24</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="46">
+        <v>12</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="50"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45">
+        <v>7</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="46">
+        <v>25</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="32">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="45">
+        <v>9</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="46">
+        <v>25</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="32">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="45">
+        <v>10</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="46">
+        <v>25</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="44"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="44"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="45">
+        <v>11</v>
+      </c>
+      <c r="B91" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="46">
+        <v>1</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="44"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="44"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="44"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="44"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="44"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="44"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="45">
+        <v>12</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="46">
+        <v>25</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="44"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="44"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="44"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="44"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="49">
+        <v>13</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="56">
+        <v>10</v>
+      </c>
+      <c r="E107" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="44"/>
+      <c r="B109" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="32">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="44"/>
+      <c r="B111" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="32">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="44"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="44"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="49">
+        <v>14</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="56">
+        <v>10</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="44"/>
+      <c r="B117" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="32">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="49">
+        <v>15</v>
+      </c>
+      <c r="B123" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="56">
+        <v>25</v>
+      </c>
+      <c r="E123" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="32">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="44"/>
+      <c r="B125" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="44"/>
+      <c r="B126" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="44"/>
+      <c r="B127" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="44"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="44"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="44"/>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="49">
+        <v>16</v>
+      </c>
+      <c r="B131" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" s="56">
+        <v>25</v>
+      </c>
+      <c r="E131" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="44"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="44"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="44"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="44"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="44"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="44"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="49">
+        <v>17</v>
+      </c>
+      <c r="B139" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D139" s="60">
+        <v>25</v>
+      </c>
+      <c r="E139" s="61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="32">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="44"/>
+      <c r="B141" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141" s="32">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="44"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="44"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="44"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="44"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="44"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="49">
+        <v>18</v>
+      </c>
+      <c r="B147" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="60">
+        <v>25</v>
+      </c>
+      <c r="E147" s="62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="44"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="44"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="44"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="44"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="44"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+    </row>
+    <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="49">
+        <v>19</v>
+      </c>
+      <c r="B155" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="56">
+        <v>25</v>
+      </c>
+      <c r="E155" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E156" s="32">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
+    </row>
+    <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="49">
+        <v>20</v>
+      </c>
+      <c r="B163" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C163" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" s="56">
+        <v>50</v>
+      </c>
+      <c r="E163" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E164" s="32">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="44"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="44"/>
+    </row>
+    <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="49">
+        <v>21</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C171" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="56">
+        <v>10</v>
+      </c>
+      <c r="E171" s="58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="44"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="44"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="44"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="44"/>
+    </row>
+    <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="49">
+        <v>22</v>
+      </c>
+      <c r="B179" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D179" s="56">
+        <v>50</v>
+      </c>
+      <c r="E179" s="58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E180" s="32">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="44"/>
+      <c r="B181" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="44"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="44"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="44"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="44"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="44"/>
+    </row>
+    <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="49">
+        <v>23</v>
+      </c>
+      <c r="B187" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C187" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D187" s="56">
+        <v>25</v>
+      </c>
+      <c r="E187" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E188" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="44"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="44"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="44"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="44"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="44"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="A188:A194"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A36:A42"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
+    <hyperlink ref="C59" r:id="rId5"/>
+    <hyperlink ref="C75" r:id="rId6"/>
+    <hyperlink ref="C83" r:id="rId7"/>
+    <hyperlink ref="C91" r:id="rId8" display="кг"/>
+    <hyperlink ref="C115" r:id="rId9"/>
+    <hyperlink ref="C131" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.42578125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="23" style="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>1</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="69">
+        <v>25</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="83">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
+        <v>2</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="69">
+        <v>25</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="83">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="83">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68">
+        <v>3</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="69">
+        <v>25</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="83">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68">
+        <v>4</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="56">
+        <v>25</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68">
+        <v>5</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="56">
+        <v>25</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70">
+        <v>6</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="71">
+        <v>25</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="83">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68">
+        <v>7</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="56">
+        <v>25</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="83">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68">
+        <v>8</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="69">
+        <v>25</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="68">
+        <v>9</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="73">
+        <v>1.25</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="68">
+        <v>10</v>
+      </c>
+      <c r="B66" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="74">
+        <v>25</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="68">
+        <v>11</v>
+      </c>
+      <c r="B73" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="68">
+        <v>12</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="69">
+        <v>22</v>
+      </c>
+      <c r="E80" s="76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="44"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="44"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C45" r:id="rId1" display="шт"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
     <sheet name="Соль" sheetId="2" r:id="rId2"/>
     <sheet name="Сода" sheetId="3" r:id="rId3"/>
+    <sheet name="Крохмал" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="209">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -2226,13 +2227,86 @@
       </rPr>
       <t xml:space="preserve"> https://atena.com.ua/ua/p1753496847-soda-kaltsinirovannaya-marka.html</t>
     </r>
+  </si>
+  <si>
+    <t>Крохмаль картопляний Екстра, "Вімал"</t>
+  </si>
+  <si>
+    <t>56 - 58</t>
+  </si>
+  <si>
+    <t>Крохмаль кукурудзяний, сухий в/г, мішки  25 / 30 кг</t>
+  </si>
+  <si>
+    <t>25/30</t>
+  </si>
+  <si>
+    <t>31,8 - 33</t>
+  </si>
+  <si>
+    <t>Кислота лимонна Китай моногідрат до 200 кг</t>
+  </si>
+  <si>
+    <t>61 - 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кислота лимонна Китай моногідрат від 200 кг / від 800 кг </t>
+  </si>
+  <si>
+    <t>59 - 60 / 56-57</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кислота лимонна Харчова Китай моногідрат </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5 кг</t>
+    </r>
+  </si>
+  <si>
+    <t>70 - 75</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кислота лимонна </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">безводна </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Китай</t>
+    </r>
+  </si>
+  <si>
+    <t>75 - 78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2428,6 +2502,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2541,7 +2621,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2597,212 +2677,221 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3089,8 +3178,8 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3197,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
+      <c r="A1" s="74"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -3127,18 +3216,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="76" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -3151,13 +3240,13 @@
       <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="84"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3175,14 +3264,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="82">
         <v>9</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="83">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="74" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3202,9 +3291,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="22"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3222,9 +3311,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3242,9 +3331,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,10 +3352,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="82">
         <v>20</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="83">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -3290,8 +3379,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -3312,8 +3401,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -3334,7 +3423,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3353,14 +3442,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="82">
         <v>45</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="83">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="81" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3380,9 +3469,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3400,9 +3489,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3421,14 +3510,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="82">
         <v>70</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="83">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="81" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3448,9 +3537,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="20"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3595,10 +3684,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="82">
         <v>80</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="73">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -3619,8 +3708,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="21">
+      <c r="I27" s="82"/>
+      <c r="J27" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3940,10 +4029,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="82">
         <v>120</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="73">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -3964,8 +4053,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="21"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="73"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -4139,6 +4228,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
@@ -4155,10 +4248,6 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4176,1151 +4265,1167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="52.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="31"/>
-    <col min="4" max="4" width="8.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="31"/>
-    <col min="7" max="7" width="72.7109375" style="31" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="31"/>
-    <col min="10" max="10" width="22.5703125" style="31" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="31"/>
-    <col min="14" max="14" width="44.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="52.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="8.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="72.7109375" style="19" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="22.5703125" style="19" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="44.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="25">
         <v>25</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="20">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="E7" s="32">
+      <c r="A7" s="86"/>
+      <c r="E7" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="86"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="86"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="86"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="32">
         <v>25</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="86"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="86"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="86"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="86"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="86"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="86"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="31">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="32">
         <v>25</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="86"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="86"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="86"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="86"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="86"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="31">
         <v>4</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="32">
         <v>25</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="86"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="86"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="86"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="86"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="86"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="86"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="31">
         <v>5</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="32">
         <v>25</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="86"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="86"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="86"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="86"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="86"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="86"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="31">
         <v>6</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="32">
         <v>25</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="86"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="86"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="86"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="86"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="86"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="86"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
+      <c r="A51" s="31">
         <v>8</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="32">
         <v>25</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="34" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="86"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="86"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="86"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="86"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="86"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="86"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49">
+      <c r="A59" s="35">
         <v>24</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="46">
+      <c r="D59" s="32">
         <v>12</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="50"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="86"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="86"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="86"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="86"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="86"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="86"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45">
+      <c r="A67" s="31">
         <v>7</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="46">
+      <c r="D67" s="32">
         <v>25</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="34" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="20">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="86"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="86"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="86"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="86"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="86"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45">
+      <c r="A75" s="31">
         <v>9</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="46">
+      <c r="D75" s="32">
         <v>25</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E76" s="20">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="86"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="86"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="86"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="86"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="86"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="A82" s="86"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45">
+      <c r="A83" s="31">
         <v>10</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="46">
+      <c r="D83" s="32">
         <v>25</v>
       </c>
-      <c r="E83" s="47" t="s">
+      <c r="E83" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="86"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
+      <c r="A86" s="86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
+      <c r="A87" s="86"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
+      <c r="A88" s="86"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
+      <c r="A89" s="86"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
+      <c r="A90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45">
+      <c r="A91" s="31">
         <v>11</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="46">
+      <c r="D91" s="32">
         <v>1</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
+      <c r="A93" s="86"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="86"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
+      <c r="A95" s="86"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
+      <c r="A96" s="86"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
+      <c r="A97" s="86"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
+      <c r="A98" s="86"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="45">
+      <c r="A99" s="31">
         <v>12</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C99" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="46">
+      <c r="D99" s="32">
         <v>25</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="86"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
+      <c r="A102" s="86"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
+      <c r="A103" s="86"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
+      <c r="A104" s="86"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
+      <c r="A105" s="86"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
+      <c r="A106" s="86"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="49">
+      <c r="A107" s="35">
         <v>13</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D107" s="56">
+      <c r="D107" s="42">
         <v>10</v>
       </c>
-      <c r="E107" s="57" t="s">
+      <c r="E107" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="32">
+      <c r="E108" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="33" t="s">
+      <c r="A109" s="86"/>
+      <c r="B109" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="32">
+      <c r="E109" s="20">
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="33" t="s">
+      <c r="A110" s="86"/>
+      <c r="B110" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="20">
         <v>13000</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="33" t="s">
+      <c r="A111" s="86"/>
+      <c r="B111" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="32">
+      <c r="E111" s="20">
         <v>15000</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="86"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
+      <c r="A113" s="86"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
+      <c r="A114" s="86"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="49">
+      <c r="A115" s="35">
         <v>14</v>
       </c>
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="56">
+      <c r="D115" s="42">
         <v>10</v>
       </c>
-      <c r="E115" s="58" t="s">
+      <c r="E115" s="44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="20">
         <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="33" t="s">
+      <c r="A117" s="86"/>
+      <c r="B117" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="32">
+      <c r="E117" s="20">
         <v>19000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
+      <c r="A118" s="86"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
+      <c r="A119" s="86"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
+      <c r="A120" s="86"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
+      <c r="A121" s="86"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
+      <c r="A122" s="86"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="49">
+      <c r="A123" s="35">
         <v>15</v>
       </c>
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D123" s="56">
+      <c r="D123" s="42">
         <v>25</v>
       </c>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="20">
         <v>18200</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="33" t="s">
+      <c r="A125" s="86"/>
+      <c r="B125" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E125" s="32">
+      <c r="E125" s="20">
         <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="33" t="s">
+      <c r="A126" s="86"/>
+      <c r="B126" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E126" s="32">
+      <c r="E126" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="33" t="s">
+      <c r="A127" s="86"/>
+      <c r="B127" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E127" s="32">
+      <c r="E127" s="20">
         <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
+      <c r="A128" s="86"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
+      <c r="A129" s="86"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
+      <c r="A130" s="86"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="49">
+      <c r="A131" s="35">
         <v>16</v>
       </c>
-      <c r="B131" s="65" t="s">
+      <c r="B131" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D131" s="56">
+      <c r="D131" s="42">
         <v>25</v>
       </c>
-      <c r="E131" s="59" t="s">
+      <c r="E131" s="45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E132" s="32">
+      <c r="E132" s="20">
         <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
+      <c r="A133" s="86"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
+      <c r="A134" s="86"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
+      <c r="A135" s="86"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
+      <c r="A136" s="86"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
+      <c r="A137" s="86"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
+      <c r="A138" s="86"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="49">
+      <c r="A139" s="35">
         <v>17</v>
       </c>
-      <c r="B139" s="66" t="s">
+      <c r="B139" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C139" s="60" t="s">
+      <c r="C139" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D139" s="60">
+      <c r="D139" s="46">
         <v>25</v>
       </c>
-      <c r="E139" s="61" t="s">
+      <c r="E139" s="47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E140" s="32">
+      <c r="E140" s="20">
         <v>13.6</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="33" t="s">
+      <c r="A141" s="86"/>
+      <c r="B141" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E141" s="32">
+      <c r="E141" s="20">
         <v>1360</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
+      <c r="A142" s="86"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
+      <c r="A143" s="86"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
+      <c r="A144" s="86"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
+      <c r="A145" s="86"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="86"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="49">
+      <c r="A147" s="35">
         <v>18</v>
       </c>
-      <c r="B147" s="65" t="s">
+      <c r="B147" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C147" s="60" t="s">
+      <c r="C147" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="60">
+      <c r="D147" s="46">
         <v>25</v>
       </c>
-      <c r="E147" s="62" t="s">
+      <c r="E147" s="48" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="44"/>
+      <c r="A149" s="86"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
+      <c r="A150" s="86"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="86"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="86"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
+      <c r="A153" s="86"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
+      <c r="A154" s="86"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="49">
+      <c r="A155" s="35">
         <v>19</v>
       </c>
-      <c r="B155" s="67" t="s">
+      <c r="B155" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="56" t="s">
+      <c r="C155" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D155" s="56">
+      <c r="D155" s="42">
         <v>25</v>
       </c>
-      <c r="E155" s="58" t="s">
+      <c r="E155" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E156" s="32">
+      <c r="E156" s="20">
         <v>5600</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
+      <c r="A157" s="86"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
+      <c r="A158" s="86"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
+      <c r="A159" s="86"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
+      <c r="A160" s="86"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
+      <c r="A161" s="86"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
+      <c r="A162" s="86"/>
     </row>
     <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="49">
+      <c r="A163" s="35">
         <v>20</v>
       </c>
-      <c r="B163" s="67" t="s">
+      <c r="B163" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C163" s="56" t="s">
+      <c r="C163" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D163" s="56">
+      <c r="D163" s="42">
         <v>50</v>
       </c>
-      <c r="E163" s="62" t="s">
+      <c r="E163" s="48" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="43" t="s">
+      <c r="A164" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E164" s="32">
+      <c r="E164" s="20">
         <v>7.6</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
+      <c r="A165" s="86"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
+      <c r="A166" s="86"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
+      <c r="A167" s="86"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="86"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
+      <c r="A169" s="86"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
+      <c r="A170" s="86"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="49">
+      <c r="A171" s="35">
         <v>21</v>
       </c>
-      <c r="B171" s="67" t="s">
+      <c r="B171" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C171" s="56" t="s">
+      <c r="C171" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D171" s="56">
+      <c r="D171" s="42">
         <v>10</v>
       </c>
-      <c r="E171" s="58" t="s">
+      <c r="E171" s="44" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="63" t="s">
+      <c r="A172" s="85" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
+      <c r="A173" s="86"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
+      <c r="A174" s="86"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
+      <c r="A175" s="86"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
+      <c r="A176" s="86"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
+      <c r="A177" s="86"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
+      <c r="A178" s="86"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="49">
+      <c r="A179" s="35">
         <v>22</v>
       </c>
-      <c r="B179" s="67" t="s">
+      <c r="B179" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="56" t="s">
+      <c r="C179" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D179" s="56">
+      <c r="D179" s="42">
         <v>50</v>
       </c>
-      <c r="E179" s="58" t="s">
+      <c r="E179" s="44" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="63" t="s">
+      <c r="A180" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B180" s="33" t="s">
+      <c r="B180" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E180" s="32">
+      <c r="E180" s="20">
         <v>8.4</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="33" t="s">
+      <c r="A181" s="86"/>
+      <c r="B181" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E181" s="32">
+      <c r="E181" s="20">
         <v>8000</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
+      <c r="A182" s="86"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
+      <c r="A183" s="86"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
+      <c r="A184" s="86"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
+      <c r="A185" s="86"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
+      <c r="A186" s="86"/>
     </row>
     <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="49">
+      <c r="A187" s="35">
         <v>23</v>
       </c>
-      <c r="B187" s="67" t="s">
+      <c r="B187" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C187" s="56" t="s">
+      <c r="C187" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D187" s="56">
+      <c r="D187" s="42">
         <v>25</v>
       </c>
-      <c r="E187" s="58" t="s">
+      <c r="E187" s="44" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="63" t="s">
+      <c r="A188" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E188" s="32">
+      <c r="E188" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="44"/>
+      <c r="A189" s="86"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
+      <c r="A190" s="86"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
+      <c r="A191" s="86"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
+      <c r="A192" s="86"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
+      <c r="A193" s="86"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
+      <c r="A194" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A116:A122"/>
     <mergeCell ref="A180:A186"/>
     <mergeCell ref="A188:A194"/>
     <mergeCell ref="A132:A138"/>
@@ -5329,22 +5434,6 @@
     <mergeCell ref="A156:A162"/>
     <mergeCell ref="A164:A170"/>
     <mergeCell ref="A172:A178"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A36:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -5366,567 +5455,562 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.42578125" style="81" customWidth="1"/>
-    <col min="5" max="5" width="23" style="77" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="23" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="54">
         <v>25</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="61" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="68">
         <v>25.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="86"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="86"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="86"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="86"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="86"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="53">
         <v>2</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="54">
         <v>25</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="61" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="68">
         <v>25800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="81" t="s">
+    <row r="12" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="68">
         <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="86"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="86"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="86"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="86"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
+      <c r="A17" s="53">
         <v>3</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="54">
         <v>25</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="61" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="68">
         <v>645</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="81" t="s">
+    <row r="19" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="68">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="86"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="86"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="86"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="86"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
+      <c r="A24" s="53">
         <v>4</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="42">
         <v>25</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="68">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="86"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="86"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="86"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="86"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="86"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68">
+      <c r="A31" s="53">
         <v>5</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="42">
         <v>25</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="63" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="86"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="86"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="86"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="86"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="86"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="55">
         <v>6</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="56">
         <v>25</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="64" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+    <row r="39" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="68">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="86"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="86"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="86"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="86"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="86"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68">
+      <c r="A45" s="53">
         <v>7</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="42">
         <v>25</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="63" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+    <row r="46" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="83">
+      <c r="E46" s="68">
         <v>42000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="81" t="s">
+    <row r="47" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86"/>
+      <c r="B47" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="83">
+      <c r="E47" s="68">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="81" t="s">
+    <row r="48" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="86"/>
+      <c r="B48" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="83">
+      <c r="E48" s="68">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="81" t="s">
+    <row r="49" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="86"/>
+      <c r="B49" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="83">
+      <c r="E49" s="68">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="81" t="s">
+    <row r="50" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="86"/>
+      <c r="B50" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="83">
+      <c r="E50" s="68">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="86"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68">
+      <c r="A52" s="53">
         <v>8</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="54">
         <v>25</v>
       </c>
-      <c r="E52" s="80" t="s">
+      <c r="E52" s="65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="87" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="86"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="86"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="86"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="86"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="86"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68">
+      <c r="A59" s="53">
         <v>9</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="72" t="s">
+      <c r="C59" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D59" s="58">
         <v>1.25</v>
       </c>
-      <c r="E59" s="80" t="s">
+      <c r="E59" s="65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+    <row r="60" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="83">
+      <c r="E60" s="68">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="86"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="86"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="86"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="86"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="86"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="68">
+      <c r="A66" s="53">
         <v>10</v>
       </c>
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="59">
         <v>25</v>
       </c>
-      <c r="E66" s="78" t="s">
+      <c r="E66" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="E67" s="83">
+      <c r="E67" s="68">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="81" t="s">
+    <row r="68" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="86"/>
+      <c r="B68" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="83">
+      <c r="E68" s="68">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="86"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="86"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="86"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68">
+      <c r="A73" s="53">
         <v>11</v>
       </c>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="80" t="s">
+      <c r="D73" s="54"/>
+      <c r="E73" s="65" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+    <row r="74" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="83">
+      <c r="E74" s="68">
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="86"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="86"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="86"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="86"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="86"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="68">
+      <c r="A80" s="53">
         <v>12</v>
       </c>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D80" s="69">
+      <c r="D80" s="54">
         <v>22</v>
       </c>
-      <c r="E80" s="76" t="s">
+      <c r="E80" s="61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+    <row r="81" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E81" s="83">
+      <c r="E81" s="68">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="A82" s="86"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
+      <c r="A83" s="86"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
+      <c r="A84" s="86"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="86"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
+      <c r="A86" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A74:A79"/>
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A16"/>
@@ -5934,10 +6018,246 @@
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C45" r:id="rId1" display="шт"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="42">
+        <v>25</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>5</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="42">
+        <v>25</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="86"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>6</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="42">
+        <v>25</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>7</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="42">
+        <v>5</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="86"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="86"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="86"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>8</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="90">
+        <v>25</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="219">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -2300,6 +2300,256 @@
   </si>
   <si>
     <t>75 - 78</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль кукурудзяний мішок 30кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1260003806-krahmal-kukuruznyj-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Кукурудзяний Крохмаль ОПТ  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1441751716-kukuruznyj-krahmal-opt.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль картопляний Екстра мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p715584470-krahmal-kartofelnyj-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Картопляний крохмаль екстра в мішках по 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2092450250-kartofelnyj-krahmal-ekstra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль картопляний Вімал мішок 25кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1747704030-krahmal-kartofelnyj-vimal.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль кукурудзяний в мішках по 30кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1747685629-krahmal-kukuruznyj-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Кукурудзяний крохмаль в мішках по 30кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1163906449-kukuruznyj-krahmal-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль картопляний в/г мішок 25кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1184823533-krahmal-kartofelnyj-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Картопляний крохмаль в/г мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1886113219-kartofelnyj-krahmal-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крохмаль картопляний мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1715452067-krahmal-kartofelnyj-meshok.html</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2571,7 +2821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2612,6 +2862,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2621,7 +2880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2884,14 +3143,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6036,19 +6294,21 @@
   <dimension ref="A3:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E38"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="89"/>
+    <col min="5" max="5" width="16.42578125" style="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="38" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -6057,35 +6317,71 @@
       <c r="D3" s="42">
         <v>25</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="65" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="90">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="90">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="90">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>2</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -6094,23 +6390,47 @@
       <c r="D10" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="90">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="90">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="90">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
+      <c r="B14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="90">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
@@ -6122,7 +6442,7 @@
       <c r="A17" s="53">
         <v>5</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="41" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -6131,7 +6451,7 @@
       <c r="D17" s="42">
         <v>25</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="65" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6159,7 +6479,7 @@
       <c r="A24" s="53">
         <v>6</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="41" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -6168,7 +6488,7 @@
       <c r="D24" s="42">
         <v>25</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="65" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6196,7 +6516,7 @@
       <c r="A31" s="53">
         <v>7</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="41" t="s">
         <v>205</v>
       </c>
       <c r="C31" s="42" t="s">
@@ -6205,7 +6525,7 @@
       <c r="D31" s="42">
         <v>5</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="65" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6233,26 +6553,26 @@
       <c r="A38" s="53">
         <v>8</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="41" t="s">
         <v>207</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="88">
         <v>25</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="65" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="224">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -2549,6 +2549,122 @@
         <scheme val="minor"/>
       </rPr>
       <t>https://atena.com.ua/ua/p1715452067-krahmal-kartofelnyj-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Лимонна кислота безводна в мішках по 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1371913404-limonnaya-kislota-bezvodnaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Кислота лимонна в мішках по 25 кг Monohydrate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1441769637-kislota-limonnaya-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Кислота лимонна в мішках по 25кг моногідрат  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1163906524-kislota-limonnaya-e330.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Лимонна кислота безводна в мішках по 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1371888377-limonnaya-kislota-bezvodnaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Лимонна кислота 5 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2118026387-limonnaya-kislota.html</t>
     </r>
   </si>
 </sst>
@@ -2880,7 +2996,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3083,9 +3199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3147,9 +3260,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3455,7 +3576,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
+      <c r="A1" s="73"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -3474,18 +3595,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -3498,13 +3619,13 @@
       <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="75"/>
+      <c r="G2" s="83"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3522,14 +3643,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="81">
         <v>9</v>
       </c>
-      <c r="J3" s="83">
+      <c r="J3" s="82">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3549,9 +3670,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="74"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3569,9 +3690,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="74"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3589,9 +3710,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="74"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,10 +3731,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="81">
         <v>20</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="82">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -3637,8 +3758,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -3659,8 +3780,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3802,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="82"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3700,14 +3821,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="81">
         <v>45</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="82">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="80" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3727,9 +3848,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3747,9 +3868,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,14 +3889,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="81">
         <v>70</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="82">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="80" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3795,9 +3916,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,10 +4063,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="81">
         <v>80</v>
       </c>
-      <c r="J26" s="73">
+      <c r="J26" s="72">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -3966,8 +4087,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="73">
+      <c r="I27" s="81"/>
+      <c r="J27" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4287,10 +4408,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="82">
+      <c r="I47" s="81">
         <v>120</v>
       </c>
-      <c r="J47" s="73">
+      <c r="J47" s="72">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -4311,8 +4432,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="73"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="72"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -4573,7 +4694,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -4584,7 +4705,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
@@ -4593,19 +4714,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="85"/>
       <c r="E7" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="85"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="85"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="85"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
@@ -4625,7 +4746,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -4636,22 +4757,22 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="85"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="85"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="85"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="85"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="85"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -4671,7 +4792,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4682,7 +4803,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
@@ -4691,19 +4812,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="85"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="85"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="85"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="85"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -4723,27 +4844,27 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="85"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="85"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="85"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="85"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="85"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="85"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -4763,27 +4884,27 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="85"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
+      <c r="A38" s="85"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="85"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="85"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="85"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="85"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -4803,27 +4924,27 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
+      <c r="A45" s="85"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
+      <c r="A46" s="85"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+      <c r="A47" s="85"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="85"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="85"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -4843,27 +4964,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
+      <c r="A53" s="85"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="85"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="85"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="85"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+      <c r="A57" s="85"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="85"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
@@ -4884,27 +5005,27 @@
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+      <c r="A61" s="85"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
+      <c r="A62" s="85"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+      <c r="A63" s="85"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="85"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+      <c r="A65" s="85"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
+      <c r="A66" s="85"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
@@ -4924,7 +5045,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -4935,22 +5056,22 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="85"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="85"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
+      <c r="A71" s="85"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="85"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
+      <c r="A73" s="85"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+      <c r="A74" s="85"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
@@ -4970,7 +5091,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -4981,22 +5102,22 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
+      <c r="A77" s="85"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
+      <c r="A78" s="85"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
+      <c r="A79" s="85"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
+      <c r="A80" s="85"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
+      <c r="A81" s="85"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
+      <c r="A82" s="85"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -5016,27 +5137,27 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="85"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
+      <c r="A87" s="85"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
+      <c r="A88" s="85"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
+      <c r="A89" s="85"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+      <c r="A90" s="85"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
@@ -5056,27 +5177,27 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="87" t="s">
+      <c r="A92" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
+      <c r="A93" s="85"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="85"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
+      <c r="A95" s="85"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
+      <c r="A96" s="85"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
+      <c r="A97" s="85"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
+      <c r="A98" s="85"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
@@ -5096,27 +5217,27 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="86"/>
+      <c r="A101" s="85"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="86"/>
+      <c r="A102" s="85"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="86"/>
+      <c r="A103" s="85"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
+      <c r="A104" s="85"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
+      <c r="A105" s="85"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
+      <c r="A106" s="85"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -5136,7 +5257,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="87" t="s">
+      <c r="A108" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -5147,7 +5268,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="86"/>
+      <c r="A109" s="85"/>
       <c r="B109" s="21" t="s">
         <v>129</v>
       </c>
@@ -5156,7 +5277,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="86"/>
+      <c r="A110" s="85"/>
       <c r="B110" s="21" t="s">
         <v>130</v>
       </c>
@@ -5165,7 +5286,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="21" t="s">
         <v>131</v>
       </c>
@@ -5174,13 +5295,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
+      <c r="A112" s="85"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
+      <c r="A113" s="85"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
+      <c r="A114" s="85"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -5200,7 +5321,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87" t="s">
+      <c r="A116" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -5211,7 +5332,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
+      <c r="A117" s="85"/>
       <c r="B117" s="21" t="s">
         <v>132</v>
       </c>
@@ -5220,19 +5341,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
+      <c r="A118" s="85"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
+      <c r="A119" s="85"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
+      <c r="A120" s="85"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
+      <c r="A121" s="85"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
+      <c r="A122" s="85"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -5252,7 +5373,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="87" t="s">
+      <c r="A124" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B124" s="21" t="s">
@@ -5263,7 +5384,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
+      <c r="A125" s="85"/>
       <c r="B125" s="21" t="s">
         <v>136</v>
       </c>
@@ -5272,7 +5393,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
+      <c r="A126" s="85"/>
       <c r="B126" s="21" t="s">
         <v>137</v>
       </c>
@@ -5281,7 +5402,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="86"/>
+      <c r="A127" s="85"/>
       <c r="B127" s="21" t="s">
         <v>138</v>
       </c>
@@ -5290,13 +5411,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="86"/>
+      <c r="A128" s="85"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="86"/>
+      <c r="A129" s="85"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="86"/>
+      <c r="A130" s="85"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35">
@@ -5316,7 +5437,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="87" t="s">
+      <c r="A132" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="21" t="s">
@@ -5327,22 +5448,22 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="86"/>
+      <c r="A133" s="85"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="86"/>
+      <c r="A134" s="85"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="86"/>
+      <c r="A135" s="85"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="86"/>
+      <c r="A136" s="85"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="86"/>
+      <c r="A137" s="85"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="86"/>
+      <c r="A138" s="85"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35">
@@ -5362,7 +5483,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="87" t="s">
+      <c r="A140" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="21" t="s">
@@ -5373,7 +5494,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="86"/>
+      <c r="A141" s="85"/>
       <c r="B141" s="21" t="s">
         <v>139</v>
       </c>
@@ -5382,19 +5503,19 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="86"/>
+      <c r="A142" s="85"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="86"/>
+      <c r="A143" s="85"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="86"/>
+      <c r="A144" s="85"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="86"/>
+      <c r="A145" s="85"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="86"/>
+      <c r="A146" s="85"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35">
@@ -5414,27 +5535,27 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="87" t="s">
+      <c r="A148" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="86"/>
+      <c r="A149" s="85"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="86"/>
+      <c r="A150" s="85"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="86"/>
+      <c r="A151" s="85"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="86"/>
+      <c r="A152" s="85"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="86"/>
+      <c r="A153" s="85"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="86"/>
+      <c r="A154" s="85"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35">
@@ -5454,7 +5575,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="87" t="s">
+      <c r="A156" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="21" t="s">
@@ -5465,22 +5586,22 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="86"/>
+      <c r="A157" s="85"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="86"/>
+      <c r="A158" s="85"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="86"/>
+      <c r="A159" s="85"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="86"/>
+      <c r="A160" s="85"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="86"/>
+      <c r="A161" s="85"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="86"/>
+      <c r="A162" s="85"/>
     </row>
     <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="35">
@@ -5500,7 +5621,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="87" t="s">
+      <c r="A164" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="21" t="s">
@@ -5511,22 +5632,22 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="86"/>
+      <c r="A165" s="85"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="86"/>
+      <c r="A166" s="85"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="86"/>
+      <c r="A167" s="85"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="86"/>
+      <c r="A168" s="85"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="86"/>
+      <c r="A169" s="85"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="86"/>
+      <c r="A170" s="85"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="35">
@@ -5546,27 +5667,27 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="85" t="s">
+      <c r="A172" s="84" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="86"/>
+      <c r="A173" s="85"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="86"/>
+      <c r="A174" s="85"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="86"/>
+      <c r="A175" s="85"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="86"/>
+      <c r="A176" s="85"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="86"/>
+      <c r="A177" s="85"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="86"/>
+      <c r="A178" s="85"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35">
@@ -5586,7 +5707,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="85" t="s">
+      <c r="A180" s="84" t="s">
         <v>80</v>
       </c>
       <c r="B180" s="21" t="s">
@@ -5597,7 +5718,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="86"/>
+      <c r="A181" s="85"/>
       <c r="B181" s="21" t="s">
         <v>153</v>
       </c>
@@ -5606,19 +5727,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="86"/>
+      <c r="A182" s="85"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="86"/>
+      <c r="A183" s="85"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="86"/>
+      <c r="A184" s="85"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="86"/>
+      <c r="A185" s="85"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="86"/>
+      <c r="A186" s="85"/>
     </row>
     <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35">
@@ -5638,7 +5759,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="85" t="s">
+      <c r="A188" s="84" t="s">
         <v>80</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -5649,22 +5770,22 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="86"/>
+      <c r="A189" s="85"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="86"/>
+      <c r="A190" s="85"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="86"/>
+      <c r="A191" s="85"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="86"/>
+      <c r="A192" s="85"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="86"/>
+      <c r="A193" s="85"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="86"/>
+      <c r="A194" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5713,8 +5834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,7 +5848,7 @@
       <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="54" t="s">
@@ -5741,36 +5862,36 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="91">
         <v>25.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="85"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="85"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="85"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="85"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="85"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>2</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -5784,42 +5905,42 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="91">
         <v>25800</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="91">
         <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="85"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="85"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>3</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -5833,42 +5954,42 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="91">
         <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="91">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="85"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="85"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="85"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="85"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>4</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="54" t="s">
@@ -5882,36 +6003,36 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="91">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="85"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="85"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="85"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="85"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
         <v>5</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="69" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="54" t="s">
@@ -5925,30 +6046,30 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="85"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="85"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="85"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
+      <c r="A36" s="85"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="85"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>6</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="69" t="s">
         <v>164</v>
       </c>
       <c r="C38" s="56" t="s">
@@ -5962,36 +6083,36 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="91">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="85"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="85"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="85"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="85"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
+      <c r="A44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
         <v>7</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="69" t="s">
         <v>166</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -6005,60 +6126,60 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="91">
         <v>42000</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="91">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="91">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="91">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="68">
+      <c r="E50" s="91">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
+      <c r="A51" s="85"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
         <v>8</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="70" t="s">
         <v>168</v>
       </c>
       <c r="C52" s="42" t="s">
@@ -6072,30 +6193,30 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="85"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="85"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="85"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+      <c r="A57" s="85"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="85"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
         <v>9</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="70" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="57" t="s">
@@ -6109,36 +6230,36 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="91">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+      <c r="A61" s="85"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
+      <c r="A62" s="85"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+      <c r="A63" s="85"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="85"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+      <c r="A65" s="85"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>10</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="71" t="s">
         <v>172</v>
       </c>
       <c r="C66" s="57" t="s">
@@ -6152,42 +6273,42 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="91">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="68">
+      <c r="E68" s="91">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="85"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="85"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
+      <c r="A71" s="85"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="85"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
         <v>11</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="70" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="42" t="s">
@@ -6199,30 +6320,30 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="68">
+      <c r="E74" s="91">
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
+      <c r="A75" s="85"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
+      <c r="A76" s="85"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
+      <c r="A77" s="85"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
+      <c r="A78" s="85"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
+      <c r="A79" s="85"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
@@ -6242,30 +6363,30 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="91">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
+      <c r="A82" s="85"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
+      <c r="A83" s="85"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="85"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6291,17 +6412,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="89"/>
-    <col min="5" max="5" width="16.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="88"/>
+    <col min="5" max="5" width="16.42578125" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -6322,7 +6443,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6333,7 +6454,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
@@ -6342,7 +6463,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="3" t="s">
         <v>213</v>
       </c>
@@ -6351,7 +6472,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
@@ -6360,7 +6481,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="3" t="s">
         <v>217</v>
       </c>
@@ -6369,7 +6490,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="3" t="s">
         <v>218</v>
       </c>
@@ -6395,7 +6516,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6406,7 +6527,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="3" t="s">
         <v>210</v>
       </c>
@@ -6415,7 +6536,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
@@ -6424,7 +6545,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
@@ -6433,10 +6554,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="85"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="85"/>
+      <c r="E16" s="90"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -6455,25 +6578,34 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>80</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="90"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="85"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="85"/>
+      <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="85"/>
+      <c r="E21" s="90"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="85"/>
+      <c r="E22" s="90"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="85"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -6492,25 +6624,36 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="86" t="s">
         <v>80</v>
       </c>
+      <c r="B25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="90">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
+      <c r="E26" s="90"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="85"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="85"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="85"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="85"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -6529,25 +6672,36 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="86" t="s">
         <v>80</v>
       </c>
+      <c r="B32" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="90">
+        <v>390</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="85"/>
+      <c r="E33" s="90"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="85"/>
+      <c r="E34" s="90"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="85"/>
+      <c r="E35" s="90"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
+      <c r="A36" s="85"/>
+      <c r="E36" s="90"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="85"/>
+      <c r="E37" s="90"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
@@ -6559,15 +6713,48 @@
       <c r="C38" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="87">
         <v>25</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="90">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="85"/>
+      <c r="B40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="90">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="85"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="85"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="85"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="85"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A25:A30"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
     <sheet name="Соль" sheetId="2" r:id="rId2"/>
     <sheet name="Сода" sheetId="3" r:id="rId3"/>
-    <sheet name="Крохмал" sheetId="4" r:id="rId4"/>
+    <sheet name="Харчові добавки" sheetId="4" r:id="rId4"/>
+    <sheet name="Хімічні речовини" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -2665,6 +2666,473 @@
         <scheme val="minor"/>
       </rPr>
       <t>https://atena.com.ua/ua/p2118026387-limonnaya-kislota.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Хлорне вапно, Румунія, 1 ґатунок, 32% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>до 200 кг/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> до </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>500 кг</t>
+    </r>
+  </si>
+  <si>
+    <t>50 / 49</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Хлорне вапно, Румунія, 1 ґатунок, 32% від </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>525кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / від</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 т</t>
+    </r>
+  </si>
+  <si>
+    <t>48 / 45 - 47</t>
+  </si>
+  <si>
+    <t>Хлорне вапно 2010 р. .в. Кропиницький 150 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t>Бішофіт (магнію хлорид ), Індія (82320)</t>
+  </si>
+  <si>
+    <t>26 - 30</t>
+  </si>
+  <si>
+    <t>Кальцій хлористий, Єгипет, 25 кг / Unipel, Житомир</t>
+  </si>
+  <si>
+    <t>32 - 33 / 29</t>
+  </si>
+  <si>
+    <t>Кальцій хлористий, Єгипет, біг бег</t>
+  </si>
+  <si>
+    <t>30 - 31</t>
+  </si>
+  <si>
+    <t>Кальцій хлористий мішки 25 кг</t>
+  </si>
+  <si>
+    <t>27 - 28</t>
+  </si>
+  <si>
+    <t>Двуокис титану R-02 Китай</t>
+  </si>
+  <si>
+    <t>136 - 146</t>
+  </si>
+  <si>
+    <t>Каніфоль соснова в\ґ Індонез</t>
+  </si>
+  <si>
+    <t>120 - 140</t>
+  </si>
+  <si>
+    <t>Сургуч почтовий коричневий</t>
+  </si>
+  <si>
+    <t>160 - 180</t>
+  </si>
+  <si>
+    <t>Лабомід  203</t>
+  </si>
+  <si>
+    <t>46 - 48</t>
+  </si>
+  <si>
+    <t>Лабомід  101 25кг / 50 кг / 75 кг</t>
+  </si>
+  <si>
+    <t>102 /94 / 92</t>
+  </si>
+  <si>
+    <t>Перекис водню 35%  5кг, 10 кг, 20 кг</t>
+  </si>
+  <si>
+    <t>5/10/20</t>
+  </si>
+  <si>
+    <t>62 - 80</t>
+  </si>
+  <si>
+    <t>Перекис водню 60%  20 кг</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>76 - 90</t>
+  </si>
+  <si>
+    <t>Тринатрийфосфат, Китай 25кг / 5 кг</t>
+  </si>
+  <si>
+    <t>25/50</t>
+  </si>
+  <si>
+    <t>55 - 59 / 64 - 68</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Вапно хлорне в мішках по 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p55093800-izvest-hlornaya-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Хлорне вапно в мішках по 25кг опт від 1т </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p55093874-hlornaya-izvest-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Хлорне вапно, хлорка 25кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1922019349-hlornaya-izvest-hlorka.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вапно хлорне Румунія</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1715487726-izvest-hlornaya-rumyniya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Бішофіт технічний (хлорид магнію) 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2371495000-bishofit-tehnicheskij-hlorid.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Кальцій хлористий в мішках по 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p964111120-kaltsij-hloristyj-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сургуч поштовий </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1879663522-surguch-pochtovyj.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сургуч поштовий </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1391331686-surguch-pochtovyj.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Каніфоль соснова </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p963824556-kanifol-sosnovaya.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Лабомід 101 в мішках по 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1703478313-labomid-101-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Лабомід 203 в мішках по 25 кг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p963824530-labomid-203-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Перекис водню медичний 35 відсотків 5кг відвантаження зі складу  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1429154499-perekis-vodoroda-5kg.html</t>
     </r>
   </si>
 </sst>
@@ -2672,7 +3140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2874,8 +3342,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2936,8 +3411,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2987,6 +3468,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2996,7 +3490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3211,6 +3705,25 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3235,42 +3748,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3576,7 +4116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
+      <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -3595,18 +4135,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="82" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -3619,13 +4159,13 @@
       <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="74"/>
+      <c r="G2" s="88"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3643,14 +4183,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="77">
         <v>9</v>
       </c>
-      <c r="J3" s="82">
+      <c r="J3" s="87">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="80" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3670,9 +4210,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="73"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3690,9 +4230,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="73"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3710,9 +4250,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3731,10 +4271,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="77">
         <v>20</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="87">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -3758,8 +4298,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="87"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -3780,8 +4320,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="87"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -3802,7 +4342,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,14 +4361,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="77">
         <v>45</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="87">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="80" t="s">
+      <c r="K13" s="78" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3848,9 +4388,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="80"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3868,9 +4408,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="80"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,14 +4429,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="77">
         <v>70</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="87">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="78" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3916,9 +4456,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="80"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4063,10 +4603,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="77">
         <v>80</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="79">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -4087,8 +4627,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="72">
+      <c r="I27" s="77"/>
+      <c r="J27" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4408,10 +4948,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="81">
+      <c r="I47" s="77">
         <v>120</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="79">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -4432,8 +4972,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="72"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -4607,26 +5147,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I3:I6"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="J47:J48"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K3:K6"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J3:J6"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J26:J27"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4694,7 +5234,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -4705,7 +5245,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
@@ -4714,19 +5254,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="90"/>
       <c r="E7" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="90"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+      <c r="A9" s="90"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
+      <c r="A10" s="90"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
@@ -4746,7 +5286,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -4757,22 +5297,22 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="90"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="90"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="90"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="90"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="90"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="90"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -4792,7 +5332,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4803,7 +5343,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
@@ -4812,19 +5352,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="90"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="90"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="90"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
+      <c r="A25" s="90"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
+      <c r="A26" s="90"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -4844,27 +5384,27 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
+      <c r="A29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="90"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
+      <c r="A31" s="90"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
+      <c r="A32" s="90"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+      <c r="A33" s="90"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
+      <c r="A34" s="90"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -4884,27 +5424,27 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
+      <c r="A37" s="90"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="90"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
+      <c r="A39" s="90"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="90"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="90"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
+      <c r="A42" s="90"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -4924,27 +5464,27 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
+      <c r="A45" s="90"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="90"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
+      <c r="A47" s="90"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
+      <c r="A48" s="90"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
+      <c r="A49" s="90"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
+      <c r="A50" s="90"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -4964,27 +5504,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
+      <c r="A53" s="90"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="90"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
+      <c r="A55" s="90"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
+      <c r="A56" s="90"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
+      <c r="A57" s="90"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
+      <c r="A58" s="90"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
@@ -5005,27 +5545,27 @@
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="A61" s="90"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="A62" s="90"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
+      <c r="A63" s="90"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
+      <c r="A64" s="90"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
+      <c r="A65" s="90"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="85"/>
+      <c r="A66" s="90"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
@@ -5045,7 +5585,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -5056,22 +5596,22 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="90"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="90"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
+      <c r="A71" s="90"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
+      <c r="A72" s="90"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
+      <c r="A73" s="90"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
+      <c r="A74" s="90"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
@@ -5091,7 +5631,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -5102,22 +5642,22 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
+      <c r="A77" s="90"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="90"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
+      <c r="A79" s="90"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
+      <c r="A80" s="90"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
+      <c r="A81" s="90"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
+      <c r="A82" s="90"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -5137,27 +5677,27 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
+      <c r="A85" s="90"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
+      <c r="A86" s="90"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
+      <c r="A87" s="90"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
+      <c r="A88" s="90"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
+      <c r="A89" s="90"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="85"/>
+      <c r="A90" s="90"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
@@ -5177,27 +5717,27 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="86" t="s">
+      <c r="A92" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
+      <c r="A93" s="90"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
+      <c r="A94" s="90"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
+      <c r="A95" s="90"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
+      <c r="A96" s="90"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
+      <c r="A97" s="90"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="85"/>
+      <c r="A98" s="90"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
@@ -5217,27 +5757,27 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="86" t="s">
+      <c r="A100" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
+      <c r="A101" s="90"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
+      <c r="A102" s="90"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
+      <c r="A103" s="90"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="85"/>
+      <c r="A104" s="90"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
+      <c r="A105" s="90"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="85"/>
+      <c r="A106" s="90"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -5257,7 +5797,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="86" t="s">
+      <c r="A108" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -5268,7 +5808,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="85"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="21" t="s">
         <v>129</v>
       </c>
@@ -5277,7 +5817,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="21" t="s">
         <v>130</v>
       </c>
@@ -5286,7 +5826,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="21" t="s">
         <v>131</v>
       </c>
@@ -5295,13 +5835,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
+      <c r="A112" s="90"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
+      <c r="A113" s="90"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
+      <c r="A114" s="90"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -5321,7 +5861,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="86" t="s">
+      <c r="A116" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -5332,7 +5872,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="21" t="s">
         <v>132</v>
       </c>
@@ -5341,19 +5881,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="85"/>
+      <c r="A118" s="90"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="85"/>
+      <c r="A119" s="90"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
+      <c r="A120" s="90"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
+      <c r="A121" s="90"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
+      <c r="A122" s="90"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -5373,7 +5913,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B124" s="21" t="s">
@@ -5384,7 +5924,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="21" t="s">
         <v>136</v>
       </c>
@@ -5393,7 +5933,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="85"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="21" t="s">
         <v>137</v>
       </c>
@@ -5402,7 +5942,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="85"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="21" t="s">
         <v>138</v>
       </c>
@@ -5411,13 +5951,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="85"/>
+      <c r="A128" s="90"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="85"/>
+      <c r="A129" s="90"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="85"/>
+      <c r="A130" s="90"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35">
@@ -5437,7 +5977,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="86" t="s">
+      <c r="A132" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="21" t="s">
@@ -5448,22 +5988,22 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
+      <c r="A133" s="90"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="85"/>
+      <c r="A134" s="90"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="85"/>
+      <c r="A135" s="90"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="85"/>
+      <c r="A136" s="90"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="85"/>
+      <c r="A137" s="90"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="85"/>
+      <c r="A138" s="90"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35">
@@ -5483,7 +6023,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="86" t="s">
+      <c r="A140" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="21" t="s">
@@ -5494,7 +6034,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="85"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="21" t="s">
         <v>139</v>
       </c>
@@ -5503,19 +6043,19 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="85"/>
+      <c r="A142" s="90"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="85"/>
+      <c r="A143" s="90"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="85"/>
+      <c r="A144" s="90"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="85"/>
+      <c r="A145" s="90"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="85"/>
+      <c r="A146" s="90"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35">
@@ -5535,27 +6075,27 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="86" t="s">
+      <c r="A148" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="85"/>
+      <c r="A149" s="90"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="85"/>
+      <c r="A150" s="90"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="85"/>
+      <c r="A151" s="90"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="85"/>
+      <c r="A152" s="90"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="85"/>
+      <c r="A153" s="90"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="85"/>
+      <c r="A154" s="90"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35">
@@ -5575,7 +6115,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="86" t="s">
+      <c r="A156" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="21" t="s">
@@ -5586,22 +6126,22 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="85"/>
+      <c r="A157" s="90"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="85"/>
+      <c r="A158" s="90"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="85"/>
+      <c r="A159" s="90"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="85"/>
+      <c r="A160" s="90"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
+      <c r="A161" s="90"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="85"/>
+      <c r="A162" s="90"/>
     </row>
     <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="35">
@@ -5621,7 +6161,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="86" t="s">
+      <c r="A164" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="21" t="s">
@@ -5632,22 +6172,22 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="85"/>
+      <c r="A165" s="90"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="85"/>
+      <c r="A166" s="90"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="85"/>
+      <c r="A167" s="90"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="85"/>
+      <c r="A168" s="90"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="85"/>
+      <c r="A169" s="90"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="85"/>
+      <c r="A170" s="90"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="35">
@@ -5667,27 +6207,27 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="84" t="s">
+      <c r="A172" s="91" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="85"/>
+      <c r="A173" s="90"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="85"/>
+      <c r="A174" s="90"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="85"/>
+      <c r="A175" s="90"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="85"/>
+      <c r="A176" s="90"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="85"/>
+      <c r="A177" s="90"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="85"/>
+      <c r="A178" s="90"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35">
@@ -5707,7 +6247,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="84" t="s">
+      <c r="A180" s="91" t="s">
         <v>80</v>
       </c>
       <c r="B180" s="21" t="s">
@@ -5718,7 +6258,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="85"/>
+      <c r="A181" s="90"/>
       <c r="B181" s="21" t="s">
         <v>153</v>
       </c>
@@ -5727,19 +6267,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="85"/>
+      <c r="A182" s="90"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="85"/>
+      <c r="A183" s="90"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="85"/>
+      <c r="A184" s="90"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="85"/>
+      <c r="A185" s="90"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="85"/>
+      <c r="A186" s="90"/>
     </row>
     <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35">
@@ -5759,7 +6299,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="84" t="s">
+      <c r="A188" s="91" t="s">
         <v>80</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -5770,30 +6310,33 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="85"/>
+      <c r="A189" s="90"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="85"/>
+      <c r="A190" s="90"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="85"/>
+      <c r="A191" s="90"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="85"/>
+      <c r="A192" s="90"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="85"/>
+      <c r="A193" s="90"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="85"/>
+      <c r="A194" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="A188:A194"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A172:A178"/>
     <mergeCell ref="A124:A130"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A52:A58"/>
@@ -5805,14 +6348,11 @@
     <mergeCell ref="A100:A106"/>
     <mergeCell ref="A108:A114"/>
     <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="A188:A194"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A36:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -5834,7 +6374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -5862,30 +6402,30 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="75">
         <v>25.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="90"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="90"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+      <c r="A9" s="90"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
@@ -5905,36 +6445,36 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="75">
         <v>25800</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="75">
         <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="90"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="90"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="90"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="90"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -5954,36 +6494,36 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="75">
         <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="75">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
+      <c r="A20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
+      <c r="A21" s="90"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="90"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="90"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -6003,30 +6543,30 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="75">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
+      <c r="A26" s="90"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
+      <c r="A27" s="90"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
+      <c r="A28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
+      <c r="A29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -6046,24 +6586,24 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+      <c r="A33" s="90"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
+      <c r="A34" s="90"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
+      <c r="A35" s="90"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
+      <c r="A36" s="90"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
+      <c r="A37" s="90"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
@@ -6083,30 +6623,30 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="91">
+      <c r="E39" s="75">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="90"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="90"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
+      <c r="A42" s="90"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="90"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
+      <c r="A44" s="90"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
@@ -6126,54 +6666,54 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="91">
+      <c r="E46" s="75">
         <v>42000</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="91">
+      <c r="E47" s="75">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="91">
+      <c r="E48" s="75">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="91">
+      <c r="E49" s="75">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="91">
+      <c r="E50" s="75">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
+      <c r="A51" s="90"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
@@ -6193,24 +6733,24 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="90"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
+      <c r="A55" s="90"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
+      <c r="A56" s="90"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
+      <c r="A57" s="90"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
+      <c r="A58" s="90"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
@@ -6230,30 +6770,30 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="91">
+      <c r="E60" s="75">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="A61" s="90"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="A62" s="90"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
+      <c r="A63" s="90"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
+      <c r="A64" s="90"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
+      <c r="A65" s="90"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
@@ -6273,36 +6813,36 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="E67" s="91">
+      <c r="E67" s="75">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="91">
+      <c r="E68" s="75">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="90"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="90"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
+      <c r="A71" s="90"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
+      <c r="A72" s="90"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
@@ -6320,30 +6860,30 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="91">
+      <c r="E74" s="75">
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
+      <c r="A75" s="90"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
+      <c r="A76" s="90"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
+      <c r="A77" s="90"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="90"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
+      <c r="A79" s="90"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
@@ -6363,30 +6903,30 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E81" s="91">
+      <c r="E81" s="75">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
+      <c r="A82" s="90"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
+      <c r="A83" s="90"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
+      <c r="A84" s="90"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
+      <c r="A85" s="90"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
+      <c r="A86" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6414,14 +6954,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="88"/>
+    <col min="3" max="4" width="9.140625" style="73"/>
     <col min="5" max="5" width="16.42578125" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6443,58 +6983,58 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="74">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="74">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="74">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="74">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="74">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="74">
         <v>53</v>
       </c>
     </row>
@@ -6516,50 +7056,50 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="74">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="74">
         <v>32500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="74">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="74">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="90"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="E16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -6579,33 +7119,33 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="E19" s="90"/>
+      <c r="A19" s="90"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="E20" s="90"/>
+      <c r="A20" s="90"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="E21" s="90"/>
+      <c r="A21" s="90"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="E22" s="90"/>
+      <c r="A22" s="90"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="E23" s="90"/>
+      <c r="A23" s="90"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -6625,35 +7165,35 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="74">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="E26" s="90"/>
+      <c r="A26" s="90"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="E27" s="90"/>
+      <c r="A27" s="90"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="E28" s="90"/>
+      <c r="A28" s="90"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="90"/>
+      <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="90"/>
+      <c r="E30" s="74"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -6673,35 +7213,35 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="90">
+      <c r="E32" s="74">
         <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="90"/>
+      <c r="E33" s="74"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="E34" s="90"/>
+      <c r="A34" s="90"/>
+      <c r="E34" s="74"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="90"/>
+      <c r="E35" s="74"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="E36" s="90"/>
+      <c r="A36" s="90"/>
+      <c r="E36" s="74"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="E37" s="90"/>
+      <c r="A37" s="90"/>
+      <c r="E37" s="74"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
@@ -6713,7 +7253,7 @@
       <c r="C38" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="72">
         <v>25</v>
       </c>
       <c r="E38" s="65" t="s">
@@ -6721,45 +7261,45 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="90">
+      <c r="E39" s="74">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="74">
         <v>1950</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="90"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
+      <c r="A42" s="90"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="90"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
+      <c r="A44" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -6767,4 +7307,648 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.85546875" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="105" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="93">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="94">
+        <v>25</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="105">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="105">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="93">
+        <v>2</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="94">
+        <v>25</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="105">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="105">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="93">
+        <v>3</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="94">
+        <v>25</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="91"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="92"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="93">
+        <v>4</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="32">
+        <v>25</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="93">
+        <v>5</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="32">
+        <v>25</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="92"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="93">
+        <v>6</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="107" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="93">
+        <v>7</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="32">
+        <v>25</v>
+      </c>
+      <c r="E45" s="107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="105">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="91"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="91"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="91"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="91"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="95">
+        <v>8</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="32">
+        <v>25</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="91"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="91"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="91"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="93">
+        <v>9</v>
+      </c>
+      <c r="B59" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="32">
+        <v>240</v>
+      </c>
+      <c r="E59" s="104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="91"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="91"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="91"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="91"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="93">
+        <v>10</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="32">
+        <v>40</v>
+      </c>
+      <c r="E66" s="107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="105">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="91"/>
+      <c r="B68" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" s="105">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="91"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="91"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="91"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="93">
+        <v>11</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="94">
+        <v>25</v>
+      </c>
+      <c r="E73" s="104" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" s="105">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="91"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="91"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="91"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="91"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="93">
+        <v>12</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="94">
+        <v>25</v>
+      </c>
+      <c r="E80" s="108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="105">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="91"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="91"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="91"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="91"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="93">
+        <v>13</v>
+      </c>
+      <c r="B87" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="105">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="91"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="91"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="91"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="92"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="93">
+        <v>14</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" s="107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="91"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="91"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="91"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="91"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="93">
+        <v>15</v>
+      </c>
+      <c r="B101" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C31" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Сода" sheetId="3" r:id="rId3"/>
     <sheet name="Харчові добавки" sheetId="4" r:id="rId4"/>
     <sheet name="Хімічні речовини" sheetId="5" r:id="rId5"/>
+    <sheet name="Залізний та мідний купорос" sheetId="6" r:id="rId6"/>
+    <sheet name="Мило  " sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="335">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -3134,13 +3136,394 @@
       </rPr>
       <t>https://atena.com.ua/ua/p1429154499-perekis-vodoroda-5kg.html</t>
     </r>
+  </si>
+  <si>
+    <t>Залізний купорос, 2024 р.в. мішок 25 кг</t>
+  </si>
+  <si>
+    <t>22,5 - 23,5</t>
+  </si>
+  <si>
+    <t>Залізний купорос, мішок 25 кг 2022 р.в.</t>
+  </si>
+  <si>
+    <t>20 - 21</t>
+  </si>
+  <si>
+    <t>Залізний купорос, мішок 5кг /10 кг</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>27 - 29 / 25 - 26</t>
+  </si>
+  <si>
+    <t>Залізний купорос, бег 1т 2023 р.в / 2024 р.в</t>
+  </si>
+  <si>
+    <t>20 / 21 -22</t>
+  </si>
+  <si>
+    <t>Мідний купорос 1 ґатунок мішок 25 кг до 100 кг</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Мідний купорос 1 ґатунок мішок 25 кг від 125 кг</t>
+  </si>
+  <si>
+    <t>Мідний купорос 1 ґатунок мішок 25 кг від 1 т</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мідний купорос 1 ґатунок мішок </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> кг / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> кг</t>
+    </r>
+  </si>
+  <si>
+    <t>188 / 198</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Залізний купорос мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1711172888-zheleznyj-kuporos-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Залізний купорос мішок 25 кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p964111163-zheleznyj-kuporos-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Залізний купорос мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1806654673-zheleznyj-kuporos-meshkah.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мідний купорос мішок 25кг  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p2094208832-mednyj-kuporos-meshok.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мідний купорос 5кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p2115367739-mednyj-kuporos-5kg.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Паста чистяча для рук "Автомайстер" 550г</t>
+  </si>
+  <si>
+    <t>17,2 - 18,5</t>
+  </si>
+  <si>
+    <t>Мило госп, Щедро,72% 200 г</t>
+  </si>
+  <si>
+    <t>14,2 - 15,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мило госп. Bovary 72% 125 г,  Для прання з відбіл. ефектом </t>
+  </si>
+  <si>
+    <t>12,6 - 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Мило госп,  в упаковці "Миловарні традиції", 72%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  200г</t>
+    </r>
+  </si>
+  <si>
+    <t>Мило госп, Класичне, 72% 200 г</t>
+  </si>
+  <si>
+    <t>10,3 - 11,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мило госп. Армійське 72%, 200 г </t>
+  </si>
+  <si>
+    <t>Мило госп. Класичне 2-й гат, 200 г</t>
+  </si>
+  <si>
+    <t>7,8 - 8,8</t>
+  </si>
+  <si>
+    <t>Мило рідке 5л Econom</t>
+  </si>
+  <si>
+    <t>62 - 72</t>
+  </si>
+  <si>
+    <t>Мило рідке 5л Профі</t>
+  </si>
+  <si>
+    <t>88 - 98</t>
+  </si>
+  <si>
+    <t>Мило рідке 5л Сільвер</t>
+  </si>
+  <si>
+    <t>112 -130</t>
+  </si>
+  <si>
+    <t>Мило рідке 500 г дозатором</t>
+  </si>
+  <si>
+    <t>29 - 36</t>
+  </si>
+  <si>
+    <t>Мило рідке Оксідом, 1 л пуш-пул</t>
+  </si>
+  <si>
+    <t>22 - 26</t>
+  </si>
+  <si>
+    <t>Мило туалетне Grand Шарм "ANTIBACTERIAL" 100 г</t>
+  </si>
+  <si>
+    <t>12,8 - 14</t>
+  </si>
+  <si>
+    <t>Мило туалетне Dobra в обгортці 70гр.</t>
+  </si>
+  <si>
+    <t>8,9 - 9,9</t>
+  </si>
+  <si>
+    <t>Мило туалетне Dobra Дитяче 60 гр.</t>
+  </si>
+  <si>
+    <t>6,2 - 7,6</t>
+  </si>
+  <si>
+    <t>Мило туалетне Dobra Яблуко кориця\Бузок і липа 5х70г</t>
+  </si>
+  <si>
+    <t>36,2 - 37</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мило туалетне Mio Beauty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Лайм Жасмин \Магнолія Фісташки 90г</t>
+    </r>
+  </si>
+  <si>
+    <t>9,9 - 11</t>
+  </si>
+  <si>
+    <t>Мило туалетне 75гр."Аня"</t>
+  </si>
+  <si>
+    <t>9,8 - 10,3</t>
+  </si>
+  <si>
+    <t>Мило туалетне 100 гр без обгортки</t>
+  </si>
+  <si>
+    <t>11,5 - 12,5</t>
+  </si>
+  <si>
+    <t>Мило туалетне 100 гр в обгортці</t>
+  </si>
+  <si>
+    <t>12,0-13,2</t>
+  </si>
+  <si>
+    <t>Мило туалетне 5х70гр. ШИК</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Мило туалетне 90 гр. ШИК</t>
+  </si>
+  <si>
+    <t>Мило туалетне готельне 15 г</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дозатор для рідкого мила пластмасовий "Dolly" (500 мл.) </t>
+  </si>
+  <si>
+    <t>88 - 94</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3349,6 +3732,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3418,7 +3827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3481,6 +3890,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3490,7 +3938,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3718,54 +4166,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3811,6 +4211,112 @@
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4116,7 +4622,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
+      <c r="A1" s="93"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -4135,18 +4641,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="95" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
+      <c r="A2" s="94"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -4159,13 +4665,13 @@
       <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="81"/>
+      <c r="G2" s="101"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4183,14 +4689,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="102">
         <v>9</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="100">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="93" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4210,9 +4716,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -4230,9 +4736,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="80"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4250,9 +4756,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4271,10 +4777,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="102">
         <v>20</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="100">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -4298,8 +4804,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="87"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="100"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -4320,8 +4826,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="87"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="100"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -4342,7 +4848,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,14 +4867,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="102">
         <v>45</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="100">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="103" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4388,9 +4894,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="78"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="103"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -4408,9 +4914,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="78"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4429,14 +4935,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="102">
         <v>70</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="100">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="78" t="s">
+      <c r="K17" s="103" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4456,9 +4962,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="78"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4603,10 +5109,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="102">
         <v>80</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="104">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -4627,8 +5133,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="77"/>
-      <c r="J27" s="79">
+      <c r="I27" s="102"/>
+      <c r="J27" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4948,10 +5454,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="77">
+      <c r="I47" s="102">
         <v>120</v>
       </c>
-      <c r="J47" s="79">
+      <c r="J47" s="104">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -4972,8 +5478,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="77"/>
-      <c r="J48" s="79"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="104"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -5147,14 +5653,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I3:I6"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I17:I18"/>
@@ -5167,6 +5665,14 @@
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5234,7 +5740,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -5245,7 +5751,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
@@ -5254,19 +5760,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="106"/>
       <c r="E7" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="106"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="106"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
@@ -5286,7 +5792,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -5297,22 +5803,22 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="106"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="106"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="106"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+      <c r="A17" s="106"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
+      <c r="A18" s="106"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -5332,7 +5838,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -5343,7 +5849,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
@@ -5352,19 +5858,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="A22" s="106"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="106"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
+      <c r="A24" s="106"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
+      <c r="A25" s="106"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -5384,27 +5890,27 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="106"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="106"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
+      <c r="A31" s="106"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
+      <c r="A32" s="106"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="106"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="106"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -5424,27 +5930,27 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="106"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+      <c r="A38" s="106"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
+      <c r="A39" s="106"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="106"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -5464,27 +5970,27 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
+      <c r="A45" s="106"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="106"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
+      <c r="A47" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="106"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="106"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -5504,27 +6010,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
+      <c r="A53" s="106"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+      <c r="A54" s="106"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="106"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="106"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
+      <c r="A57" s="106"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
@@ -5545,27 +6051,27 @@
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
+      <c r="A61" s="106"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
+      <c r="A62" s="106"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
+      <c r="A63" s="106"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
+      <c r="A64" s="106"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+      <c r="A65" s="106"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+      <c r="A66" s="106"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
@@ -5585,7 +6091,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -5596,22 +6102,22 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
+      <c r="A69" s="106"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
+      <c r="A70" s="106"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
+      <c r="A71" s="106"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
+      <c r="A72" s="106"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
+      <c r="A73" s="106"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
+      <c r="A74" s="106"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
@@ -5631,7 +6137,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -5642,22 +6148,22 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
+      <c r="A77" s="106"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="106"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
+      <c r="A79" s="106"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
+      <c r="A80" s="106"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
+      <c r="A81" s="106"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
+      <c r="A82" s="106"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -5677,27 +6183,27 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
+      <c r="A85" s="106"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="106"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
+      <c r="A87" s="106"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="106"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
+      <c r="A89" s="106"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+      <c r="A90" s="106"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
@@ -5717,27 +6223,27 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="89" t="s">
+      <c r="A92" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
+      <c r="A93" s="106"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
+      <c r="A94" s="106"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
+      <c r="A95" s="106"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+      <c r="A96" s="106"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
+      <c r="A97" s="106"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
+      <c r="A98" s="106"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
@@ -5757,27 +6263,27 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="89" t="s">
+      <c r="A100" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="90"/>
+      <c r="A101" s="106"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="90"/>
+      <c r="A102" s="106"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="90"/>
+      <c r="A103" s="106"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="90"/>
+      <c r="A104" s="106"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="90"/>
+      <c r="A105" s="106"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
+      <c r="A106" s="106"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -5797,7 +6303,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -5808,7 +6314,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="90"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="21" t="s">
         <v>129</v>
       </c>
@@ -5817,7 +6323,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="90"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="21" t="s">
         <v>130</v>
       </c>
@@ -5826,7 +6332,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="21" t="s">
         <v>131</v>
       </c>
@@ -5835,13 +6341,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
+      <c r="A112" s="106"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="90"/>
+      <c r="A113" s="106"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="90"/>
+      <c r="A114" s="106"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -5861,7 +6367,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -5872,7 +6378,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="21" t="s">
         <v>132</v>
       </c>
@@ -5881,19 +6387,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
+      <c r="A118" s="106"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="90"/>
+      <c r="A119" s="106"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="90"/>
+      <c r="A120" s="106"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="90"/>
+      <c r="A121" s="106"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="90"/>
+      <c r="A122" s="106"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -5913,7 +6419,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="89" t="s">
+      <c r="A124" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B124" s="21" t="s">
@@ -5924,7 +6430,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="90"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="21" t="s">
         <v>136</v>
       </c>
@@ -5933,7 +6439,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="21" t="s">
         <v>137</v>
       </c>
@@ -5942,7 +6448,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="90"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="21" t="s">
         <v>138</v>
       </c>
@@ -5951,13 +6457,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="90"/>
+      <c r="A128" s="106"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="90"/>
+      <c r="A129" s="106"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="90"/>
+      <c r="A130" s="106"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35">
@@ -5977,7 +6483,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="89" t="s">
+      <c r="A132" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="21" t="s">
@@ -5988,22 +6494,22 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="90"/>
+      <c r="A133" s="106"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="90"/>
+      <c r="A134" s="106"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="90"/>
+      <c r="A135" s="106"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
+      <c r="A136" s="106"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="90"/>
+      <c r="A137" s="106"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
+      <c r="A138" s="106"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35">
@@ -6023,7 +6529,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="89" t="s">
+      <c r="A140" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="21" t="s">
@@ -6034,7 +6540,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="90"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="21" t="s">
         <v>139</v>
       </c>
@@ -6043,19 +6549,19 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="90"/>
+      <c r="A142" s="106"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="90"/>
+      <c r="A143" s="106"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="90"/>
+      <c r="A144" s="106"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="90"/>
+      <c r="A145" s="106"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
+      <c r="A146" s="106"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35">
@@ -6075,27 +6581,27 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="89" t="s">
+      <c r="A148" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="90"/>
+      <c r="A149" s="106"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="90"/>
+      <c r="A150" s="106"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="90"/>
+      <c r="A151" s="106"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="90"/>
+      <c r="A152" s="106"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="90"/>
+      <c r="A153" s="106"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="90"/>
+      <c r="A154" s="106"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35">
@@ -6115,7 +6621,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="89" t="s">
+      <c r="A156" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="21" t="s">
@@ -6126,22 +6632,22 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
+      <c r="A157" s="106"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
+      <c r="A158" s="106"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
+      <c r="A159" s="106"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="90"/>
+      <c r="A160" s="106"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="90"/>
+      <c r="A161" s="106"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="90"/>
+      <c r="A162" s="106"/>
     </row>
     <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="35">
@@ -6161,7 +6667,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="89" t="s">
+      <c r="A164" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="21" t="s">
@@ -6172,22 +6678,22 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="90"/>
+      <c r="A165" s="106"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
+      <c r="A166" s="106"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
+      <c r="A167" s="106"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="90"/>
+      <c r="A168" s="106"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="90"/>
+      <c r="A169" s="106"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="90"/>
+      <c r="A170" s="106"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="35">
@@ -6207,27 +6713,27 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="91" t="s">
+      <c r="A172" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="90"/>
+      <c r="A173" s="106"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="90"/>
+      <c r="A174" s="106"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="90"/>
+      <c r="A175" s="106"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="90"/>
+      <c r="A176" s="106"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="90"/>
+      <c r="A177" s="106"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="90"/>
+      <c r="A178" s="106"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35">
@@ -6247,7 +6753,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="91" t="s">
+      <c r="A180" s="105" t="s">
         <v>80</v>
       </c>
       <c r="B180" s="21" t="s">
@@ -6258,7 +6764,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="90"/>
+      <c r="A181" s="106"/>
       <c r="B181" s="21" t="s">
         <v>153</v>
       </c>
@@ -6267,19 +6773,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="90"/>
+      <c r="A182" s="106"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="90"/>
+      <c r="A183" s="106"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="90"/>
+      <c r="A184" s="106"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="90"/>
+      <c r="A185" s="106"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="90"/>
+      <c r="A186" s="106"/>
     </row>
     <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35">
@@ -6299,7 +6805,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="91" t="s">
+      <c r="A188" s="105" t="s">
         <v>80</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -6310,33 +6816,30 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="90"/>
+      <c r="A189" s="106"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="90"/>
+      <c r="A190" s="106"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="90"/>
+      <c r="A191" s="106"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="90"/>
+      <c r="A192" s="106"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="90"/>
+      <c r="A193" s="106"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="90"/>
+      <c r="A194" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="A188:A194"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A36:A42"/>
     <mergeCell ref="A124:A130"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A52:A58"/>
@@ -6348,11 +6851,14 @@
     <mergeCell ref="A100:A106"/>
     <mergeCell ref="A108:A114"/>
     <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="A188:A194"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A172:A178"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -6402,7 +6908,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -6413,19 +6919,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="106"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
+      <c r="A6" s="106"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="106"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="106"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
@@ -6445,7 +6951,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -6456,7 +6962,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="66" t="s">
         <v>181</v>
       </c>
@@ -6465,16 +6971,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="106"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="106"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="106"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -6494,7 +7000,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="66" t="s">
@@ -6505,7 +7011,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="66" t="s">
         <v>183</v>
       </c>
@@ -6514,16 +7020,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="106"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="106"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="A22" s="106"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="106"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -6543,7 +7049,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="66" t="s">
@@ -6554,19 +7060,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+      <c r="A27" s="106"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="106"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="106"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="106"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -6586,24 +7092,24 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="106"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="106"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="106"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+      <c r="A36" s="106"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="106"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
@@ -6623,7 +7129,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -6634,19 +7140,19 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="106"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
+      <c r="A43" s="106"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="106"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
@@ -6666,7 +7172,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="66" t="s">
@@ -6677,7 +7183,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="66" t="s">
         <v>185</v>
       </c>
@@ -6686,7 +7192,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="66" t="s">
         <v>186</v>
       </c>
@@ -6695,7 +7201,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="66" t="s">
         <v>187</v>
       </c>
@@ -6704,7 +7210,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="66" t="s">
         <v>189</v>
       </c>
@@ -6713,7 +7219,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
+      <c r="A51" s="106"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
@@ -6733,24 +7239,24 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="107" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+      <c r="A54" s="106"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="106"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="106"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
+      <c r="A57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="106"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
@@ -6770,7 +7276,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="66" t="s">
@@ -6781,19 +7287,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
+      <c r="A61" s="106"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
+      <c r="A62" s="106"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
+      <c r="A63" s="106"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
+      <c r="A64" s="106"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+      <c r="A65" s="106"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
@@ -6813,7 +7319,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="66" t="s">
@@ -6824,7 +7330,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="66" t="s">
         <v>192</v>
       </c>
@@ -6833,16 +7339,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
+      <c r="A69" s="106"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
+      <c r="A70" s="106"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
+      <c r="A71" s="106"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
+      <c r="A72" s="106"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
@@ -6860,7 +7366,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="66" t="s">
@@ -6871,19 +7377,19 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
+      <c r="A75" s="106"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="106"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
+      <c r="A77" s="106"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="106"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
+      <c r="A79" s="106"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
@@ -6903,7 +7409,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
@@ -6914,19 +7420,19 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
+      <c r="A82" s="106"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
+      <c r="A83" s="106"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
+      <c r="A84" s="106"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
+      <c r="A85" s="106"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6983,7 +7489,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6994,7 +7500,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
@@ -7003,7 +7509,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="3" t="s">
         <v>213</v>
       </c>
@@ -7012,7 +7518,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
@@ -7021,7 +7527,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="3" t="s">
         <v>217</v>
       </c>
@@ -7030,7 +7536,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="3" t="s">
         <v>218</v>
       </c>
@@ -7056,7 +7562,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7067,7 +7573,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="3" t="s">
         <v>210</v>
       </c>
@@ -7076,7 +7582,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
@@ -7085,7 +7591,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
@@ -7094,11 +7600,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="106"/>
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="106"/>
       <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -7119,7 +7625,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -7128,23 +7634,23 @@
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
+      <c r="A19" s="106"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="106"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="106"/>
       <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="A22" s="106"/>
       <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="106"/>
       <c r="E23" s="74"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -7165,7 +7671,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7176,23 +7682,23 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="106"/>
       <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+      <c r="A27" s="106"/>
       <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="106"/>
       <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="106"/>
       <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="106"/>
       <c r="E30" s="74"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -7213,7 +7719,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="76" t="s">
@@ -7224,23 +7730,23 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="106"/>
       <c r="E33" s="74"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="106"/>
       <c r="E34" s="74"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="106"/>
       <c r="E35" s="74"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+      <c r="A36" s="106"/>
       <c r="E36" s="74"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="106"/>
       <c r="E37" s="74"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -7261,7 +7767,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -7272,7 +7778,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="3" t="s">
         <v>222</v>
       </c>
@@ -7281,16 +7787,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
+      <c r="A43" s="106"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7313,158 +7819,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.85546875" style="103" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="87" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="93">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="78">
         <v>25</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="88" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="89">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="89">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="105"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="105"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="105"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="105"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="78">
         <v>25</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="90" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="89">
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="103" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="89">
         <v>49000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="105"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="105"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="105"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="108"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+      <c r="A17" s="77">
         <v>3</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="78">
         <v>25</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="90" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+      <c r="A19" s="105"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="105"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="A21" s="105"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="A22" s="105"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="108"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="A24" s="77">
         <v>4</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="84" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -7473,38 +7979,38 @@
       <c r="D24" s="32">
         <v>25</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="91" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="89">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="105"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="105"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+      <c r="A28" s="105"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+      <c r="A29" s="105"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="108"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="93">
+      <c r="A31" s="77">
         <v>5</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -7516,32 +8022,32 @@
       <c r="D31" s="32">
         <v>25</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="91" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+      <c r="A33" s="105"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+      <c r="A34" s="105"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
+      <c r="A35" s="105"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
+      <c r="A36" s="105"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
+      <c r="A37" s="108"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="93">
+      <c r="A38" s="77">
         <v>6</v>
       </c>
       <c r="B38" s="41" t="s">
@@ -7549,32 +8055,32 @@
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="107" t="s">
+      <c r="E38" s="91" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
+      <c r="A40" s="105"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="105"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="105"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
+      <c r="A43" s="105"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
+      <c r="A44" s="108"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="93">
+      <c r="A45" s="77">
         <v>7</v>
       </c>
       <c r="B45" s="41" t="s">
@@ -7586,41 +8092,41 @@
       <c r="D45" s="32">
         <v>25</v>
       </c>
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="91" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="105">
+      <c r="E46" s="89">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
+      <c r="A47" s="105"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
+      <c r="A48" s="105"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
+      <c r="A49" s="105"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
+      <c r="A50" s="105"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
+      <c r="A51" s="108"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="95">
+      <c r="A52" s="79">
         <v>8</v>
       </c>
-      <c r="B52" s="100" t="s">
+      <c r="B52" s="84" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -7629,35 +8135,35 @@
       <c r="D52" s="32">
         <v>25</v>
       </c>
-      <c r="E52" s="107" t="s">
+      <c r="E52" s="91" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
+      <c r="A54" s="105"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
+      <c r="A55" s="105"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
+      <c r="A56" s="105"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
+      <c r="A57" s="105"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
+      <c r="A58" s="108"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="93">
+      <c r="A59" s="77">
         <v>9</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="84" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="32" t="s">
@@ -7666,41 +8172,41 @@
       <c r="D59" s="32">
         <v>240</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="88" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="105">
+      <c r="E60" s="89">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
+      <c r="A61" s="105"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
+      <c r="A62" s="105"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
+      <c r="A63" s="105"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
+      <c r="A64" s="105"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
+      <c r="A65" s="108"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="93">
+      <c r="A66" s="77">
         <v>10</v>
       </c>
-      <c r="B66" s="100" t="s">
+      <c r="B66" s="84" t="s">
         <v>242</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -7709,229 +8215,1513 @@
       <c r="D66" s="32">
         <v>40</v>
       </c>
-      <c r="E66" s="107" t="s">
+      <c r="E66" s="91" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="E67" s="105">
+      <c r="E67" s="89">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="103" t="s">
+      <c r="A68" s="105"/>
+      <c r="B68" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="105">
+      <c r="E68" s="89">
         <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="105"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="105"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="105"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
+      <c r="A72" s="108"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="93">
+      <c r="A73" s="77">
         <v>11</v>
       </c>
       <c r="B73" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="94">
+      <c r="D73" s="78">
         <v>25</v>
       </c>
-      <c r="E73" s="104" t="s">
+      <c r="E73" s="88" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="103" t="s">
+      <c r="B74" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="105">
+      <c r="E74" s="89">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
+      <c r="A75" s="105"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
+      <c r="A76" s="105"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
+      <c r="A77" s="105"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="91"/>
+      <c r="A78" s="105"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
+      <c r="A79" s="108"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="93">
+      <c r="A80" s="77">
         <v>12</v>
       </c>
       <c r="B80" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="94" t="s">
+      <c r="C80" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="94">
+      <c r="D80" s="78">
         <v>25</v>
       </c>
-      <c r="E80" s="108" t="s">
+      <c r="E80" s="92" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="91" t="s">
+      <c r="A81" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="103" t="s">
+      <c r="B81" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="E81" s="105">
+      <c r="E81" s="89">
         <v>2550</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
+      <c r="A82" s="105"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
+      <c r="A83" s="105"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="91"/>
+      <c r="A84" s="105"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="91"/>
+      <c r="A85" s="105"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="92"/>
+      <c r="A86" s="108"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="93">
+      <c r="A87" s="77">
         <v>13</v>
       </c>
-      <c r="B87" s="101" t="s">
+      <c r="B87" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="94" t="s">
+      <c r="C87" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="96" t="s">
+      <c r="D87" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="107" t="s">
+      <c r="E87" s="91" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="91" t="s">
+      <c r="A88" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="E88" s="105">
+      <c r="E88" s="89">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="91"/>
+      <c r="A89" s="105"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="91"/>
+      <c r="A90" s="105"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="91"/>
+      <c r="A91" s="105"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="91"/>
+      <c r="A92" s="105"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="92"/>
+      <c r="A93" s="108"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="93">
+      <c r="A94" s="77">
         <v>14</v>
       </c>
-      <c r="B94" s="101" t="s">
+      <c r="B94" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="94" t="s">
+      <c r="C94" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="107" t="s">
+      <c r="E94" s="91" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="91"/>
+      <c r="A96" s="105"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="91"/>
+      <c r="A97" s="105"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
+      <c r="A98" s="105"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
+      <c r="A99" s="105"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
+      <c r="A100" s="108"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="93">
+      <c r="A101" s="77">
         <v>15</v>
       </c>
-      <c r="B101" s="102" t="s">
+      <c r="B101" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="98" t="s">
+      <c r="C101" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D101" s="96" t="s">
+      <c r="D101" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="107" t="s">
+      <c r="E101" s="91" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
     <mergeCell ref="A88:A93"/>
     <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C31" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53" style="87" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="110">
+        <v>25</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="89">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="89">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>2</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="110">
+        <v>25</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="89">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>3</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>4</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="105"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="105"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
+        <v>5</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="42">
+        <v>25</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="89">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="105"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="105"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="105"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="105"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>6</v>
+      </c>
+      <c r="B37" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="42">
+        <v>25</v>
+      </c>
+      <c r="E37" s="113">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="105"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="105"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="105"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>7</v>
+      </c>
+      <c r="B44" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="42">
+        <v>25</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="105"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="105"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="105"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="105"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="105"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>8</v>
+      </c>
+      <c r="B51" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="42">
+        <v>25</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="89">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="105"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="105"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="105"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="105"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A38:A43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="125"/>
+    <col min="5" max="5" width="12.140625" style="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="54">
+        <v>12</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="118">
+        <v>48</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="118">
+        <v>60</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="105"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="118">
+        <v>40</v>
+      </c>
+      <c r="E24" s="115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="105"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="105"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>5</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="118">
+        <v>60</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="105"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="105"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="105"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="105"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>6</v>
+      </c>
+      <c r="B38" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="118">
+        <v>100</v>
+      </c>
+      <c r="E38" s="115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="105"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="105"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="105"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>7</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="118">
+        <v>60</v>
+      </c>
+      <c r="E45" s="115" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="105"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="105"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="105"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="105"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="105"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>8</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="54">
+        <v>1</v>
+      </c>
+      <c r="E52" s="115" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="105"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="105"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="105"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="105"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="105"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>9</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="54">
+        <v>1</v>
+      </c>
+      <c r="E59" s="115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="105"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="105"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="105"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="105"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="105"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>10</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="54">
+        <v>1</v>
+      </c>
+      <c r="E66" s="115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="105"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="105"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="105"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="105"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="105"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>11</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="54">
+        <v>12</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="105"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="105"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="105"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="105"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="105"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>12</v>
+      </c>
+      <c r="B80" s="120" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="54"/>
+      <c r="E80" s="48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="105"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="105"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="105"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="105"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="105"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>13</v>
+      </c>
+      <c r="B87" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="59">
+        <v>26</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="105"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="105"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="105"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="105"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="105"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>14</v>
+      </c>
+      <c r="B94" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="121">
+        <v>72</v>
+      </c>
+      <c r="E94" s="122" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="105"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="105"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="105"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="105"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="105"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>15</v>
+      </c>
+      <c r="B101" s="123" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="54">
+        <v>72</v>
+      </c>
+      <c r="E101" s="122" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="105"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="105"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="105"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="105"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>16</v>
+      </c>
+      <c r="B108" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="54">
+        <v>25</v>
+      </c>
+      <c r="E108" s="48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="105"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="105"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="105"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="105"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="105"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>17</v>
+      </c>
+      <c r="B115" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="54">
+        <v>52</v>
+      </c>
+      <c r="E115" s="48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="105"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="105"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="105"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="105"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="105"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>18</v>
+      </c>
+      <c r="B122" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="C122" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="54">
+        <v>80</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="105"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="105"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="105"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="105"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="105"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>19</v>
+      </c>
+      <c r="B129" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="C129" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="54">
+        <v>80</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="105"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="105"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="105"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="105"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="105"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
+        <v>20</v>
+      </c>
+      <c r="B136" s="124" t="s">
+        <v>326</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="54">
+        <v>64</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="105"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="105"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="105"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="105"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="105"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="53">
+        <v>21</v>
+      </c>
+      <c r="B143" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="118">
+        <v>25</v>
+      </c>
+      <c r="E143" s="115" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="105"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="105"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="105"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="105"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="105"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="53">
+        <v>22</v>
+      </c>
+      <c r="B150" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="59"/>
+      <c r="E150" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="105"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="105"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="105"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="105"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="105"/>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="53">
+        <v>23</v>
+      </c>
+      <c r="B157" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="118">
+        <v>25</v>
+      </c>
+      <c r="E157" s="115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="105"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="105"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="105"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="105"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="105"/>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="53">
+        <v>24</v>
+      </c>
+      <c r="B164" s="114" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="59">
+        <v>1</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="105"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="105"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="105"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="105"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A123:A128"/>
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="A60:A65"/>
@@ -7946,9 +9736,11 @@
     <mergeCell ref="A39:A44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1"/>
+    <hyperlink ref="C52" r:id="rId1"/>
+    <hyperlink ref="C59" r:id="rId2"/>
+    <hyperlink ref="C66" r:id="rId3"/>
+    <hyperlink ref="C73" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="359">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -3517,6 +3517,584 @@
   </si>
   <si>
     <t>88 - 94</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне 75 г Ганна  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1379462374-milo-tualetne-anna.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне 100г Ганна  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1747030234-milo-tualetne-100g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мило туалетне 70 гр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p61742409-mylo-tualetnoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне 100г Ганна  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1747048737-milo-tualetne-100g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне Дитяче молочко 60г  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1801206047-mylo-tualetnoe-detskoe.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Мило туалетне 90 г https://atena.com.ua/ua/p1801236832-mylo-tualetnoe-90g.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне Dobra Бузок і Липа 5х70 гр  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1801245312-mylo-tualetnoe-dobra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне Dobra Яблуко з корицею 5х70 гр  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1835505048-mylo-tualetnoe-dobra.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило готельне в індивідуальній упаковці  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1876576695-mylo-otelnoe-individualnoj.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мило туалетне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 90 г https://atena.com.ua/ua/p1876577942-mylo-tualetnoe-90g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило туалетне Дитяче молочко 60г  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1876579002-mylo-tualetnoe-detskoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Рідке мило Silver Line 500мл з дозатором  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1164256256-mylo-zhidkoe-silver.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мило рідке 5л</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1164256255-mylo-zhidkoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Рідке мило Silver Line 5л  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1876574746-mylo-zhidkoe-silver.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мило рідке 5л</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p1876579507-mylo-zhidkoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Рідке мило Silver Line 500мл з дозатором </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1876579213-mylo-zhidkoe-silver.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське Запорізьке Щедро 200г 72% в ящику 96шт  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1166143895-hozyajstvennoe-mylo-zaporozhskoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське 72% Щедро 200г в ящику 96шт.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1260964934-mylo-hozyajstvennoe-schedro.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське з відбілюючим ефектом 125г в обгортці  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1804755610-mylo-hozyajstvennoe-otbelivayuschim.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське Запорізьке 200г, 72% в ящику 96шт. 2022р  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1740727509-mylo-hozyajstvennoe-zaporozhskoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мило господарське 72%, 200г в ящику 60шт.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://atena.com.ua/ua/p1746958994-mylo-hozyajstvennoe-200g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське 72 200г  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1752698678-mylo-hozyajstvennoe-200g.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мило господарське Запорізьке 200г, 72% в ящику 96шт. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://atena.com.ua/ua/p1752167055-mylo-hozyajstvennoe-zaporozhskoe.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Паста Автомастер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://atena.com.ua/ua/p62701224-pasta-avtomaster.html</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3827,7 +4405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3897,19 +4475,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -4293,21 +4858,6 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4315,8 +4865,23 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8813,15 +9378,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="125"/>
-    <col min="5" max="5" width="12.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="120"/>
+    <col min="5" max="5" width="12.140625" style="128" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -8841,9 +9406,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>80</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="128">
+        <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8868,7 +9439,7 @@
       <c r="B10" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D10" s="118">
@@ -8878,19 +9449,43 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="128">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="105"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="105"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="105"/>
+      <c r="B14" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="128">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="105"/>
@@ -8905,7 +9500,7 @@
       <c r="B17" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D17" s="118">
@@ -8915,9 +9510,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>80</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="128">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8942,7 +9543,7 @@
       <c r="B24" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D24" s="118">
@@ -8979,7 +9580,7 @@
       <c r="B31" s="117" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="126" t="s">
+      <c r="C31" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D31" s="118">
@@ -8989,13 +9590,25 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="128">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="105"/>
+      <c r="B33" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="128">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="105"/>
@@ -9016,7 +9629,7 @@
       <c r="B38" s="117" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D38" s="118">
@@ -9053,7 +9666,7 @@
       <c r="B45" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D45" s="118">
@@ -9087,10 +9700,10 @@
       <c r="A52" s="53">
         <v>8</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="123" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D52" s="54">
@@ -9124,10 +9737,10 @@
       <c r="A59" s="53">
         <v>9</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="B59" s="123" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D59" s="54">
@@ -9137,13 +9750,25 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="E60" s="128">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="105"/>
+      <c r="B61" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="E61" s="128">
+        <v>98</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="105"/>
@@ -9161,10 +9786,10 @@
       <c r="A66" s="53">
         <v>10</v>
       </c>
-      <c r="B66" s="120" t="s">
+      <c r="B66" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="127" t="s">
+      <c r="C66" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D66" s="54">
@@ -9174,9 +9799,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="107" t="s">
         <v>80</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E67" s="128">
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -9198,10 +9829,10 @@
       <c r="A73" s="53">
         <v>11</v>
       </c>
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="C73" s="127" t="s">
+      <c r="C73" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D73" s="54">
@@ -9211,13 +9842,25 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" s="128">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="105"/>
+      <c r="B75" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" s="128">
+        <v>36</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="105"/>
@@ -9235,10 +9878,10 @@
       <c r="A80" s="53">
         <v>12</v>
       </c>
-      <c r="B80" s="120" t="s">
+      <c r="B80" s="123" t="s">
         <v>310</v>
       </c>
-      <c r="C80" s="127" t="s">
+      <c r="C80" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D80" s="54"/>
@@ -9270,10 +9913,10 @@
       <c r="A87" s="53">
         <v>13</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="126" t="s">
+      <c r="C87" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D87" s="59">
@@ -9307,22 +9950,28 @@
       <c r="A94" s="53">
         <v>14</v>
       </c>
-      <c r="B94" s="120" t="s">
+      <c r="B94" s="124" t="s">
         <v>314</v>
       </c>
-      <c r="C94" s="128" t="s">
+      <c r="C94" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="121">
+      <c r="D94" s="118">
         <v>72</v>
       </c>
-      <c r="E94" s="122" t="s">
+      <c r="E94" s="115" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="107" t="s">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="105" t="s">
         <v>80</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="128">
+        <v>9.9</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9344,7 +9993,7 @@
       <c r="A101" s="53">
         <v>15</v>
       </c>
-      <c r="B101" s="123" t="s">
+      <c r="B101" s="125" t="s">
         <v>316</v>
       </c>
       <c r="C101" s="42" t="s">
@@ -9353,17 +10002,29 @@
       <c r="D101" s="54">
         <v>72</v>
       </c>
-      <c r="E101" s="122" t="s">
+      <c r="E101" s="115" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="E102" s="128">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="105"/>
+      <c r="B103" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="E103" s="128">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="105"/>
@@ -9381,7 +10042,7 @@
       <c r="A108" s="53">
         <v>16</v>
       </c>
-      <c r="B108" s="123" t="s">
+      <c r="B108" s="125" t="s">
         <v>318</v>
       </c>
       <c r="C108" s="42" t="s">
@@ -9394,13 +10055,25 @@
         <v>319</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="E109" s="128">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="105"/>
+      <c r="B110" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="E110" s="128">
+        <v>37</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="105"/>
@@ -9418,7 +10091,7 @@
       <c r="A115" s="53">
         <v>17</v>
       </c>
-      <c r="B115" s="123" t="s">
+      <c r="B115" s="125" t="s">
         <v>320</v>
       </c>
       <c r="C115" s="42" t="s">
@@ -9431,13 +10104,25 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E116" s="128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="105"/>
+      <c r="B117" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="E117" s="128">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="105"/>
@@ -9455,7 +10140,7 @@
       <c r="A122" s="53">
         <v>18</v>
       </c>
-      <c r="B122" s="123" t="s">
+      <c r="B122" s="125" t="s">
         <v>322</v>
       </c>
       <c r="C122" s="42" t="s">
@@ -9468,13 +10153,25 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="107" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="E123" s="128">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="105"/>
+      <c r="B124" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="E124" s="128">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="105"/>
@@ -9492,7 +10189,7 @@
       <c r="A129" s="53">
         <v>19</v>
       </c>
-      <c r="B129" s="120" t="s">
+      <c r="B129" s="124" t="s">
         <v>324</v>
       </c>
       <c r="C129" s="42" t="s">
@@ -9505,9 +10202,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="107" t="s">
         <v>80</v>
+      </c>
+      <c r="B130" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" s="128">
+        <v>13.2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9529,7 +10232,7 @@
       <c r="A136" s="53">
         <v>20</v>
       </c>
-      <c r="B136" s="124" t="s">
+      <c r="B136" s="126" t="s">
         <v>326</v>
       </c>
       <c r="C136" s="42" t="s">
@@ -9566,10 +10269,10 @@
       <c r="A143" s="53">
         <v>21</v>
       </c>
-      <c r="B143" s="117" t="s">
+      <c r="B143" s="127" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="126" t="s">
+      <c r="C143" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D143" s="118">
@@ -9603,10 +10306,10 @@
       <c r="A150" s="53">
         <v>22</v>
       </c>
-      <c r="B150" s="117" t="s">
+      <c r="B150" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="C150" s="126" t="s">
+      <c r="C150" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D150" s="59"/>
@@ -9638,10 +10341,10 @@
       <c r="A157" s="53">
         <v>23</v>
       </c>
-      <c r="B157" s="117" t="s">
+      <c r="B157" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="C157" s="126" t="s">
+      <c r="C157" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D157" s="118">
@@ -9651,9 +10354,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="107" t="s">
         <v>80</v>
+      </c>
+      <c r="B158" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="E158" s="128">
+        <v>3.9</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="894" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
     <sheet name="Хімічні речовини" sheetId="5" r:id="rId5"/>
     <sheet name="Залізний та мідний купорос" sheetId="6" r:id="rId6"/>
     <sheet name="Мило  " sheetId="7" r:id="rId7"/>
+    <sheet name="Засоби професійної та особистої" sheetId="8" r:id="rId8"/>
+    <sheet name="Пральні порошки" sheetId="9" r:id="rId9"/>
+    <sheet name="Миючі та чистячі засоби" sheetId="10" r:id="rId10"/>
+    <sheet name="Побутові товари" sheetId="11" r:id="rId11"/>
+    <sheet name="Будівельні матеріали" sheetId="12" r:id="rId12"/>
+    <sheet name="Тара та упаковка" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="572">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -4096,12 +4102,938 @@
       <t xml:space="preserve"> https://atena.com.ua/ua/p62701224-pasta-avtomaster.html</t>
     </r>
   </si>
+  <si>
+    <t>Зубна паста Blend-a-med, 75 мл</t>
+  </si>
+  <si>
+    <t>52 - 58</t>
+  </si>
+  <si>
+    <t>Зубна щітка SIMPLI середня жорсткість</t>
+  </si>
+  <si>
+    <t>29 - 32</t>
+  </si>
+  <si>
+    <t>Шампунь Schauma 7 трав  400мл</t>
+  </si>
+  <si>
+    <t>90 - 100</t>
+  </si>
+  <si>
+    <t>Гель для душу 400мл Sweet dreams"/ Лаванда</t>
+  </si>
+  <si>
+    <t>48 / 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спліто універсал автомат, 400 г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 -30 </t>
+  </si>
+  <si>
+    <t>Спліто універсал автомат, 2,4 кг</t>
+  </si>
+  <si>
+    <t>126-130</t>
+  </si>
+  <si>
+    <t>Спліто універсал автомат, 10 кг</t>
+  </si>
+  <si>
+    <t>398 - 440</t>
+  </si>
+  <si>
+    <t>Спліто універсал автомат, 25 кг</t>
+  </si>
+  <si>
+    <t>33,6 - 36</t>
+  </si>
+  <si>
+    <t>Ваніш для видалення плям, 1л / калгон, 500 г</t>
+  </si>
+  <si>
+    <t>150-160/ 100-110</t>
+  </si>
+  <si>
+    <t>Аріель 300 г автомат</t>
+  </si>
+  <si>
+    <t>50 - 56</t>
+  </si>
+  <si>
+    <t>Аріель автомат,Color 4,05кг / 2,7 кг</t>
+  </si>
+  <si>
+    <t>460-480/ 290-320</t>
+  </si>
+  <si>
+    <t>Аріель автомат,Аква-Пудра, 8,1 кг</t>
+  </si>
+  <si>
+    <t>960 - 1100</t>
+  </si>
+  <si>
+    <t>Tide Аква-Пудра, 300г ручне прання /автомат</t>
+  </si>
+  <si>
+    <t>39 - 44 / 48 - 52</t>
+  </si>
+  <si>
+    <t>Гала 300 г автомат / ручне прання</t>
+  </si>
+  <si>
+    <t>48,2 - 50 / 36</t>
+  </si>
+  <si>
+    <t>Відбілювач (Білизна) 1 л  / 900 мл</t>
+  </si>
+  <si>
+    <t>15 - 18 / 14,5 - 17</t>
+  </si>
+  <si>
+    <t>Сантрі 1л / Сантрі гель 1л</t>
+  </si>
+  <si>
+    <t>36 - 39 / 39 - 44</t>
+  </si>
+  <si>
+    <t>Доместос 500 мл  / 1 л</t>
+  </si>
+  <si>
+    <t>28/12</t>
+  </si>
+  <si>
+    <t>70 - 80 /124 - 130</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Гель універсальний </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>санітарний</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> з хлором Оксідом 1 кг </t>
+    </r>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>38 - 42</t>
+  </si>
+  <si>
+    <t>Кріт Засіб для прочищення зливних труб 900 гр</t>
+  </si>
+  <si>
+    <t>29 - 35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Каченя для унітазу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>500мл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, супер сила видимий ефект</t>
+    </r>
+  </si>
+  <si>
+    <t>77 - 87</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Каченя для унітазу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>900мл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, супер сила/гель глибокого очищ.</t>
+    </r>
+  </si>
+  <si>
+    <t>117 - 127</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сан-Клін для підлоги (лінолеум, кахель, лмінат паркет) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1л</t>
+    </r>
+  </si>
+  <si>
+    <t>85 - 87</t>
+  </si>
+  <si>
+    <t>Миючий засіб для підлоги Оксідом, 5л</t>
+  </si>
+  <si>
+    <t>80 - 90</t>
+  </si>
+  <si>
+    <t>Миючий засіб для підлоги ОКСІДОМ 1 л</t>
+  </si>
+  <si>
+    <t>40 - 47</t>
+  </si>
+  <si>
+    <t>Сан Клин "Мастер Клинер" 750 мл розп.</t>
+  </si>
+  <si>
+    <t>80 - 86</t>
+  </si>
+  <si>
+    <t>Сан Клин "Сантік" 750 мл розп. 2023 р.в. / 2020 р.в.</t>
+  </si>
+  <si>
+    <t>84 - 90 /68</t>
+  </si>
+  <si>
+    <t>Антижир спрей для кухні TezaT, 500 мл</t>
+  </si>
+  <si>
+    <t>57 - 70</t>
+  </si>
+  <si>
+    <r>
+      <t>Універсальний очищувач для ванної</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кімнати</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> TezaT 500мл</t>
+    </r>
+  </si>
+  <si>
+    <t>Спрей для видалення вапна та іржі TezaT, 500 мл</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мілам гель для розчинення жиру, кіптяви та нагару </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>500мл</t>
+    </r>
+  </si>
+  <si>
+    <t>58 - 66</t>
+  </si>
+  <si>
+    <t>Сіф-крем 500мл</t>
+  </si>
+  <si>
+    <t>84 - 88</t>
+  </si>
+  <si>
+    <t>Чистячий засіб Мілам, 500 г</t>
+  </si>
+  <si>
+    <t>34 - 36</t>
+  </si>
+  <si>
+    <t>Мр. Мускул для скла курок 500 г / запас</t>
+  </si>
+  <si>
+    <t>93- 99 / 78 - 84</t>
+  </si>
+  <si>
+    <t>Оксідом для скла 500 мл з розпилювачем</t>
+  </si>
+  <si>
+    <t>27,3 - 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оксідом для скла 5л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Освіж. повітря Глейд  300мл / Грейс  300мл </t>
+  </si>
+  <si>
+    <t>76 - 86 / 46,5</t>
+  </si>
+  <si>
+    <t>"Пронто"д/ч меблів аероз. 250 г</t>
+  </si>
+  <si>
+    <t>122 - 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хлорантоін 1кг / Бланідас 1кг </t>
+  </si>
+  <si>
+    <t>430 / 290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Папір туалетний "Обухів"  </t>
+  </si>
+  <si>
+    <t>11,4 - 14</t>
+  </si>
+  <si>
+    <t>Папір туалетний "Доброго Ранку"</t>
+  </si>
+  <si>
+    <t>6,7 - 8</t>
+  </si>
+  <si>
+    <t>Папір туалетний "Диво" 4рул</t>
+  </si>
+  <si>
+    <t>Папір туалетний "Джамбо" 100м гільза</t>
+  </si>
+  <si>
+    <t>Серветки паперові столові 30 шт</t>
+  </si>
+  <si>
+    <t>6 - 7</t>
+  </si>
+  <si>
+    <t>Серветки паперові столові 100 шт</t>
+  </si>
+  <si>
+    <t>17 - 20</t>
+  </si>
+  <si>
+    <t>Серветки паперові столові 500 шт</t>
+  </si>
+  <si>
+    <t>54 - 58</t>
+  </si>
+  <si>
+    <t>Шкребок спиральний малий 10шт / великий 3шт</t>
+  </si>
+  <si>
+    <t>уп</t>
+  </si>
+  <si>
+    <t>26 / 15 - 20</t>
+  </si>
+  <si>
+    <t>Губка для посуду Максі 5шт</t>
+  </si>
+  <si>
+    <t>19 - 24</t>
+  </si>
+  <si>
+    <t>Губка для посуду Максі 10шт</t>
+  </si>
+  <si>
+    <t>26 - 31</t>
+  </si>
+  <si>
+    <t>Губка для посуду Максі Гранд 6шт</t>
+  </si>
+  <si>
+    <t>Рушник вафельний 70*45 см, щільність 140 г/кв.м. (+/-)</t>
+  </si>
+  <si>
+    <t>35 - 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рушник папер Диво (упак.2шт) / Арома </t>
+  </si>
+  <si>
+    <t>40 - 43</t>
+  </si>
+  <si>
+    <t>Рушник-вкладиш Z-BEST Vскл 25*23 зелені</t>
+  </si>
+  <si>
+    <t>27 - 33</t>
+  </si>
+  <si>
+    <t>Серветки віскозні  EcoPack  (30*36 см) 3 шт / 5шт</t>
+  </si>
+  <si>
+    <t>20 - 25 / 26 - 30</t>
+  </si>
+  <si>
+    <t>Серветка віскозна HOZZI та EcoPack  (30*36 см) 10 шт</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Серветка мікрофібра універсальна EcoPack  1шт / 5шт</t>
+  </si>
+  <si>
+    <t>24 - 27 / 75 - 80</t>
+  </si>
+  <si>
+    <t>Серветка мікрофібра для скла та зеркал EcoPack 1шт / 5шт</t>
+  </si>
+  <si>
+    <t>25 - 30 / 78 - 82</t>
+  </si>
+  <si>
+    <t>Серветка целюлозна 3шт / 5шт</t>
+  </si>
+  <si>
+    <t>28 - 30 / 44 - 50</t>
+  </si>
+  <si>
+    <t>Серветки целюлозні PROservice 16*16см 10шт</t>
+  </si>
+  <si>
+    <t>77 - 81</t>
+  </si>
+  <si>
+    <t>Ганчірка для підлоги TM EcoPack, 1шт 50 х 70</t>
+  </si>
+  <si>
+    <t>18 - 25</t>
+  </si>
+  <si>
+    <t>Пакети для сміття 35 л, стандарт 30 шт / 50 шт</t>
+  </si>
+  <si>
+    <t>22 - 27 / 38-41</t>
+  </si>
+  <si>
+    <t>Пакети для сміття 35 л, 100 шт стандарт</t>
+  </si>
+  <si>
+    <t>71 - 77</t>
+  </si>
+  <si>
+    <t>Пакети для сміття 60 л (60*80см), 20 шт  / 40 шт</t>
+  </si>
+  <si>
+    <t>34-39 / 58-61</t>
+  </si>
+  <si>
+    <t>Пакети для сміття 120 л 10 шт. міцні / стандарт</t>
+  </si>
+  <si>
+    <t>33-37 / 26-29</t>
+  </si>
+  <si>
+    <t>Пакети для сміття 160 л 10 шт</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <r>
+      <t>Пакети для сміття</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> л 5 шт</t>
+    </r>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Папір А4</t>
+  </si>
+  <si>
+    <t>пач</t>
+  </si>
+  <si>
+    <t>189 - 199</t>
+  </si>
+  <si>
+    <t>Пакля №2 (витруска) / Пакля №3</t>
+  </si>
+  <si>
+    <t>40 - 46 / 46 - 50</t>
+  </si>
+  <si>
+    <t>190 - 220</t>
+  </si>
+  <si>
+    <t>Каболка жирова / смоляна  діам.10-50 мм</t>
+  </si>
+  <si>
+    <t>170 - 190</t>
+  </si>
+  <si>
+    <t>Електроди АНО-36 Ф Континент 3 мм, 2,5 кг</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Електроди АНО-36 Ф Континент 4 мм, 5 кг</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Електроди Моноліт РЦ 3мм, 2,5 кг</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Електроди Моноліт РЦ 4 мм, 5 кг</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Карбід кальцію Словаччина 50-80</t>
+  </si>
+  <si>
+    <t>106 - 120</t>
+  </si>
+  <si>
+    <t>Карбід кальцію Словаччина 50-80 мм 5кг / 10 кг</t>
+  </si>
+  <si>
+    <t>180-200/160-180</t>
+  </si>
+  <si>
+    <t>Цвяхи будівельні  70-150мм\ шиферні</t>
+  </si>
+  <si>
+    <t>70-100 / 120</t>
+  </si>
+  <si>
+    <t>Лампочки розжарювання 60 Вт</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бітум  будівельний БН 70/30 в бочках по 200 кг </t>
+  </si>
+  <si>
+    <t>49 - 52</t>
+  </si>
+  <si>
+    <t>Пісок (0,03 м.куб / 44 кг)</t>
+  </si>
+  <si>
+    <t>міш.</t>
+  </si>
+  <si>
+    <t>59 - 66</t>
+  </si>
+  <si>
+    <t>Крейда в мішках МТД-2 та  кормова ММЖП / від 10т</t>
+  </si>
+  <si>
+    <t>30/25</t>
+  </si>
+  <si>
+    <t>8 - 10 / 7</t>
+  </si>
+  <si>
+    <t>Крейда МТД-2 та кормова ММЖП В БЕГАХ</t>
+  </si>
+  <si>
+    <t>7 - 9</t>
+  </si>
+  <si>
+    <t>Скло рідке без тари</t>
+  </si>
+  <si>
+    <t>18 - 20</t>
+  </si>
+  <si>
+    <t>Вапно гашене (тісто), 50 кг 2023 р.в. / 2024 р.в</t>
+  </si>
+  <si>
+    <t>7 / 11</t>
+  </si>
+  <si>
+    <t>Вапно гашене (пушонка) ЕКСТРА, 25 кг</t>
+  </si>
+  <si>
+    <t>14 - 16</t>
+  </si>
+  <si>
+    <t>Вапно гащене для ставків, 50 кг</t>
+  </si>
+  <si>
+    <t>11 - 13</t>
+  </si>
+  <si>
+    <t>Вапно  не гашене комове, кускове, 40 кг</t>
+  </si>
+  <si>
+    <t>14 - 15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вапно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>негашене</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, активне 80-90 % мішок п/е,40 кг</t>
+    </r>
+  </si>
+  <si>
+    <t>15 - 17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вапно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>негашене</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мелене,  для ставків, 50кг</t>
+    </r>
+  </si>
+  <si>
+    <t>11,5 - 13,5</t>
+  </si>
+  <si>
+    <t>Емаль алкідна ПФ-115П фіолетова TM "Farbex" -2,8 кг.</t>
+  </si>
+  <si>
+    <t>Емаль алкідна ПФ-115П помаранчева, ТМ "DELFI" -2,8 кг</t>
+  </si>
+  <si>
+    <t>Емаль алкідна ПФ-115П бірюзова, TM "DELFI" -2,8 кг</t>
+  </si>
+  <si>
+    <t>Емаль алкідна ПФ-115П червона, TM "DELFI" -2,8 кг</t>
+  </si>
+  <si>
+    <t>Каністра п/е, б/в 10 л / 20 л</t>
+  </si>
+  <si>
+    <t>55 / 125</t>
+  </si>
+  <si>
+    <t>Каністра п/е, б/в 25 л / 30 л</t>
+  </si>
+  <si>
+    <t>140 / 156</t>
+  </si>
+  <si>
+    <t>Бочка металева 200л б\у</t>
+  </si>
+  <si>
+    <r>
+      <t>Біг Бег б/у на 1,25 т</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (без пдв)</t>
+    </r>
+  </si>
+  <si>
+    <t>80 - 100</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Куб пласт. на піддоні 1000 л б/у 1 сорт, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>без ПДВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Куб пласт. на піддоні 1000 л б/у 2 сорт, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>без ПДВ</t>
+    </r>
+  </si>
+  <si>
+    <t>Мішок п/п 105х55 без вклад /з вклад.</t>
+  </si>
+  <si>
+    <t>10 / 16</t>
+  </si>
+  <si>
+    <t>Мішок п/п 90х50 без вклад.</t>
+  </si>
+  <si>
+    <t>Мішок джутовий 110х70см (з-під кави)</t>
+  </si>
+  <si>
+    <t>66 - 80</t>
+  </si>
+  <si>
+    <t>Мотузка (канат) джутова 10-50 мм</t>
+  </si>
+  <si>
+    <t>150 -180</t>
+  </si>
+  <si>
+    <t>Мотузка (канат)  льняна  10-50 мм</t>
+  </si>
+  <si>
+    <t>240 - 280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпагат лляний 2,8 </t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>220 - 260</t>
+  </si>
+  <si>
+    <t>Шпагат джутовий, 1,4мм</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Шпагат джутовий, 1,4мм 0,5 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпагат джутовий, 1,4мм 0,2 кг  </t>
+  </si>
+  <si>
+    <t>48 - 60</t>
+  </si>
+  <si>
+    <t>Шпагат п/п втор.1000 текс, / 2500 текс</t>
+  </si>
+  <si>
+    <t>125- 130 / 110-120</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стрейч плівка  500 мм  17 мкм,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2 кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / 250 м</t>
+    </r>
+  </si>
+  <si>
+    <t>192 - 212</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стрейч плівка чорна  500 мм  20 мкм,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,2 кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / 250 м</t>
+    </r>
+  </si>
+  <si>
+    <t>226 - 250</t>
+  </si>
+  <si>
+    <t>Скотч упаковочный прозрачный - 48 мм × 200 м</t>
+  </si>
+  <si>
+    <t>55 - 62</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4336,6 +5268,47 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4405,7 +5378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4475,6 +5448,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -4503,7 +5489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4731,6 +5717,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4871,10 +5860,10 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4882,6 +5871,60 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5187,7 +6230,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
+      <c r="A1" s="94"/>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
@@ -5206,18 +6249,18 @@
       <c r="G1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="96" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
+      <c r="A2" s="95"/>
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
@@ -5230,13 +6273,13 @@
       <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="94"/>
+      <c r="G2" s="102"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -5254,14 +6297,14 @@
       <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="102">
+      <c r="I3" s="103">
         <v>9</v>
       </c>
-      <c r="J3" s="100">
+      <c r="J3" s="101">
         <f>I3*1000</f>
         <v>9000</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="94" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5281,9 +6324,9 @@
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="93"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -5301,9 +6344,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="93"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="94"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -5321,9 +6364,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="93"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="94"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5342,10 +6385,10 @@
       <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="103">
         <v>20</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="101">
         <f>I8*1000</f>
         <v>20000</v>
       </c>
@@ -5369,8 +6412,8 @@
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="100"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="101"/>
       <c r="K9" t="s">
         <v>70</v>
       </c>
@@ -5391,8 +6434,8 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="100"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="101"/>
       <c r="K10" t="s">
         <v>71</v>
       </c>
@@ -5413,7 +6456,7 @@
       <c r="G11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="102"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5432,14 +6475,14 @@
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="103">
         <v>45</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="101">
         <f>I13*1000</f>
         <v>45000</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="104" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5459,9 +6502,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="104"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -5479,9 +6522,9 @@
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,14 +6543,14 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="102">
+      <c r="I17" s="103">
         <v>70</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="101">
         <f>I17*1000</f>
         <v>70000</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="104" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5527,9 +6570,9 @@
       <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5674,10 +6717,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="102">
-        <v>80</v>
-      </c>
-      <c r="J26" s="104">
+      <c r="I26" s="103">
+        <v>80</v>
+      </c>
+      <c r="J26" s="105">
         <f t="shared" ref="J26:J27" si="0">I26*1000</f>
         <v>80000</v>
       </c>
@@ -5698,8 +6741,8 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="102"/>
-      <c r="J27" s="104">
+      <c r="I27" s="103"/>
+      <c r="J27" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6019,10 +7062,10 @@
       <c r="G47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="102">
+      <c r="I47" s="103">
         <v>120</v>
       </c>
-      <c r="J47" s="104">
+      <c r="J47" s="105">
         <f>I47*1000</f>
         <v>120000</v>
       </c>
@@ -6043,8 +7086,8 @@
       <c r="G48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="102"/>
-      <c r="J48" s="104"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="105"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -6242,6 +7285,3828 @@
   <pageMargins left="0.24" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="19.7109375" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="54">
+        <v>12</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="54">
+        <v>12</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="54">
+        <v>12</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>5</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="54">
+        <v>8</v>
+      </c>
+      <c r="E31" s="116" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>6</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="54">
+        <v>12</v>
+      </c>
+      <c r="E38" s="116" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>7</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="59">
+        <v>12</v>
+      </c>
+      <c r="E45" s="116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>8</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>403</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="54">
+        <v>9</v>
+      </c>
+      <c r="E52" s="116" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>9</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="54">
+        <v>1</v>
+      </c>
+      <c r="E59" s="116" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="106"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>10</v>
+      </c>
+      <c r="B66" s="115" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="54">
+        <v>15</v>
+      </c>
+      <c r="E66" s="116" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="106"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="106"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>11</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="54">
+        <v>9</v>
+      </c>
+      <c r="E73" s="116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="106"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="106"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="106"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="106"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>12</v>
+      </c>
+      <c r="B80" s="115" t="s">
+        <v>411</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="106"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="106"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="106"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="106"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="106"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>13</v>
+      </c>
+      <c r="B87" s="130" t="s">
+        <v>413</v>
+      </c>
+      <c r="C87" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="114" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="106"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="106"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="106"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="106"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>14</v>
+      </c>
+      <c r="B94" s="115" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="114" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="106"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="106"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="106"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="106"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>15</v>
+      </c>
+      <c r="B101" s="130" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="114" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="106"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="106"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="106"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>16</v>
+      </c>
+      <c r="B108" s="115" t="s">
+        <v>417</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="54"/>
+      <c r="E108" s="116" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="106"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="106"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="106"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="106"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="106"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>17</v>
+      </c>
+      <c r="B115" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="54">
+        <v>16</v>
+      </c>
+      <c r="E115" s="116" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="106"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="106"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="106"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="106"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="106"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>18</v>
+      </c>
+      <c r="B122" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="54">
+        <v>15</v>
+      </c>
+      <c r="E122" s="116" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="106"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="106"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="106"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="106"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="106"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>25</v>
+      </c>
+      <c r="B129" s="115" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="54">
+        <v>12</v>
+      </c>
+      <c r="E129" s="116" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="106"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="106"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="106"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="106"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="106"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
+        <v>26</v>
+      </c>
+      <c r="B136" s="115" t="s">
+        <v>425</v>
+      </c>
+      <c r="C136" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="54">
+        <v>20</v>
+      </c>
+      <c r="E136" s="116" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="106"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="106"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="106"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="106"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="106"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="53">
+        <v>27</v>
+      </c>
+      <c r="B143" s="115" t="s">
+        <v>427</v>
+      </c>
+      <c r="C143" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="54">
+        <v>20</v>
+      </c>
+      <c r="E143" s="116" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="106"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="106"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="106"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="106"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="106"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="53">
+        <v>28</v>
+      </c>
+      <c r="B150" s="115" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="54">
+        <v>12</v>
+      </c>
+      <c r="E150" s="116" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="106"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="106"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="106"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="106"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="106"/>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="53">
+        <v>29</v>
+      </c>
+      <c r="B157" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="54">
+        <v>12</v>
+      </c>
+      <c r="E157" s="116" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="106"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="106"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="106"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="106"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="106"/>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="53">
+        <v>30</v>
+      </c>
+      <c r="B164" s="115" t="s">
+        <v>432</v>
+      </c>
+      <c r="C164" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="54">
+        <v>1</v>
+      </c>
+      <c r="E164" s="116" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="106"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="106"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="106"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="106"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C31" r:id="rId5"/>
+    <hyperlink ref="C38" r:id="rId6"/>
+    <hyperlink ref="C52" r:id="rId7"/>
+    <hyperlink ref="C59" r:id="rId8"/>
+    <hyperlink ref="C66" r:id="rId9"/>
+    <hyperlink ref="C73" r:id="rId10"/>
+    <hyperlink ref="C122" r:id="rId11"/>
+    <hyperlink ref="C136" r:id="rId12"/>
+    <hyperlink ref="C164" r:id="rId13"/>
+    <hyperlink ref="C108" r:id="rId14"/>
+    <hyperlink ref="C115" r:id="rId15"/>
+    <hyperlink ref="C157" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:XFD198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="19.7109375" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="42">
+        <v>48</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="42">
+        <v>8</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="54">
+        <v>8</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>5</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="116" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>6</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="116" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>7</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="116" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>8</v>
+      </c>
+      <c r="B52" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="116" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>9</v>
+      </c>
+      <c r="B59" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="116" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="106"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>10</v>
+      </c>
+      <c r="B66" s="135" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="54"/>
+      <c r="E66" s="116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="106"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="106"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>11</v>
+      </c>
+      <c r="B73" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D73" s="54"/>
+      <c r="E73" s="116" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="106"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="106"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="106"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="106"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>12</v>
+      </c>
+      <c r="B80" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="54"/>
+      <c r="E80" s="116" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="106"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="106"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="106"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="106"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="106"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>13</v>
+      </c>
+      <c r="B87" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="116" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="106"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="106"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="106"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="106"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>14</v>
+      </c>
+      <c r="B94" s="135" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="54">
+        <v>150</v>
+      </c>
+      <c r="E94" s="116" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="106"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="106"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="106"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="106"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>15</v>
+      </c>
+      <c r="B101" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="54"/>
+      <c r="E101" s="44" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="106"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="106"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="106"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>16</v>
+      </c>
+      <c r="B108" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="59"/>
+      <c r="E108" s="48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="106"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="106"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="106"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="106"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="106"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>17</v>
+      </c>
+      <c r="B115" s="136" t="s">
+        <v>464</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="54">
+        <v>50</v>
+      </c>
+      <c r="E115" s="116" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="106"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="106"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="106"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="106"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="106"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>18</v>
+      </c>
+      <c r="B122" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="54">
+        <v>50</v>
+      </c>
+      <c r="E122" s="116" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="106"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="106"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="106"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="106"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="106"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>19</v>
+      </c>
+      <c r="B129" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="C129" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="54"/>
+      <c r="E129" s="116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="106"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="106"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="106"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="106"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="106"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
+        <v>20</v>
+      </c>
+      <c r="B136" s="115" t="s">
+        <v>470</v>
+      </c>
+      <c r="C136" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="59">
+        <v>22</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="106"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="106"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="106"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="106"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="106"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="53">
+        <v>21</v>
+      </c>
+      <c r="B143" s="135" t="s">
+        <v>472</v>
+      </c>
+      <c r="C143" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="54">
+        <v>60</v>
+      </c>
+      <c r="E143" s="116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="106"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="106"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="106"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="106"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="106"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="53">
+        <v>22</v>
+      </c>
+      <c r="B150" s="115" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="54">
+        <v>50</v>
+      </c>
+      <c r="E150" s="116" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="106"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="106"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="106"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="106"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="106"/>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="53">
+        <v>23</v>
+      </c>
+      <c r="B157" s="115" t="s">
+        <v>476</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="54">
+        <v>15</v>
+      </c>
+      <c r="E157" s="116" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="106"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="106"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="106"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="106"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="106"/>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="53">
+        <v>24</v>
+      </c>
+      <c r="B164" s="135" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="54">
+        <v>30</v>
+      </c>
+      <c r="E164" s="116" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="106"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="106"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="106"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="106"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="106"/>
+    </row>
+    <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="53">
+        <v>25</v>
+      </c>
+      <c r="B171" s="135" t="s">
+        <v>480</v>
+      </c>
+      <c r="C171" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" s="54">
+        <v>30</v>
+      </c>
+      <c r="E171" s="116" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="106"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="106"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="106"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="106"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="106"/>
+    </row>
+    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="53">
+        <v>26</v>
+      </c>
+      <c r="B178" s="135" t="s">
+        <v>482</v>
+      </c>
+      <c r="C178" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D178" s="54">
+        <v>20</v>
+      </c>
+      <c r="E178" s="116" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="106"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="106"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="106"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="106"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="106"/>
+    </row>
+    <row r="185" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="53">
+        <v>27</v>
+      </c>
+      <c r="B185" s="135" t="s">
+        <v>484</v>
+      </c>
+      <c r="C185" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D185" s="54">
+        <v>8</v>
+      </c>
+      <c r="E185" s="116" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="106"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="106"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="106"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="106"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="106"/>
+    </row>
+    <row r="192" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="53">
+        <v>28</v>
+      </c>
+      <c r="B192" s="130" t="s">
+        <v>486</v>
+      </c>
+      <c r="C192" s="130" t="s">
+        <v>487</v>
+      </c>
+      <c r="D192" s="130"/>
+      <c r="E192" s="114" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="106"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="106"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="106"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="106"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A193:A198"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A46:A51"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1"/>
+    <hyperlink ref="C87" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C38" r:id="rId5"/>
+    <hyperlink ref="C115" r:id="rId6"/>
+    <hyperlink ref="C122" r:id="rId7"/>
+    <hyperlink ref="C185" r:id="rId8"/>
+    <hyperlink ref="C150" r:id="rId9"/>
+    <hyperlink ref="C157" r:id="rId10"/>
+    <hyperlink ref="C164" r:id="rId11"/>
+    <hyperlink ref="C171" r:id="rId12"/>
+    <hyperlink ref="C178" r:id="rId13"/>
+    <hyperlink ref="C143" r:id="rId14"/>
+    <hyperlink ref="C101" r:id="rId15"/>
+    <hyperlink ref="C129" r:id="rId16"/>
+    <hyperlink ref="C136" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E184"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179:XFD184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="42">
+        <v>120</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>2</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="42">
+        <v>100</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>3</v>
+      </c>
+      <c r="B17" s="135" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>4</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>494</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>5</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="42">
+        <v>5</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
+        <v>6</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>498</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="116" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <v>7</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="54">
+        <v>5</v>
+      </c>
+      <c r="E45" s="116" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="35">
+        <v>8</v>
+      </c>
+      <c r="B52" s="135" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="54">
+        <v>100</v>
+      </c>
+      <c r="E52" s="116" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="35">
+        <v>9</v>
+      </c>
+      <c r="B59" s="135" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="116" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="106"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="35">
+        <v>10</v>
+      </c>
+      <c r="B66" s="135" t="s">
+        <v>506</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="116" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="106"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="106"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="35">
+        <v>11</v>
+      </c>
+      <c r="B73" s="135" t="s">
+        <v>508</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="116" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="106"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="106"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="106"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="106"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="35">
+        <v>12</v>
+      </c>
+      <c r="B80" s="138" t="s">
+        <v>510</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="42">
+        <v>200</v>
+      </c>
+      <c r="E80" s="116" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="106"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="106"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="106"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="106"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="106"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="35">
+        <v>13</v>
+      </c>
+      <c r="B87" s="115" t="s">
+        <v>512</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="D87" s="54">
+        <v>44</v>
+      </c>
+      <c r="E87" s="116" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="106"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="106"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="106"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="106"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>15</v>
+      </c>
+      <c r="B94" s="138" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="139" t="s">
+        <v>516</v>
+      </c>
+      <c r="E94" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="106"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="106"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="106"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="106"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>16</v>
+      </c>
+      <c r="B101" s="138" t="s">
+        <v>518</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="106"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="106"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="106"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>17</v>
+      </c>
+      <c r="B108" s="135" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="54">
+        <v>300</v>
+      </c>
+      <c r="E108" s="116" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="106"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="106"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="106"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="106"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="106"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>18</v>
+      </c>
+      <c r="B115" s="138" t="s">
+        <v>522</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="42">
+        <v>50</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="106"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="106"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="106"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="106"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="106"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>19</v>
+      </c>
+      <c r="B122" s="140" t="s">
+        <v>524</v>
+      </c>
+      <c r="C122" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="142">
+        <v>25</v>
+      </c>
+      <c r="E122" s="143" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="106"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="106"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="106"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="106"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="106"/>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>20</v>
+      </c>
+      <c r="B129" s="130" t="s">
+        <v>526</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="59">
+        <v>50</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="106"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="106"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="106"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="106"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="106"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
+        <v>21</v>
+      </c>
+      <c r="B136" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="54">
+        <v>40</v>
+      </c>
+      <c r="E136" s="116" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="106"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="106"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="106"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="106"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="106"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="53">
+        <v>22</v>
+      </c>
+      <c r="B143" s="135" t="s">
+        <v>530</v>
+      </c>
+      <c r="C143" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" s="54">
+        <v>40</v>
+      </c>
+      <c r="E143" s="116" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="106"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="106"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="106"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="106"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="106"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="53">
+        <v>23</v>
+      </c>
+      <c r="B150" s="135" t="s">
+        <v>532</v>
+      </c>
+      <c r="C150" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" s="54">
+        <v>50</v>
+      </c>
+      <c r="E150" s="116" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="106"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="106"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="106"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="106"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="106"/>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="53">
+        <v>24</v>
+      </c>
+      <c r="B157" s="130" t="s">
+        <v>534</v>
+      </c>
+      <c r="C157" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="54">
+        <v>1</v>
+      </c>
+      <c r="E157" s="114">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="106"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="106"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="106"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="106"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="106"/>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="53">
+        <v>25</v>
+      </c>
+      <c r="B164" s="130" t="s">
+        <v>535</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="54">
+        <v>1</v>
+      </c>
+      <c r="E164" s="114">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="106"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="106"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="106"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="106"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="106"/>
+    </row>
+    <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="53">
+        <v>26</v>
+      </c>
+      <c r="B171" s="130" t="s">
+        <v>536</v>
+      </c>
+      <c r="C171" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" s="54">
+        <v>1</v>
+      </c>
+      <c r="E171" s="114">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="106"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="106"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="106"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="106"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="106"/>
+    </row>
+    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="53">
+        <v>27</v>
+      </c>
+      <c r="B178" s="130" t="s">
+        <v>537</v>
+      </c>
+      <c r="C178" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D178" s="54">
+        <v>1</v>
+      </c>
+      <c r="E178" s="114">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="106"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="106"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="106"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="106"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A4:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C122" r:id="rId1"/>
+    <hyperlink ref="C143" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="21.140625" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="42">
+        <v>120</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="114">
+        <v>1</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="59">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="114">
+        <v>2</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="59">
+        <v>1</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="114">
+        <v>3</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="53">
+        <v>1</v>
+      </c>
+      <c r="E24" s="144">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="114">
+        <v>4</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>543</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="53">
+        <v>2</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="114">
+        <v>5</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1</v>
+      </c>
+      <c r="E38" s="144">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="114">
+        <v>6</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>546</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="53">
+        <v>1</v>
+      </c>
+      <c r="E45" s="144">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="114">
+        <v>7</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>547</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="145" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="114">
+        <v>8</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>549</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="106"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="114">
+        <v>9</v>
+      </c>
+      <c r="B66" s="115" t="s">
+        <v>550</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="144" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="106"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="106"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>11</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="144" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="106"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="106"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="106"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="106"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>12</v>
+      </c>
+      <c r="B80" s="115" t="s">
+        <v>554</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="144" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="106"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="106"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="106"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="106"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="106"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>13</v>
+      </c>
+      <c r="B87" s="115" t="s">
+        <v>556</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="146" t="s">
+        <v>557</v>
+      </c>
+      <c r="E87" s="144" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="106"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="106"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="106"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="106"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>14</v>
+      </c>
+      <c r="B94" s="115" t="s">
+        <v>559</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="146" t="s">
+        <v>560</v>
+      </c>
+      <c r="E94" s="144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="106"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="106"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="106"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="106"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>15</v>
+      </c>
+      <c r="B101" s="115" t="s">
+        <v>561</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="106"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="106"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="106"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>16</v>
+      </c>
+      <c r="B108" s="115" t="s">
+        <v>562</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="144" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="106"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="106"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="106"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="106"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="106"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
+        <v>17</v>
+      </c>
+      <c r="B115" s="115" t="s">
+        <v>564</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="53">
+        <v>5</v>
+      </c>
+      <c r="E115" s="144" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="106"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="106"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="106"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="106"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="106"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>18</v>
+      </c>
+      <c r="B122" s="115" t="s">
+        <v>566</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="53"/>
+      <c r="E122" s="144" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="106"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="106"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="106"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="106"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="106"/>
+    </row>
+    <row r="129" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
+        <v>19</v>
+      </c>
+      <c r="B129" s="115" t="s">
+        <v>568</v>
+      </c>
+      <c r="C129" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="147"/>
+      <c r="E129" s="144" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="106"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="106"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="106"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="106"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="106"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
+        <v>20</v>
+      </c>
+      <c r="B136" s="130" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="59"/>
+      <c r="E136" s="144" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="106"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="106"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="106"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="106"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A4:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C66" r:id="rId1"/>
+    <hyperlink ref="C73" r:id="rId2"/>
+    <hyperlink ref="C101" r:id="rId3"/>
+    <hyperlink ref="C108" r:id="rId4"/>
+    <hyperlink ref="C94" r:id="rId5"/>
+    <hyperlink ref="C87" r:id="rId6"/>
+    <hyperlink ref="C115" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6305,7 +11170,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -6316,7 +11181,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="22" t="s">
         <v>78</v>
       </c>
@@ -6325,19 +11190,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="107"/>
       <c r="E7" s="20">
         <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="107"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="107"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
@@ -6357,7 +11222,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -6368,22 +11233,22 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="107"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="107"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="107"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="107"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -6403,7 +11268,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -6414,7 +11279,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
@@ -6423,19 +11288,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="107"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="107"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="107"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
+      <c r="A25" s="107"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="107"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -6455,27 +11320,27 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="107"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="107"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="107"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="107"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="107"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="107"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -6495,27 +11360,27 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+      <c r="A37" s="107"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="107"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
+      <c r="A39" s="107"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
+      <c r="A40" s="107"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="107"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="107"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -6535,27 +11400,27 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
+      <c r="A45" s="107"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
+      <c r="A46" s="107"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
+      <c r="A47" s="107"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
+      <c r="A48" s="107"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="107"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
+      <c r="A50" s="107"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -6575,27 +11440,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
+      <c r="A53" s="107"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
+      <c r="A54" s="107"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
+      <c r="A55" s="107"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
+      <c r="A56" s="107"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
+      <c r="A57" s="107"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
+      <c r="A58" s="107"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
@@ -6616,27 +11481,27 @@
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
+      <c r="A61" s="107"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
+      <c r="A62" s="107"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
+      <c r="A63" s="107"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
+      <c r="A64" s="107"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="107"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
+      <c r="A66" s="107"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
@@ -6656,7 +11521,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="107" t="s">
+      <c r="A68" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -6667,22 +11532,22 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
+      <c r="A69" s="107"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
+      <c r="A70" s="107"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
+      <c r="A71" s="107"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
+      <c r="A72" s="107"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
+      <c r="A73" s="107"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
+      <c r="A74" s="107"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
@@ -6702,7 +11567,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="107" t="s">
+      <c r="A76" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -6713,22 +11578,22 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
+      <c r="A77" s="107"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
+      <c r="A78" s="107"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
+      <c r="A79" s="107"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
+      <c r="A80" s="107"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="106"/>
+      <c r="A81" s="107"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
+      <c r="A82" s="107"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -6748,27 +11613,27 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="107" t="s">
+      <c r="A84" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
+      <c r="A85" s="107"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
+      <c r="A86" s="107"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
+      <c r="A87" s="107"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
+      <c r="A88" s="107"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
+      <c r="A89" s="107"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
+      <c r="A90" s="107"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
@@ -6788,27 +11653,27 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="107" t="s">
+      <c r="A92" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
+      <c r="A93" s="107"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
+      <c r="A94" s="107"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
+      <c r="A95" s="107"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
+      <c r="A96" s="107"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
+      <c r="A97" s="107"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
+      <c r="A98" s="107"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
@@ -6828,27 +11693,27 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
+      <c r="A101" s="107"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
+      <c r="A102" s="107"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
+      <c r="A103" s="107"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
+      <c r="A104" s="107"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
+      <c r="A105" s="107"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
+      <c r="A106" s="107"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
@@ -6868,7 +11733,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="107" t="s">
+      <c r="A108" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -6879,7 +11744,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="106"/>
+      <c r="A109" s="107"/>
       <c r="B109" s="21" t="s">
         <v>129</v>
       </c>
@@ -6888,7 +11753,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
+      <c r="A110" s="107"/>
       <c r="B110" s="21" t="s">
         <v>130</v>
       </c>
@@ -6897,7 +11762,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
+      <c r="A111" s="107"/>
       <c r="B111" s="21" t="s">
         <v>131</v>
       </c>
@@ -6906,13 +11771,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="106"/>
+      <c r="A112" s="107"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="106"/>
+      <c r="A113" s="107"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="106"/>
+      <c r="A114" s="107"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
@@ -6932,7 +11797,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="107" t="s">
+      <c r="A116" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -6943,7 +11808,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="106"/>
+      <c r="A117" s="107"/>
       <c r="B117" s="21" t="s">
         <v>132</v>
       </c>
@@ -6952,19 +11817,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="106"/>
+      <c r="A118" s="107"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="106"/>
+      <c r="A119" s="107"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="106"/>
+      <c r="A120" s="107"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="106"/>
+      <c r="A121" s="107"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="106"/>
+      <c r="A122" s="107"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35">
@@ -6984,7 +11849,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="107" t="s">
+      <c r="A124" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B124" s="21" t="s">
@@ -6995,7 +11860,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
+      <c r="A125" s="107"/>
       <c r="B125" s="21" t="s">
         <v>136</v>
       </c>
@@ -7004,7 +11869,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="106"/>
+      <c r="A126" s="107"/>
       <c r="B126" s="21" t="s">
         <v>137</v>
       </c>
@@ -7013,7 +11878,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="106"/>
+      <c r="A127" s="107"/>
       <c r="B127" s="21" t="s">
         <v>138</v>
       </c>
@@ -7022,13 +11887,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="106"/>
+      <c r="A128" s="107"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="106"/>
+      <c r="A129" s="107"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="106"/>
+      <c r="A130" s="107"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35">
@@ -7048,7 +11913,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="107" t="s">
+      <c r="A132" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="21" t="s">
@@ -7059,22 +11924,22 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="106"/>
+      <c r="A133" s="107"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="106"/>
+      <c r="A134" s="107"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="106"/>
+      <c r="A135" s="107"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="106"/>
+      <c r="A136" s="107"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="106"/>
+      <c r="A137" s="107"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="106"/>
+      <c r="A138" s="107"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="35">
@@ -7094,7 +11959,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="107" t="s">
+      <c r="A140" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B140" s="21" t="s">
@@ -7105,7 +11970,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="106"/>
+      <c r="A141" s="107"/>
       <c r="B141" s="21" t="s">
         <v>139</v>
       </c>
@@ -7114,19 +11979,19 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="106"/>
+      <c r="A142" s="107"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="106"/>
+      <c r="A143" s="107"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="106"/>
+      <c r="A144" s="107"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="106"/>
+      <c r="A145" s="107"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="106"/>
+      <c r="A146" s="107"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35">
@@ -7146,27 +12011,27 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="107" t="s">
+      <c r="A148" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="106"/>
+      <c r="A149" s="107"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="106"/>
+      <c r="A150" s="107"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="106"/>
+      <c r="A151" s="107"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="106"/>
+      <c r="A152" s="107"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="106"/>
+      <c r="A153" s="107"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="106"/>
+      <c r="A154" s="107"/>
     </row>
     <row r="155" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35">
@@ -7186,7 +12051,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="107" t="s">
+      <c r="A156" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="21" t="s">
@@ -7197,22 +12062,22 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="106"/>
+      <c r="A157" s="107"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="106"/>
+      <c r="A158" s="107"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="106"/>
+      <c r="A159" s="107"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="106"/>
+      <c r="A160" s="107"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="106"/>
+      <c r="A161" s="107"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="106"/>
+      <c r="A162" s="107"/>
     </row>
     <row r="163" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="35">
@@ -7232,7 +12097,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="107" t="s">
+      <c r="A164" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="21" t="s">
@@ -7243,22 +12108,22 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="106"/>
+      <c r="A165" s="107"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="106"/>
+      <c r="A166" s="107"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="106"/>
+      <c r="A167" s="107"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="106"/>
+      <c r="A168" s="107"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="106"/>
+      <c r="A169" s="107"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="106"/>
+      <c r="A170" s="107"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="35">
@@ -7278,27 +12143,27 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="105" t="s">
+      <c r="A172" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="106"/>
+      <c r="A173" s="107"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="106"/>
+      <c r="A174" s="107"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="106"/>
+      <c r="A175" s="107"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="106"/>
+      <c r="A176" s="107"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="106"/>
+      <c r="A177" s="107"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="106"/>
+      <c r="A178" s="107"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35">
@@ -7318,7 +12183,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="105" t="s">
+      <c r="A180" s="106" t="s">
         <v>80</v>
       </c>
       <c r="B180" s="21" t="s">
@@ -7329,7 +12194,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="106"/>
+      <c r="A181" s="107"/>
       <c r="B181" s="21" t="s">
         <v>153</v>
       </c>
@@ -7338,19 +12203,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="106"/>
+      <c r="A182" s="107"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="106"/>
+      <c r="A183" s="107"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="106"/>
+      <c r="A184" s="107"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="106"/>
+      <c r="A185" s="107"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="106"/>
+      <c r="A186" s="107"/>
     </row>
     <row r="187" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35">
@@ -7370,7 +12235,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="105" t="s">
+      <c r="A188" s="106" t="s">
         <v>80</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -7381,22 +12246,22 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="106"/>
+      <c r="A189" s="107"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="106"/>
+      <c r="A190" s="107"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="106"/>
+      <c r="A191" s="107"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="106"/>
+      <c r="A192" s="107"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="106"/>
+      <c r="A193" s="107"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="106"/>
+      <c r="A194" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7473,7 +12338,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -7484,19 +12349,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="107"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="107"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="107"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
@@ -7516,7 +12381,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -7527,7 +12392,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="66" t="s">
         <v>181</v>
       </c>
@@ -7536,16 +12401,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="107"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="107"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -7565,7 +12430,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="66" t="s">
@@ -7576,7 +12441,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="66" t="s">
         <v>183</v>
       </c>
@@ -7585,16 +12450,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="107"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="107"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="107"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="107"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -7614,7 +12479,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="66" t="s">
@@ -7625,19 +12490,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="107"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="107"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
+      <c r="A28" s="107"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="107"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="107"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -7657,24 +12522,24 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="107"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="107"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+      <c r="A35" s="107"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
+      <c r="A36" s="107"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+      <c r="A37" s="107"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
@@ -7694,7 +12559,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -7705,19 +12570,19 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
+      <c r="A40" s="107"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="107"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="107"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="107"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="107"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
@@ -7737,7 +12602,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="66" t="s">
@@ -7748,7 +12613,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="66" t="s">
         <v>185</v>
       </c>
@@ -7757,7 +12622,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="66" t="s">
         <v>186</v>
       </c>
@@ -7766,7 +12631,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="66" t="s">
         <v>187</v>
       </c>
@@ -7775,7 +12640,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="66" t="s">
         <v>189</v>
       </c>
@@ -7784,7 +12649,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="106"/>
+      <c r="A51" s="107"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
@@ -7804,24 +12669,24 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
+      <c r="A54" s="107"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
+      <c r="A55" s="107"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
+      <c r="A56" s="107"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
+      <c r="A57" s="107"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
+      <c r="A58" s="107"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
@@ -7841,7 +12706,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="66" t="s">
@@ -7852,19 +12717,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
+      <c r="A61" s="107"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
+      <c r="A62" s="107"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
+      <c r="A63" s="107"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
+      <c r="A64" s="107"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="107"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
@@ -7884,7 +12749,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="66" t="s">
@@ -7895,7 +12760,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="66" t="s">
         <v>192</v>
       </c>
@@ -7904,16 +12769,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
+      <c r="A69" s="107"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
+      <c r="A70" s="107"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
+      <c r="A71" s="107"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
+      <c r="A72" s="107"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
@@ -7931,7 +12796,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="107" t="s">
+      <c r="A74" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="66" t="s">
@@ -7942,19 +12807,19 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
+      <c r="A75" s="107"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
+      <c r="A76" s="107"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
+      <c r="A77" s="107"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
+      <c r="A78" s="107"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
+      <c r="A79" s="107"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
@@ -7974,7 +12839,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
@@ -7985,19 +12850,19 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
+      <c r="A82" s="107"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
+      <c r="A83" s="107"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
+      <c r="A84" s="107"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
+      <c r="A85" s="107"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
+      <c r="A86" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8054,7 +12919,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -8065,7 +12930,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
@@ -8074,7 +12939,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="3" t="s">
         <v>213</v>
       </c>
@@ -8083,7 +12948,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
@@ -8092,7 +12957,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="3" t="s">
         <v>217</v>
       </c>
@@ -8101,7 +12966,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="3" t="s">
         <v>218</v>
       </c>
@@ -8127,7 +12992,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -8138,7 +13003,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="3" t="s">
         <v>210</v>
       </c>
@@ -8147,7 +13012,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
@@ -8156,7 +13021,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="3" t="s">
         <v>215</v>
       </c>
@@ -8165,11 +13030,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="107"/>
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -8190,7 +13055,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8199,23 +13064,23 @@
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="107"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="107"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="107"/>
       <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="107"/>
       <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="107"/>
       <c r="E23" s="74"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -8236,7 +13101,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -8247,23 +13112,23 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="107"/>
       <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="107"/>
       <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
+      <c r="A28" s="107"/>
       <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="107"/>
       <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="107"/>
       <c r="E30" s="74"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -8284,7 +13149,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="76" t="s">
@@ -8295,23 +13160,23 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="107"/>
       <c r="E33" s="74"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="107"/>
       <c r="E34" s="74"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+      <c r="A35" s="107"/>
       <c r="E35" s="74"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
+      <c r="A36" s="107"/>
       <c r="E36" s="74"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+      <c r="A37" s="107"/>
       <c r="E37" s="74"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -8332,7 +13197,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -8343,7 +13208,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="3" t="s">
         <v>222</v>
       </c>
@@ -8352,16 +13217,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="107"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="107"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="107"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8390,152 +13255,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="88" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="79">
         <v>25</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="89" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="90">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="90">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="106"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="79">
         <v>25</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="91" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="90">
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="90">
         <v>49000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+      <c r="A16" s="109"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="A17" s="78">
         <v>3</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="79">
         <v>25</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="91" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+      <c r="A24" s="78">
         <v>4</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="85" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -8544,38 +13409,38 @@
       <c r="D24" s="32">
         <v>25</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="92" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="90">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+      <c r="A28" s="106"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="106"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+      <c r="A31" s="78">
         <v>5</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -8587,32 +13452,32 @@
       <c r="D31" s="32">
         <v>25</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="92" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+      <c r="A37" s="109"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="77">
+      <c r="A38" s="78">
         <v>6</v>
       </c>
       <c r="B38" s="41" t="s">
@@ -8620,32 +13485,32 @@
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="92" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
+      <c r="A40" s="106"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="106"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+      <c r="A44" s="109"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
+      <c r="A45" s="78">
         <v>7</v>
       </c>
       <c r="B45" s="41" t="s">
@@ -8657,41 +13522,41 @@
       <c r="D45" s="32">
         <v>25</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="E45" s="92" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="87" t="s">
+      <c r="A46" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="88" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="89">
+      <c r="E46" s="90">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
+      <c r="A47" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
+      <c r="A48" s="106"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="105"/>
+      <c r="A49" s="106"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="105"/>
+      <c r="A50" s="106"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
+      <c r="A51" s="109"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="79">
+      <c r="A52" s="80">
         <v>8</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="85" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -8700,35 +13565,35 @@
       <c r="D52" s="32">
         <v>25</v>
       </c>
-      <c r="E52" s="91" t="s">
+      <c r="E52" s="92" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="105"/>
+      <c r="A54" s="106"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
+      <c r="A55" s="106"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
+      <c r="A56" s="106"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+      <c r="A58" s="109"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+      <c r="A59" s="78">
         <v>9</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="85" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="32" t="s">
@@ -8737,41 +13602,41 @@
       <c r="D59" s="32">
         <v>240</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="89" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="87" t="s">
+      <c r="A60" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="89">
+      <c r="E60" s="90">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
+      <c r="A61" s="106"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="105"/>
+      <c r="A62" s="106"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="105"/>
+      <c r="A63" s="106"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="105"/>
+      <c r="A64" s="106"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="109"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="77">
+      <c r="A66" s="78">
         <v>10</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B66" s="85" t="s">
         <v>242</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -8780,222 +13645,222 @@
       <c r="D66" s="32">
         <v>40</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="92" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="87" t="s">
+      <c r="A67" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67" s="90">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="105"/>
-      <c r="B68" s="87" t="s">
+      <c r="A68" s="106"/>
+      <c r="B68" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="90">
         <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="105"/>
+      <c r="A69" s="106"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="105"/>
+      <c r="A70" s="106"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
+      <c r="A71" s="106"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+      <c r="A72" s="109"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="77">
+      <c r="A73" s="78">
         <v>11</v>
       </c>
       <c r="B73" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D73" s="79">
         <v>25</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="89" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="87" t="s">
+      <c r="A74" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="89">
+      <c r="E74" s="90">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="105"/>
+      <c r="A75" s="106"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
+      <c r="A76" s="106"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
+      <c r="A77" s="106"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="105"/>
+      <c r="A78" s="106"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
+      <c r="A79" s="109"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="77">
+      <c r="A80" s="78">
         <v>12</v>
       </c>
       <c r="B80" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="78">
+      <c r="D80" s="79">
         <v>25</v>
       </c>
-      <c r="E80" s="92" t="s">
+      <c r="E80" s="93" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="87" t="s">
+      <c r="A81" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="E81" s="89">
+      <c r="E81" s="90">
         <v>2550</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
+      <c r="A82" s="106"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="105"/>
+      <c r="A83" s="106"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="105"/>
+      <c r="A84" s="106"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="105"/>
+      <c r="A85" s="106"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
+      <c r="A86" s="109"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="77">
+      <c r="A87" s="78">
         <v>13</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="80" t="s">
+      <c r="D87" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="91" t="s">
+      <c r="E87" s="92" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="87" t="s">
+      <c r="A88" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="E88" s="89">
+      <c r="E88" s="90">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="105"/>
+      <c r="A89" s="106"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="105"/>
+      <c r="A90" s="106"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="105"/>
+      <c r="A91" s="106"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="105"/>
+      <c r="A92" s="106"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+      <c r="A93" s="109"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="77">
+      <c r="A94" s="78">
         <v>14</v>
       </c>
-      <c r="B94" s="85" t="s">
+      <c r="B94" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="78" t="s">
+      <c r="C94" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="81" t="s">
+      <c r="D94" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="91" t="s">
+      <c r="E94" s="92" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="105" t="s">
+      <c r="A95" s="106" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="105"/>
+      <c r="A96" s="106"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="105"/>
+      <c r="A97" s="106"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="105"/>
+      <c r="A98" s="106"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="105"/>
+      <c r="A99" s="106"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+      <c r="A100" s="109"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="77">
+      <c r="A101" s="78">
         <v>15</v>
       </c>
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="82" t="s">
+      <c r="C101" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D101" s="80" t="s">
+      <c r="D101" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E101" s="92" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9034,8 +13899,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53" style="87" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -9048,7 +13913,7 @@
       <c r="C3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="111">
         <v>25</v>
       </c>
       <c r="E3" s="65" t="s">
@@ -9056,43 +13921,43 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="90">
         <v>23.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="90">
         <v>23.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>2</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="110" t="s">
         <v>271</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="111">
         <v>25</v>
       </c>
       <c r="E9" s="44" t="s">
@@ -9100,42 +13965,42 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="90">
         <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
+      <c r="A11" s="106"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>3</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="110" t="s">
         <v>273</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="112" t="s">
         <v>274</v>
       </c>
       <c r="E16" s="44" t="s">
@@ -9143,30 +14008,30 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
+      <c r="A18" s="106"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <v>4</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="110" t="s">
         <v>276</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -9180,30 +14045,30 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
+      <c r="A25" s="106"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+      <c r="A28" s="106"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="106"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="53">
         <v>5</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="113" t="s">
         <v>278</v>
       </c>
       <c r="C30" s="42" t="s">
@@ -9217,36 +14082,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="90">
         <v>4450</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
+      <c r="A32" s="106"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="53">
         <v>6</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="113" t="s">
         <v>280</v>
       </c>
       <c r="C37" s="42" t="s">
@@ -9255,35 +14120,35 @@
       <c r="D37" s="42">
         <v>25</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="114">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
+      <c r="A39" s="106"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
+      <c r="A40" s="106"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="106"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="53">
         <v>7</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="113" t="s">
         <v>281</v>
       </c>
       <c r="C44" s="42" t="s">
@@ -9297,30 +14162,30 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="105"/>
+      <c r="A46" s="106"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
+      <c r="A47" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
+      <c r="A48" s="106"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="105"/>
+      <c r="A49" s="106"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="105"/>
+      <c r="A50" s="106"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="53">
         <v>8</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="113" t="s">
         <v>283</v>
       </c>
       <c r="C51" s="42" t="s">
@@ -9334,30 +14199,30 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="87" t="s">
+      <c r="A52" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="90">
         <v>990</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="105"/>
+      <c r="A53" s="106"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="105"/>
+      <c r="A54" s="106"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
+      <c r="A55" s="106"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
+      <c r="A56" s="106"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9378,22 +14243,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="120"/>
-    <col min="5" max="5" width="12.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="121"/>
+    <col min="5" max="5" width="12.140625" style="129" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -9407,432 +14272,432 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="129">
         <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="106"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>2</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="119">
         <v>48</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="116" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="129">
         <v>15.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="129">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="129">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="129">
         <v>15.2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
+      <c r="A16" s="106"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>3</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="119">
         <v>60</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="116" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="129">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="A20" s="106"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="106"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="106"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
+      <c r="A23" s="106"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>4</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="118">
+      <c r="D24" s="119">
         <v>40</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="116" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="106"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+      <c r="A28" s="106"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
+      <c r="A29" s="106"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="106"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
         <v>5</v>
       </c>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="118" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="119">
         <v>60</v>
       </c>
-      <c r="E31" s="115" t="s">
+      <c r="E31" s="116" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="129">
         <v>11.6</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="128">
+      <c r="E33" s="129">
         <v>11.6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
+      <c r="A34" s="106"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
+      <c r="A35" s="106"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
+      <c r="A37" s="106"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
         <v>6</v>
       </c>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="118" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="121" t="s">
+      <c r="C38" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="118">
+      <c r="D38" s="119">
         <v>100</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="116" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
+      <c r="A40" s="106"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="106"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="106"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="105"/>
+      <c r="A44" s="106"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
         <v>7</v>
       </c>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="118">
+      <c r="D45" s="119">
         <v>60</v>
       </c>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="116" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
+      <c r="A47" s="106"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
+      <c r="A48" s="106"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="105"/>
+      <c r="A49" s="106"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="105"/>
+      <c r="A50" s="106"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="105"/>
+      <c r="A51" s="106"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
         <v>8</v>
       </c>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D52" s="54">
         <v>1</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="116" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="105"/>
+      <c r="A54" s="106"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="105"/>
+      <c r="A55" s="106"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
+      <c r="A56" s="106"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="106"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="105"/>
+      <c r="A58" s="106"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
         <v>9</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="124" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="122" t="s">
+      <c r="C59" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D59" s="54">
         <v>1</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="116" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="E60" s="128">
+      <c r="E60" s="129">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="E61" s="128">
+      <c r="E61" s="129">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="105"/>
+      <c r="A62" s="106"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="105"/>
+      <c r="A63" s="106"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="105"/>
+      <c r="A64" s="106"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="105"/>
+      <c r="A65" s="106"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>10</v>
       </c>
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="122" t="s">
+      <c r="C66" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D66" s="54">
         <v>1</v>
       </c>
-      <c r="E66" s="115" t="s">
+      <c r="E66" s="116" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="E67" s="128">
+      <c r="E67" s="129">
         <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="105"/>
+      <c r="A68" s="106"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="105"/>
+      <c r="A69" s="106"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="105"/>
+      <c r="A70" s="106"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
+      <c r="A71" s="106"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="105"/>
+      <c r="A72" s="106"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
         <v>11</v>
       </c>
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="124" t="s">
         <v>308</v>
       </c>
-      <c r="C73" s="122" t="s">
+      <c r="C73" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D73" s="54">
@@ -9843,45 +14708,45 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="107" t="s">
+      <c r="A74" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="E74" s="128">
+      <c r="E74" s="129">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="105"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="E75" s="128">
+      <c r="E75" s="129">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
+      <c r="A76" s="106"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
+      <c r="A77" s="106"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="105"/>
+      <c r="A78" s="106"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="105"/>
+      <c r="A79" s="106"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
         <v>12</v>
       </c>
-      <c r="B80" s="123" t="s">
+      <c r="B80" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="C80" s="122" t="s">
+      <c r="C80" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D80" s="54"/>
@@ -9890,33 +14755,33 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
+      <c r="A82" s="106"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="105"/>
+      <c r="A83" s="106"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="105"/>
+      <c r="A84" s="106"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="105"/>
+      <c r="A85" s="106"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="105"/>
+      <c r="A86" s="106"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="53">
         <v>13</v>
       </c>
-      <c r="B87" s="124" t="s">
+      <c r="B87" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D87" s="59">
@@ -9927,73 +14792,73 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="105"/>
+      <c r="A89" s="106"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="105"/>
+      <c r="A90" s="106"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="105"/>
+      <c r="A91" s="106"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="105"/>
+      <c r="A92" s="106"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="105"/>
+      <c r="A93" s="106"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="53">
         <v>14</v>
       </c>
-      <c r="B94" s="124" t="s">
+      <c r="B94" s="125" t="s">
         <v>314</v>
       </c>
-      <c r="C94" s="121" t="s">
+      <c r="C94" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="118">
+      <c r="D94" s="119">
         <v>72</v>
       </c>
-      <c r="E94" s="115" t="s">
+      <c r="E94" s="116" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="105" t="s">
+      <c r="A95" s="106" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="E95" s="128">
+      <c r="E95" s="129">
         <v>9.9</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="105"/>
+      <c r="A96" s="106"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="105"/>
+      <c r="A97" s="106"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="105"/>
+      <c r="A98" s="106"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="105"/>
+      <c r="A99" s="106"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="105"/>
+      <c r="A100" s="106"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="53">
         <v>15</v>
       </c>
-      <c r="B101" s="125" t="s">
+      <c r="B101" s="126" t="s">
         <v>316</v>
       </c>
       <c r="C101" s="42" t="s">
@@ -10002,47 +14867,47 @@
       <c r="D101" s="54">
         <v>72</v>
       </c>
-      <c r="E101" s="115" t="s">
+      <c r="E101" s="116" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="107" t="s">
+      <c r="A102" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="E102" s="128">
+      <c r="E102" s="129">
         <v>7.6</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="105"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="E103" s="128">
+      <c r="E103" s="129">
         <v>7.6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="105"/>
+      <c r="A104" s="106"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="105"/>
+      <c r="A105" s="106"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="105"/>
+      <c r="A106" s="106"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="105"/>
+      <c r="A107" s="106"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="53">
         <v>16</v>
       </c>
-      <c r="B108" s="125" t="s">
+      <c r="B108" s="126" t="s">
         <v>318</v>
       </c>
       <c r="C108" s="42" t="s">
@@ -10056,42 +14921,42 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="107" t="s">
+      <c r="A109" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B109" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="E109" s="128">
+      <c r="E109" s="129">
         <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="105"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="E110" s="128">
+      <c r="E110" s="129">
         <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="105"/>
+      <c r="A111" s="106"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="105"/>
+      <c r="A112" s="106"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="105"/>
+      <c r="A113" s="106"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="105"/>
+      <c r="A114" s="106"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="53">
         <v>17</v>
       </c>
-      <c r="B115" s="125" t="s">
+      <c r="B115" s="126" t="s">
         <v>320</v>
       </c>
       <c r="C115" s="42" t="s">
@@ -10105,42 +14970,42 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="107" t="s">
+      <c r="A116" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B116" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="E116" s="128">
+      <c r="E116" s="129">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="105"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="E117" s="128">
+      <c r="E117" s="129">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="105"/>
+      <c r="A118" s="106"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="105"/>
+      <c r="A119" s="106"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="105"/>
+      <c r="A120" s="106"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="105"/>
+      <c r="A121" s="106"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="53">
         <v>18</v>
       </c>
-      <c r="B122" s="125" t="s">
+      <c r="B122" s="126" t="s">
         <v>322</v>
       </c>
       <c r="C122" s="42" t="s">
@@ -10154,42 +15019,42 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="107" t="s">
+      <c r="A123" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="E123" s="128">
+      <c r="E123" s="129">
         <v>10.3</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="105"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="E124" s="128">
+      <c r="E124" s="129">
         <v>13.2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="105"/>
+      <c r="A125" s="106"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="105"/>
+      <c r="A126" s="106"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="105"/>
+      <c r="A127" s="106"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="105"/>
+      <c r="A128" s="106"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="53">
         <v>19</v>
       </c>
-      <c r="B129" s="124" t="s">
+      <c r="B129" s="125" t="s">
         <v>324</v>
       </c>
       <c r="C129" s="42" t="s">
@@ -10203,36 +15068,36 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="107" t="s">
+      <c r="A130" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B130" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="E130" s="128">
+      <c r="E130" s="129">
         <v>13.2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="105"/>
+      <c r="A131" s="106"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="105"/>
+      <c r="A132" s="106"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="105"/>
+      <c r="A133" s="106"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="105"/>
+      <c r="A134" s="106"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="105"/>
+      <c r="A135" s="106"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="53">
         <v>20</v>
       </c>
-      <c r="B136" s="126" t="s">
+      <c r="B136" s="127" t="s">
         <v>326</v>
       </c>
       <c r="C136" s="42" t="s">
@@ -10246,70 +15111,70 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="107" t="s">
+      <c r="A137" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="105"/>
+      <c r="A138" s="106"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="105"/>
+      <c r="A139" s="106"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="105"/>
+      <c r="A140" s="106"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="105"/>
+      <c r="A141" s="106"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="105"/>
+      <c r="A142" s="106"/>
     </row>
     <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="53">
         <v>21</v>
       </c>
-      <c r="B143" s="127" t="s">
+      <c r="B143" s="128" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="121" t="s">
+      <c r="C143" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D143" s="118">
+      <c r="D143" s="119">
         <v>25</v>
       </c>
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="116" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="107" t="s">
+      <c r="A144" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="105"/>
+      <c r="A145" s="106"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="105"/>
+      <c r="A146" s="106"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="105"/>
+      <c r="A147" s="106"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="105"/>
+      <c r="A148" s="106"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="105"/>
+      <c r="A149" s="106"/>
     </row>
     <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="53">
         <v>22</v>
       </c>
-      <c r="B150" s="127" t="s">
+      <c r="B150" s="128" t="s">
         <v>330</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="122" t="s">
         <v>177</v>
       </c>
       <c r="D150" s="59"/>
@@ -10318,73 +15183,73 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="107" t="s">
+      <c r="A151" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="105"/>
+      <c r="A152" s="106"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="105"/>
+      <c r="A153" s="106"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="105"/>
+      <c r="A154" s="106"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="105"/>
+      <c r="A155" s="106"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="105"/>
+      <c r="A156" s="106"/>
     </row>
     <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="53">
         <v>23</v>
       </c>
-      <c r="B157" s="127" t="s">
+      <c r="B157" s="128" t="s">
         <v>331</v>
       </c>
-      <c r="C157" s="121" t="s">
+      <c r="C157" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="118">
+      <c r="D157" s="119">
         <v>25</v>
       </c>
-      <c r="E157" s="115" t="s">
+      <c r="E157" s="116" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="107" t="s">
+      <c r="A158" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B158" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="E158" s="128">
+      <c r="E158" s="129">
         <v>3.9</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="105"/>
+      <c r="A159" s="106"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="105"/>
+      <c r="A160" s="106"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="105"/>
+      <c r="A161" s="106"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="105"/>
+      <c r="A162" s="106"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="105"/>
+      <c r="A163" s="106"/>
     </row>
     <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="53">
         <v>24</v>
       </c>
-      <c r="B164" s="114" t="s">
+      <c r="B164" s="115" t="s">
         <v>333</v>
       </c>
       <c r="C164" s="42" t="s">
@@ -10398,24 +15263,24 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="107" t="s">
+      <c r="A165" s="108" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="105"/>
+      <c r="A166" s="106"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="105"/>
+      <c r="A167" s="106"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="105"/>
+      <c r="A168" s="106"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="105"/>
+      <c r="A169" s="106"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="105"/>
+      <c r="A170" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -10452,4 +15317,573 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="130"/>
+      <c r="E3" s="132" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="59">
+        <v>40</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="59">
+        <v>12</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="59">
+        <v>12</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="77"/>
+    <col min="5" max="5" width="20" style="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="54">
+        <v>20</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>3</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="116" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="54">
+        <v>25</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>5</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="59">
+        <v>1</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>6</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>7</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="59">
+        <v>1</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>8</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="59">
+        <v>1</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>9</v>
+      </c>
+      <c r="B59" s="130" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="130"/>
+      <c r="E59" s="114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="106"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="106"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="106"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>10</v>
+      </c>
+      <c r="B66" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="54"/>
+      <c r="E66" s="116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="106"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="106"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="894" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="917" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Позиции в поиске" sheetId="1" r:id="rId1"/>
@@ -7389,6 +7389,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8339,6 +8342,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9416,6 +9422,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E184"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -10430,10 +10439,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11213,8 +11225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11226,7 +11238,7 @@
     <col min="5" max="5" width="8.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="19"/>
-    <col min="8" max="8" width="72.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="19" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="19"/>
     <col min="11" max="11" width="22.5703125" style="19" customWidth="1"/>
     <col min="12" max="14" width="9.140625" style="19"/>
@@ -14374,8 +14386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E170"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:A163"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15452,6 +15464,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15629,10 +15644,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A3:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="577">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -5102,6 +5102,81 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   https://my.prom.ua/cms/product/edit/1920844456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Киеве  | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  https://my.prom.ua/cms/product/edit/2388062967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Житомире  | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    https://my.prom.ua/cms/product/edit/2388072654</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Кропивницком  | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    https://my.prom.ua/cms/product/edit/2388077113</t>
     </r>
   </si>
 </sst>
@@ -11225,8 +11300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11442,16 +11517,43 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="141" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="146" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="142"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="20">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="142"/>
+      <c r="B21" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" s="147" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="142"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -11300,7 +11300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="583">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -5177,6 +5177,90 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">    https://my.prom.ua/cms/product/edit/2388077113</t>
+    </r>
+  </si>
+  <si>
+    <t>Cоль поваренная - пищевая - каменная -  HAKAN - в мешках со склада в Киеве | Атена    https://my.prom.ua/cms/product/edit/2388086875</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cоль поваренная - пищевая - каменная -  HAKAN - в мешках со склада в Житомире | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   https://my.prom.ua/cms/product/edit/2388090747</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cоль поваренная - пищевая - каменная -  HAKAN - в мешках со склада в Кропивницком | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    https://my.prom.ua/cms/product/edit/2388097749</t>
+    </r>
+  </si>
+  <si>
+    <t>Cоль поваренная - пищевая - каменная -  Египет - в мешках со складов в Киеве | Атена    https://my.prom.ua/cms/product/edit/2388107078</t>
+  </si>
+  <si>
+    <t>Cоль поваренная - пищевая - каменная -  Египет - в мешках со складов в Житомире | Атена    https://my.prom.ua/cms/product/edit/2388116989</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cоль поваренная - пищевая - каменная -  Египет - в мешках со складов в Кропивницком | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     https://my.prom.ua/cms/product/edit/2388123847</t>
     </r>
   </si>
 </sst>
@@ -11298,16 +11382,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G185"/>
+  <dimension ref="A3:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="52.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="147" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="157"/>
     <col min="5" max="5" width="8.7109375" style="19" customWidth="1"/>
@@ -11558,258 +11642,346 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="142"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="142"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>5</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="148"/>
+      <c r="D23" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="29">
+        <v>25</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>565</v>
+      </c>
+      <c r="F24" s="20">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="142"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>5</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="104" t="s">
+      <c r="B25" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="147" t="s">
+        <v>564</v>
+      </c>
+      <c r="F25" s="20">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="142"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>6</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E27" s="29">
         <v>25</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="142"/>
+      <c r="F27" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="C28" s="147" t="s">
+        <v>567</v>
+      </c>
+      <c r="F28" s="20">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="142"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="142"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="142"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="143"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>8</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="149"/>
+      <c r="D30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="29">
+        <v>25</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="20">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="142"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C32" s="147" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" s="20">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="142"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>6</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="29" t="s">
+      <c r="B33" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C33" s="147" t="s">
+        <v>567</v>
+      </c>
+      <c r="F33" s="20">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="142"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>24</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="148"/>
+      <c r="D35" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E35" s="29">
+        <v>12</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="142"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="142"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="142"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="142"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="142"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="142"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>7</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="150"/>
+      <c r="D43" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="29">
         <v>25</v>
       </c>
-      <c r="F34" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="142"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="142"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="142"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="142"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="142"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
-        <v>8</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="29" t="s">
+      <c r="F43" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="20">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="142"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="142"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="142"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="142"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="142"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="142"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>9</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="151"/>
+      <c r="D51" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E51" s="29">
         <v>25</v>
       </c>
-      <c r="F42" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="142"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="142"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="142"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="142"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="142"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="142"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>24</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="148"/>
-      <c r="D50" s="104" t="s">
+      <c r="F51" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="20">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="142"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="142"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="142"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="142"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="142"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="142"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>10</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="151"/>
+      <c r="D59" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="29">
-        <v>12</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="142"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="142"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="142"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="142"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="142"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="142"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
-        <v>7</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="150"/>
-      <c r="D58" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="29">
+      <c r="E59" s="29">
         <v>25</v>
       </c>
-      <c r="F58" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="20">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="142"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="142"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="142"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="142"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="142"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="142"/>
     </row>
-    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
-        <v>9</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="151"/>
-      <c r="D66" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="29">
-        <v>25</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="20">
-        <v>16.600000000000001</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="142"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>11</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="151"/>
+      <c r="D67" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="29">
+        <v>1</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="142"/>
+      <c r="A68" s="141" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="142"/>
@@ -11826,31 +11998,31 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="142"/>
     </row>
-    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28">
-        <v>10</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="151"/>
-      <c r="D74" s="104" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="142"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28">
+        <v>12</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="150"/>
+      <c r="D75" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E75" s="29">
         <v>25</v>
       </c>
-      <c r="F74" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="141" t="s">
-        <v>75</v>
+      <c r="F75" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="142"/>
+      <c r="A76" s="141" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="142"/>
@@ -11867,40 +12039,64 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="142"/>
     </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28">
-        <v>11</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="151"/>
-      <c r="D82" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="29">
-        <v>1</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="142"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="142"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="32">
+        <v>13</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="152"/>
+      <c r="D83" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="39">
+        <v>10</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="142"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="142"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="20">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="142"/>
+      <c r="B87" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="20">
+        <v>15000</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="142"/>
@@ -11908,34 +12104,46 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="142"/>
     </row>
-    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
-        <v>12</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="150"/>
-      <c r="D90" s="29" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="142"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="32">
+        <v>14</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="152"/>
+      <c r="D91" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E90" s="29">
-        <v>25</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="142"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="39">
+        <v>10</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="142"/>
+      <c r="B93" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="20">
+        <v>19000</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="142"/>
@@ -11949,64 +12157,64 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="142"/>
     </row>
-    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="32">
-        <v>13</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="152"/>
-      <c r="D98" s="104" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="142"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32">
+        <v>15</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="153"/>
+      <c r="D99" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="39">
-        <v>10</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="20">
-        <v>13</v>
+      <c r="E99" s="39">
+        <v>25</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="142"/>
+      <c r="A100" s="141" t="s">
+        <v>75</v>
+      </c>
       <c r="B100" s="21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F100" s="20">
-        <v>15</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="142"/>
       <c r="B101" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F101" s="20">
-        <v>13000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="142"/>
       <c r="B102" s="21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F102" s="20">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="142"/>
+      <c r="B103" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="142"/>
@@ -12014,42 +12222,36 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="142"/>
     </row>
-    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32">
-        <v>14</v>
-      </c>
-      <c r="B106" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="152"/>
-      <c r="D106" s="104" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="142"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="32">
+        <v>16</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="153"/>
+      <c r="D107" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E106" s="39">
-        <v>10</v>
-      </c>
-      <c r="F106" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F107" s="20">
-        <v>19</v>
+      <c r="E107" s="39">
+        <v>25</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="142"/>
+      <c r="A108" s="141" t="s">
+        <v>75</v>
+      </c>
       <c r="B108" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F108" s="20">
-        <v>19000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -12067,61 +12269,49 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="142"/>
     </row>
-    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32">
-        <v>15</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114" s="153"/>
-      <c r="D114" s="104" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="142"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32">
+        <v>17</v>
+      </c>
+      <c r="B115" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="154"/>
+      <c r="D115" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="39">
+      <c r="E115" s="43">
         <v>25</v>
       </c>
-      <c r="F114" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F115" s="20">
-        <v>18200</v>
+      <c r="F115" s="44" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="142"/>
+      <c r="A116" s="141" t="s">
+        <v>75</v>
+      </c>
       <c r="B116" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F116" s="20">
-        <v>500</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="142"/>
       <c r="B117" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F117" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="142"/>
-      <c r="B118" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F118" s="20">
-        <v>19</v>
-      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="142"/>
@@ -12132,37 +12322,31 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="142"/>
     </row>
-    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32">
-        <v>16</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" s="153"/>
-      <c r="D122" s="104" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="142"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="32">
+        <v>18</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="153"/>
+      <c r="D123" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E122" s="39">
+      <c r="E123" s="43">
         <v>25</v>
       </c>
-      <c r="F122" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F123" s="20">
-        <v>17</v>
+      <c r="F123" s="45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="142"/>
+      <c r="A124" s="141" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="142"/>
@@ -12179,42 +12363,36 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="142"/>
     </row>
-    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32">
-        <v>17</v>
-      </c>
-      <c r="B130" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="154"/>
-      <c r="D130" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="43">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="142"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="32">
+        <v>19</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="155"/>
+      <c r="D131" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="39">
         <v>25</v>
       </c>
-      <c r="F130" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F131" s="20">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="142"/>
+      <c r="F131" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="141" t="s">
+        <v>75</v>
+      </c>
       <c r="B132" s="21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F132" s="20">
-        <v>1360</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -12232,31 +12410,37 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="142"/>
     </row>
-    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="32">
-        <v>18</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="153"/>
-      <c r="D138" s="43" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="142"/>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="32">
+        <v>20</v>
+      </c>
+      <c r="B139" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="155"/>
+      <c r="D139" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E138" s="43">
-        <v>25</v>
-      </c>
-      <c r="F138" s="45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="141" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="142"/>
+      <c r="E139" s="39">
+        <v>50</v>
+      </c>
+      <c r="F139" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F140" s="20">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="142"/>
@@ -12273,37 +12457,31 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="142"/>
     </row>
-    <row r="146" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="32">
-        <v>19</v>
-      </c>
-      <c r="B146" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C146" s="155"/>
-      <c r="D146" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E146" s="39">
-        <v>25</v>
-      </c>
-      <c r="F146" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F147" s="20">
-        <v>5600</v>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="142"/>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="32">
+        <v>21</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="155"/>
+      <c r="D147" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" s="39">
+        <v>10</v>
+      </c>
+      <c r="F147" s="41" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="142"/>
+      <c r="A148" s="143" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="142"/>
@@ -12320,40 +12498,46 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="142"/>
     </row>
-    <row r="154" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="32">
-        <v>20</v>
-      </c>
-      <c r="B154" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C154" s="155"/>
-      <c r="D154" s="39" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="142"/>
+    </row>
+    <row r="155" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="32">
+        <v>22</v>
+      </c>
+      <c r="B155" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="155"/>
+      <c r="D155" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E154" s="39">
+      <c r="E155" s="39">
         <v>50</v>
       </c>
-      <c r="F154" s="45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F155" s="20">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="142"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="20">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="142"/>
+      <c r="B157" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" s="20">
+        <v>8000</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="142"/>
@@ -12367,31 +12551,37 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="142"/>
     </row>
-    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="32">
-        <v>21</v>
-      </c>
-      <c r="B162" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C162" s="155"/>
-      <c r="D162" s="39" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="142"/>
+    </row>
+    <row r="163" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="32">
+        <v>23</v>
+      </c>
+      <c r="B163" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="155"/>
+      <c r="D163" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E162" s="39">
-        <v>10</v>
-      </c>
-      <c r="F162" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="143" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="142"/>
+      <c r="E163" s="39">
+        <v>25</v>
+      </c>
+      <c r="F163" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F164" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="142"/>
@@ -12408,144 +12598,47 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="142"/>
     </row>
-    <row r="170" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="32">
-        <v>22</v>
-      </c>
-      <c r="B170" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="155"/>
-      <c r="D170" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E170" s="39">
-        <v>50</v>
-      </c>
-      <c r="F170" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F171" s="20">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="142"/>
-      <c r="B172" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F172" s="20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="142"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="142"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="142"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="142"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="142"/>
-    </row>
-    <row r="178" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32">
-        <v>23</v>
-      </c>
-      <c r="B178" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C178" s="155"/>
-      <c r="D178" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E178" s="39">
-        <v>25</v>
-      </c>
-      <c r="F178" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F179" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="142"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="142"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="142"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="142"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="142"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="142"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A171:A177"/>
-    <mergeCell ref="A179:A185"/>
-    <mergeCell ref="A123:A129"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A139:A145"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="A115:A121"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A148:A154"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A92:A98"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
     <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D26" r:id="rId4"/>
-    <hyperlink ref="D50" r:id="rId5"/>
-    <hyperlink ref="D66" r:id="rId6"/>
-    <hyperlink ref="D74" r:id="rId7"/>
-    <hyperlink ref="D82" r:id="rId8" display="кг"/>
-    <hyperlink ref="D106" r:id="rId9"/>
-    <hyperlink ref="D122" r:id="rId10"/>
+    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="D35" r:id="rId5"/>
+    <hyperlink ref="D51" r:id="rId6"/>
+    <hyperlink ref="D59" r:id="rId7"/>
+    <hyperlink ref="D67" r:id="rId8" display="кг"/>
+    <hyperlink ref="D91" r:id="rId9"/>
+    <hyperlink ref="D107" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="584">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -5261,6 +5261,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     https://my.prom.ua/cms/product/edit/2388123847</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cоль поваренная - пищевая - каменная со склада в Киев | Атена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    https://my.prom.ua/cms/product/edit/2388134284</t>
     </r>
   </si>
 </sst>
@@ -11385,7 +11410,7 @@
   <dimension ref="A3:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11802,16 +11827,28 @@
       </c>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="141" t="s">
         <v>75</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="146" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="142"/>
+      <c r="C37" s="147" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="142"/>
+      <c r="C38" s="147" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="142"/>

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -11332,8 +11332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11832,7 +11832,7 @@
       <c r="A50" s="152"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="A51" s="156">
         <v>9</v>
       </c>
       <c r="B51" s="34" t="s">

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="585">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -5196,6 +5196,9 @@
   </si>
   <si>
     <t>йодована - просрочена</t>
+  </si>
+  <si>
+    <t>уточнить</t>
   </si>
 </sst>
 </file>
@@ -5665,7 +5668,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6132,6 +6135,9 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гіперпосилання" xfId="2" builtinId="8"/>
@@ -11332,8 +11338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11879,7 +11885,7 @@
       <c r="A58" s="152"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+      <c r="A59" s="156">
         <v>10</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -11913,13 +11919,13 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="152"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="152"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="152"/>
     </row>
-    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>11</v>
       </c>
@@ -11936,31 +11942,34 @@
       <c r="F67" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="158" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="150" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="152"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="152"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="152"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="152"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="152"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="152"/>
     </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>12</v>
       </c>
@@ -11977,22 +11986,25 @@
       <c r="F75" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="158" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="150" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="152"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="152"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="152"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="152"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="584">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -867,31 +867,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  https://atena.com.ua/ua/p1747027094-sol-briketirovannaya-lizunets.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Сіль ЛИЗУНЕЦЬ брикет 5кг (виробництво Румунія) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://atena.com.ua/ua/p1782235172-sol-lizunets-briket.html</t>
     </r>
   </si>
   <si>
@@ -7523,16 +7498,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="47">
         <v>12</v>
       </c>
       <c r="E3" s="93" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7560,16 +7535,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="47">
         <v>12</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7597,16 +7572,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="111" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="111" t="s">
+      <c r="E17" s="37" t="s">
         <v>381</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7634,16 +7609,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>383</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>384</v>
       </c>
       <c r="D24" s="47">
         <v>12</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7671,16 +7646,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="47">
         <v>8</v>
       </c>
       <c r="E31" s="93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7708,16 +7683,16 @@
         <v>6</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="47">
         <v>12</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,16 +7720,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="52">
         <v>12</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7782,16 +7757,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="47">
         <v>9</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -7819,16 +7794,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="47">
         <v>1</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -7856,16 +7831,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="47">
         <v>15</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -7893,16 +7868,16 @@
         <v>11</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="47">
         <v>9</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -7930,16 +7905,16 @@
         <v>12</v>
       </c>
       <c r="B80" s="92" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -7967,16 +7942,16 @@
         <v>13</v>
       </c>
       <c r="B87" s="107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C87" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E87" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8004,16 +7979,16 @@
         <v>14</v>
       </c>
       <c r="B94" s="92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C94" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -8041,16 +8016,16 @@
         <v>15</v>
       </c>
       <c r="B101" s="107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C101" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E101" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -8078,14 +8053,14 @@
         <v>16</v>
       </c>
       <c r="B108" s="92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -8113,16 +8088,16 @@
         <v>17</v>
       </c>
       <c r="B115" s="92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" s="47">
         <v>16</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -8150,16 +8125,16 @@
         <v>18</v>
       </c>
       <c r="B122" s="92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D122" s="47">
         <v>15</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -8187,16 +8162,16 @@
         <v>25</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" s="47">
         <v>12</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -8224,16 +8199,16 @@
         <v>26</v>
       </c>
       <c r="B136" s="92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D136" s="47">
         <v>20</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -8261,16 +8236,16 @@
         <v>27</v>
       </c>
       <c r="B143" s="92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D143" s="47">
         <v>20</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -8298,16 +8273,16 @@
         <v>28</v>
       </c>
       <c r="B150" s="92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="47">
         <v>12</v>
       </c>
       <c r="E150" s="93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -8335,16 +8310,16 @@
         <v>29</v>
       </c>
       <c r="B157" s="92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D157" s="47">
         <v>12</v>
       </c>
       <c r="E157" s="93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -8372,16 +8347,16 @@
         <v>30</v>
       </c>
       <c r="B164" s="92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" s="47">
         <v>1</v>
       </c>
       <c r="E164" s="93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -8476,16 +8451,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="35">
         <v>48</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8513,16 +8488,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="35">
         <v>8</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8550,14 +8525,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8585,16 +8560,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="47">
         <v>8</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8622,14 +8597,14 @@
         <v>5</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="93" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8657,14 +8632,14 @@
         <v>6</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,14 +8667,14 @@
         <v>7</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8727,14 +8702,14 @@
         <v>8</v>
       </c>
       <c r="B52" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" s="47" t="s">
         <v>435</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>436</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8762,14 +8737,14 @@
         <v>9</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,14 +8772,14 @@
         <v>10</v>
       </c>
       <c r="B66" s="112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8832,14 +8807,14 @@
         <v>11</v>
       </c>
       <c r="B73" s="112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8867,14 +8842,14 @@
         <v>12</v>
       </c>
       <c r="B80" s="112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8902,14 +8877,14 @@
         <v>13</v>
       </c>
       <c r="B87" s="112" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" s="47"/>
       <c r="E87" s="93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -8937,16 +8912,16 @@
         <v>14</v>
       </c>
       <c r="B94" s="112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="47">
         <v>150</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -8974,14 +8949,14 @@
         <v>15</v>
       </c>
       <c r="B101" s="92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="47"/>
       <c r="E101" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9009,14 +8984,14 @@
         <v>16</v>
       </c>
       <c r="B108" s="92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="52"/>
       <c r="E108" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9044,16 +9019,16 @@
         <v>17</v>
       </c>
       <c r="B115" s="113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" s="47">
         <v>50</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9081,16 +9056,16 @@
         <v>18</v>
       </c>
       <c r="B122" s="92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D122" s="47">
         <v>50</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9118,14 +9093,14 @@
         <v>19</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" s="47"/>
       <c r="E129" s="93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,16 +9128,16 @@
         <v>20</v>
       </c>
       <c r="B136" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D136" s="52">
         <v>22</v>
       </c>
       <c r="E136" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9190,16 +9165,16 @@
         <v>21</v>
       </c>
       <c r="B143" s="112" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D143" s="47">
         <v>60</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9227,16 +9202,16 @@
         <v>22</v>
       </c>
       <c r="B150" s="92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="47">
         <v>50</v>
       </c>
       <c r="E150" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -9264,16 +9239,16 @@
         <v>23</v>
       </c>
       <c r="B157" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D157" s="47">
         <v>15</v>
       </c>
       <c r="E157" s="93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,16 +9276,16 @@
         <v>24</v>
       </c>
       <c r="B164" s="112" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" s="47">
         <v>30</v>
       </c>
       <c r="E164" s="93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -9338,16 +9313,16 @@
         <v>25</v>
       </c>
       <c r="B171" s="112" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" s="47">
         <v>30</v>
       </c>
       <c r="E171" s="93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -9375,16 +9350,16 @@
         <v>26</v>
       </c>
       <c r="B178" s="112" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D178" s="47">
         <v>20</v>
       </c>
       <c r="E178" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -9412,16 +9387,16 @@
         <v>27</v>
       </c>
       <c r="B185" s="112" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D185" s="47">
         <v>8</v>
       </c>
       <c r="E185" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -9449,14 +9424,14 @@
         <v>28</v>
       </c>
       <c r="B192" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="C192" s="107" t="s">
         <v>475</v>
-      </c>
-      <c r="C192" s="107" t="s">
-        <v>476</v>
       </c>
       <c r="D192" s="107"/>
       <c r="E192" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -9556,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>77</v>
@@ -9565,7 +9540,7 @@
         <v>120</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9602,7 +9577,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9630,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>77</v>
@@ -9639,7 +9614,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9667,7 +9642,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>77</v>
@@ -9676,7 +9651,7 @@
         <v>2.5</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9704,7 +9679,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>77</v>
@@ -9713,7 +9688,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9741,7 +9716,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>77</v>
@@ -9750,7 +9725,7 @@
         <v>2.5</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9778,7 +9753,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>77</v>
@@ -9787,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -9815,7 +9790,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="112" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>77</v>
@@ -9824,7 +9799,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -9852,16 +9827,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9889,7 +9864,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>77</v>
@@ -9898,7 +9873,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -9926,16 +9901,16 @@
         <v>11</v>
       </c>
       <c r="B73" s="112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -9963,7 +9938,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="115" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>77</v>
@@ -9972,7 +9947,7 @@
         <v>200</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -10000,16 +9975,16 @@
         <v>13</v>
       </c>
       <c r="B87" s="92" t="s">
+        <v>500</v>
+      </c>
+      <c r="C87" s="47" t="s">
         <v>501</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>502</v>
       </c>
       <c r="D87" s="47">
         <v>44</v>
       </c>
       <c r="E87" s="93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -10037,16 +10012,16 @@
         <v>15</v>
       </c>
       <c r="B94" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C94" s="35" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="116" t="s">
+        <v>504</v>
+      </c>
+      <c r="E94" s="37" t="s">
         <v>505</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -10074,7 +10049,7 @@
         <v>16</v>
       </c>
       <c r="B101" s="115" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>77</v>
@@ -10083,7 +10058,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -10111,7 +10086,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="112" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>77</v>
@@ -10120,7 +10095,7 @@
         <v>300</v>
       </c>
       <c r="E108" s="93" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -10148,7 +10123,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="115" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C115" s="35" t="s">
         <v>77</v>
@@ -10157,7 +10132,7 @@
         <v>50</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -10185,7 +10160,7 @@
         <v>19</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C122" s="118" t="s">
         <v>77</v>
@@ -10194,7 +10169,7 @@
         <v>25</v>
       </c>
       <c r="E122" s="120" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -10222,7 +10197,7 @@
         <v>20</v>
       </c>
       <c r="B129" s="107" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>77</v>
@@ -10231,7 +10206,7 @@
         <v>50</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -10259,7 +10234,7 @@
         <v>21</v>
       </c>
       <c r="B136" s="107" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C136" s="47" t="s">
         <v>77</v>
@@ -10268,7 +10243,7 @@
         <v>40</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10296,7 +10271,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="112" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C143" s="50" t="s">
         <v>77</v>
@@ -10305,7 +10280,7 @@
         <v>40</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10333,7 +10308,7 @@
         <v>23</v>
       </c>
       <c r="B150" s="112" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C150" s="47" t="s">
         <v>77</v>
@@ -10342,7 +10317,7 @@
         <v>50</v>
       </c>
       <c r="E150" s="93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10370,10 +10345,10 @@
         <v>24</v>
       </c>
       <c r="B157" s="107" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D157" s="47">
         <v>1</v>
@@ -10407,10 +10382,10 @@
         <v>25</v>
       </c>
       <c r="B164" s="107" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" s="47">
         <v>1</v>
@@ -10444,10 +10419,10 @@
         <v>26</v>
       </c>
       <c r="B171" s="107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C171" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" s="47">
         <v>1</v>
@@ -10481,10 +10456,10 @@
         <v>27</v>
       </c>
       <c r="B178" s="107" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D178" s="47">
         <v>1</v>
@@ -10573,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>77</v>
@@ -10582,7 +10557,7 @@
         <v>120</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10610,16 +10585,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="52">
         <v>1</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10647,16 +10622,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="52">
         <v>1</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -10684,10 +10659,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="46">
         <v>1</v>
@@ -10721,16 +10696,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="46">
         <v>2</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -10758,10 +10733,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="46">
         <v>1</v>
@@ -10795,10 +10770,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="46">
         <v>1</v>
@@ -10832,14 +10807,14 @@
         <v>7</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="122" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -10867,10 +10842,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="46"/>
       <c r="E59" s="121">
@@ -10902,16 +10877,16 @@
         <v>9</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E66" s="121" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10939,7 +10914,7 @@
         <v>11</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C73" s="50" t="s">
         <v>77</v>
@@ -10948,7 +10923,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="121" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -10976,7 +10951,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="92" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C80" s="46" t="s">
         <v>77</v>
@@ -10985,7 +10960,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="121" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -11013,16 +10988,16 @@
         <v>13</v>
       </c>
       <c r="B87" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C87" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D87" s="123" t="s">
+        <v>545</v>
+      </c>
+      <c r="E87" s="121" t="s">
         <v>546</v>
-      </c>
-      <c r="E87" s="121" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -11050,16 +11025,16 @@
         <v>14</v>
       </c>
       <c r="B94" s="92" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C94" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="123" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E94" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -11087,16 +11062,16 @@
         <v>15</v>
       </c>
       <c r="B101" s="92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E101" s="121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -11124,16 +11099,16 @@
         <v>16</v>
       </c>
       <c r="B108" s="92" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E108" s="121" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -11161,7 +11136,7 @@
         <v>17</v>
       </c>
       <c r="B115" s="92" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C115" s="50" t="s">
         <v>77</v>
@@ -11170,7 +11145,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="121" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -11198,14 +11173,14 @@
         <v>18</v>
       </c>
       <c r="B122" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D122" s="46"/>
       <c r="E122" s="121" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -11233,14 +11208,14 @@
         <v>19</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" s="124"/>
       <c r="E129" s="121" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -11268,14 +11243,14 @@
         <v>20</v>
       </c>
       <c r="B136" s="107" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D136" s="52"/>
       <c r="E136" s="121" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -11336,10 +11311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G170"/>
+  <dimension ref="A3:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11383,10 +11358,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="154" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F4" s="20">
         <v>10.199999999999999</v>
@@ -11395,10 +11370,10 @@
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="152"/>
       <c r="B5" s="136" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F5" s="20">
         <v>11</v>
@@ -11407,10 +11382,10 @@
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="152"/>
       <c r="B6" s="136" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F6" s="20">
         <v>12</v>
@@ -11442,10 +11417,10 @@
         <v>75</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F9" s="20">
         <v>11</v>
@@ -11454,10 +11429,10 @@
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="152"/>
       <c r="B10" s="136" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F10" s="20">
         <v>11.5</v>
@@ -11466,10 +11441,10 @@
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="152"/>
       <c r="B11" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F11" s="20">
         <v>13</v>
@@ -11501,10 +11476,10 @@
         <v>75</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F14" s="20">
         <v>8.6</v>
@@ -11513,10 +11488,10 @@
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="152"/>
       <c r="B15" s="136" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" s="20">
         <v>9.6</v>
@@ -11525,10 +11500,10 @@
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="152"/>
       <c r="B16" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F16" s="20">
         <v>10.6</v>
@@ -11560,10 +11535,10 @@
         <v>75</v>
       </c>
       <c r="B19" s="136" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F19" s="20">
         <v>8.8000000000000007</v>
@@ -11572,10 +11547,10 @@
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="152"/>
       <c r="B20" s="136" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F20" s="20">
         <v>9.8000000000000007</v>
@@ -11584,10 +11559,10 @@
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="152"/>
       <c r="B21" s="136" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F21" s="20">
         <v>10.8</v>
@@ -11619,10 +11594,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F24" s="20">
         <v>8.6</v>
@@ -11631,10 +11606,10 @@
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="152"/>
       <c r="B25" s="136" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F25" s="20">
         <v>9.6</v>
@@ -11666,10 +11641,10 @@
         <v>75</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F28" s="20">
         <v>9.5</v>
@@ -11701,10 +11676,10 @@
         <v>75</v>
       </c>
       <c r="B31" s="136" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F31" s="20">
         <v>7.2</v>
@@ -11713,10 +11688,10 @@
     <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="152"/>
       <c r="B32" s="136" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F32" s="20">
         <v>8.1999999999999993</v>
@@ -11725,10 +11700,10 @@
     <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="152"/>
       <c r="B33" s="136" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F33" s="20">
         <v>9.1999999999999993</v>
@@ -11755,7 +11730,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -11763,22 +11738,22 @@
         <v>75</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="152"/>
       <c r="C37" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="152"/>
       <c r="C38" s="127" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11943,7 +11918,7 @@
         <v>101</v>
       </c>
       <c r="G67" s="158" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11987,7 +11962,7 @@
         <v>103</v>
       </c>
       <c r="G75" s="158" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -12031,42 +12006,34 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="152"/>
+    </row>
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="152"/>
       <c r="B85" s="21" t="s">
         <v>118</v>
       </c>
       <c r="F85" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="152"/>
       <c r="B86" s="21" t="s">
         <v>119</v>
       </c>
       <c r="F86" s="20">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="152"/>
       <c r="B87" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F87" s="20">
-        <v>15000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12075,46 +12042,46 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="152"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="152"/>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29">
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="29">
         <v>14</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B90" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="132"/>
-      <c r="D91" s="100" t="s">
+      <c r="C90" s="132"/>
+      <c r="D90" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E90" s="35">
         <v>10</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F90" s="37" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="20">
+        <v>19</v>
+      </c>
+    </row>
     <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
-        <v>75</v>
-      </c>
+      <c r="A92" s="152"/>
       <c r="B92" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F92" s="20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="152"/>
-      <c r="B93" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F93" s="20">
-        <v>19000</v>
-      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="152"/>
@@ -12128,36 +12095,42 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="152"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="152"/>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29">
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29">
         <v>15</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B98" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="133"/>
-      <c r="D99" s="100" t="s">
+      <c r="C98" s="133"/>
+      <c r="D98" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E99" s="35">
+      <c r="E98" s="35">
         <v>25</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F98" s="37" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="20">
+        <v>18200</v>
+      </c>
+    </row>
     <row r="100" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="150" t="s">
-        <v>75</v>
-      </c>
+      <c r="A100" s="152"/>
       <c r="B100" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F100" s="20">
-        <v>18200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12166,7 +12139,7 @@
         <v>125</v>
       </c>
       <c r="F101" s="20">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12175,17 +12148,11 @@
         <v>126</v>
       </c>
       <c r="F102" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="152"/>
-      <c r="B103" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" s="20">
-        <v>19</v>
-      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="152"/>
@@ -12193,37 +12160,37 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="152"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="152"/>
-    </row>
-    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29">
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
         <v>16</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B106" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="133"/>
-      <c r="D107" s="100" t="s">
+      <c r="C106" s="133"/>
+      <c r="D106" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E106" s="35">
         <v>25</v>
       </c>
-      <c r="F107" s="38" t="s">
+      <c r="F106" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="20">
+    <row r="107" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="20">
         <v>17</v>
       </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="152"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="152"/>
@@ -12240,46 +12207,46 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="152"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="152"/>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29">
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="29">
         <v>17</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B114" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="134"/>
-      <c r="D115" s="39" t="s">
+      <c r="C114" s="134"/>
+      <c r="D114" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E115" s="39">
+      <c r="E114" s="39">
         <v>25</v>
       </c>
-      <c r="F115" s="40" t="s">
+      <c r="F114" s="40" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="115" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="20">
+        <v>13.6</v>
+      </c>
+    </row>
     <row r="116" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="150" t="s">
-        <v>75</v>
-      </c>
+      <c r="A116" s="152"/>
       <c r="B116" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F116" s="20">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="152"/>
-      <c r="B117" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="20">
-        <v>1360</v>
-      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="152"/>
@@ -12293,31 +12260,31 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="152"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="152"/>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29">
         <v>18</v>
       </c>
-      <c r="B123" s="43" t="s">
+      <c r="B122" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C123" s="133"/>
-      <c r="D123" s="39" t="s">
+      <c r="C122" s="133"/>
+      <c r="D122" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E123" s="39">
+      <c r="E122" s="39">
         <v>25</v>
       </c>
-      <c r="F123" s="41" t="s">
+      <c r="F122" s="41" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="150" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="150" t="s">
-        <v>75</v>
-      </c>
+      <c r="A124" s="152"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="152"/>
@@ -12334,37 +12301,37 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="152"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="152"/>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29">
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29">
         <v>19</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B130" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="135"/>
+      <c r="D130" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="35">
+        <v>25</v>
+      </c>
+      <c r="F130" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="135"/>
-      <c r="D131" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E131" s="35">
-        <v>25</v>
-      </c>
-      <c r="F131" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F132" s="20">
+    </row>
+    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="20">
         <v>5600</v>
       </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="152"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="152"/>
@@ -12381,37 +12348,37 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="152"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="152"/>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29">
+    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29">
         <v>20</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B138" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="135"/>
+      <c r="D138" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="35">
+        <v>50</v>
+      </c>
+      <c r="F138" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C139" s="135"/>
-      <c r="D139" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E139" s="35">
-        <v>50</v>
-      </c>
-      <c r="F139" s="41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F140" s="20">
+    </row>
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F139" s="20">
         <v>7.6</v>
       </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="152"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="152"/>
@@ -12428,31 +12395,31 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="152"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29">
+    <row r="146" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29">
         <v>21</v>
       </c>
-      <c r="B147" s="45" t="s">
+      <c r="B146" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="135"/>
+      <c r="D146" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="35">
+        <v>10</v>
+      </c>
+      <c r="F146" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="135"/>
-      <c r="D147" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E147" s="35">
-        <v>10</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>134</v>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="151" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="151" t="s">
-        <v>75</v>
-      </c>
+      <c r="A148" s="152"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="152"/>
@@ -12469,46 +12436,46 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="152"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="152"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29">
+    <row r="154" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="29">
         <v>22</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B154" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="135"/>
+      <c r="D154" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" s="35">
+        <v>50</v>
+      </c>
+      <c r="F154" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="135"/>
-      <c r="D155" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E155" s="35">
-        <v>50</v>
-      </c>
-      <c r="F155" s="37" t="s">
-        <v>136</v>
+    </row>
+    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F155" s="20">
+        <v>8.4</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="151" t="s">
-        <v>75</v>
-      </c>
+      <c r="A156" s="152"/>
       <c r="B156" s="21" t="s">
         <v>141</v>
       </c>
       <c r="F156" s="20">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="152"/>
-      <c r="B157" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F157" s="20">
-        <v>8000</v>
-      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="152"/>
@@ -12522,37 +12489,37 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="152"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="152"/>
-    </row>
-    <row r="163" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29">
+    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="29">
         <v>23</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B162" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="135"/>
+      <c r="D162" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E162" s="35">
+        <v>25</v>
+      </c>
+      <c r="F162" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C163" s="135"/>
-      <c r="D163" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E163" s="35">
-        <v>25</v>
-      </c>
-      <c r="F163" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F164" s="20">
+    </row>
+    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" s="20">
         <v>8</v>
       </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="152"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="152"/>
@@ -12568,30 +12535,27 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="152"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="A91:A97"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="A148:A154"/>
-    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="A123:A129"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A139:A145"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="A99:A105"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A44:A50"/>
@@ -12608,8 +12572,8 @@
     <hyperlink ref="D51" r:id="rId6"/>
     <hyperlink ref="D59" r:id="rId7"/>
     <hyperlink ref="D67" r:id="rId8" display="кг"/>
-    <hyperlink ref="D91" r:id="rId9"/>
-    <hyperlink ref="D107" r:id="rId10"/>
+    <hyperlink ref="D90" r:id="rId9"/>
+    <hyperlink ref="D106" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -12635,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>77</v>
@@ -12644,7 +12608,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12652,7 +12616,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="68">
         <v>25.8</v>
@@ -12678,7 +12642,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>77</v>
@@ -12687,7 +12651,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12695,7 +12659,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="68">
         <v>25800</v>
@@ -12704,7 +12668,7 @@
     <row r="12" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="152"/>
       <c r="B12" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="68">
         <v>25000</v>
@@ -12727,7 +12691,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>77</v>
@@ -12736,7 +12700,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12744,7 +12708,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="68">
         <v>645</v>
@@ -12753,7 +12717,7 @@
     <row r="19" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="152"/>
       <c r="B19" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="68">
         <v>25</v>
@@ -12776,7 +12740,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>77</v>
@@ -12785,7 +12749,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12793,7 +12757,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="68">
         <v>40</v>
@@ -12819,7 +12783,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>77</v>
@@ -12828,7 +12792,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -12856,7 +12820,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>77</v>
@@ -12865,7 +12829,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12873,7 +12837,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="68">
         <v>58</v>
@@ -12899,7 +12863,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="50" t="s">
         <v>77</v>
@@ -12908,7 +12872,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12916,7 +12880,7 @@
         <v>75</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="68">
         <v>42000</v>
@@ -12925,7 +12889,7 @@
     <row r="47" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="152"/>
       <c r="B47" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="68">
         <v>42</v>
@@ -12934,7 +12898,7 @@
     <row r="48" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152"/>
       <c r="B48" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="68">
         <v>42</v>
@@ -12943,7 +12907,7 @@
     <row r="49" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="152"/>
       <c r="B49" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E49" s="68">
         <v>42</v>
@@ -12952,7 +12916,7 @@
     <row r="50" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="152"/>
       <c r="B50" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E50" s="68">
         <v>42</v>
@@ -12966,7 +12930,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>77</v>
@@ -12975,7 +12939,7 @@
         <v>25</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13003,7 +12967,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="50" t="s">
         <v>100</v>
@@ -13012,7 +12976,7 @@
         <v>1.25</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,7 +12984,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="68">
         <v>27</v>
@@ -13046,7 +13010,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="50" t="s">
         <v>77</v>
@@ -13055,7 +13019,7 @@
         <v>25</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13063,7 +13027,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" s="68">
         <v>28</v>
@@ -13072,7 +13036,7 @@
     <row r="68" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="152"/>
       <c r="B68" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E68" s="68">
         <v>28</v>
@@ -13095,14 +13059,14 @@
         <v>11</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>77</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13110,7 +13074,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="68">
         <v>28</v>
@@ -13136,16 +13100,16 @@
         <v>12</v>
       </c>
       <c r="B80" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="D80" s="47">
         <v>22</v>
       </c>
       <c r="E80" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13153,7 +13117,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E81" s="68">
         <v>38</v>
@@ -13216,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>77</v>
@@ -13225,7 +13189,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -13233,7 +13197,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" s="67">
         <v>58</v>
@@ -13242,7 +13206,7 @@
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="67">
         <v>58</v>
@@ -13251,7 +13215,7 @@
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="151"/>
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="67">
         <v>58</v>
@@ -13260,7 +13224,7 @@
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="151"/>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="67">
         <v>53</v>
@@ -13269,7 +13233,7 @@
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="151"/>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="67">
         <v>53</v>
@@ -13278,7 +13242,7 @@
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="67">
         <v>53</v>
@@ -13289,16 +13253,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>188</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13306,7 +13270,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="67">
         <v>33</v>
@@ -13315,7 +13279,7 @@
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="152"/>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="67">
         <v>32500</v>
@@ -13324,7 +13288,7 @@
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="152"/>
       <c r="B13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="67">
         <v>33</v>
@@ -13333,7 +13297,7 @@
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="152"/>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="67">
         <v>33</v>
@@ -13352,7 +13316,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>77</v>
@@ -13361,7 +13325,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13369,7 +13333,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="67"/>
     </row>
@@ -13398,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>77</v>
@@ -13407,7 +13371,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13415,7 +13379,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="67">
         <v>64</v>
@@ -13446,7 +13410,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>77</v>
@@ -13455,7 +13419,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13463,7 +13427,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E32" s="67">
         <v>390</v>
@@ -13494,7 +13458,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>77</v>
@@ -13503,7 +13467,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13511,7 +13475,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" s="67">
         <v>78</v>
@@ -13520,7 +13484,7 @@
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="152"/>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="67">
         <v>1950</v>
@@ -13576,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>77</v>
@@ -13585,7 +13549,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13593,7 +13557,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="83">
         <v>49</v>
@@ -13602,7 +13566,7 @@
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="83">
         <v>49</v>
@@ -13625,7 +13589,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>77</v>
@@ -13634,7 +13598,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13642,7 +13606,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="83">
         <v>45000</v>
@@ -13651,7 +13615,7 @@
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="151"/>
       <c r="B12" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="83">
         <v>49000</v>
@@ -13674,7 +13638,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>77</v>
@@ -13683,7 +13647,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13711,7 +13675,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>77</v>
@@ -13720,7 +13684,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -13728,7 +13692,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E25" s="83">
         <v>30</v>
@@ -13754,7 +13718,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="50" t="s">
         <v>77</v>
@@ -13763,7 +13727,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13791,12 +13755,12 @@
         <v>6</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="26"/>
       <c r="E38" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13824,7 +13788,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>77</v>
@@ -13833,7 +13797,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13841,7 +13805,7 @@
         <v>75</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E46" s="83">
         <v>28</v>
@@ -13867,7 +13831,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>77</v>
@@ -13876,7 +13840,7 @@
         <v>25</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13904,7 +13868,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>77</v>
@@ -13913,7 +13877,7 @@
         <v>240</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13921,7 +13885,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E60" s="83">
         <v>140</v>
@@ -13947,7 +13911,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>77</v>
@@ -13956,7 +13920,7 @@
         <v>40</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13964,7 +13928,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E67" s="83">
         <v>180</v>
@@ -13973,7 +13937,7 @@
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="151"/>
       <c r="B68" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" s="83">
         <v>180</v>
@@ -13996,7 +13960,7 @@
         <v>11</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="72" t="s">
         <v>77</v>
@@ -14005,7 +13969,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14013,7 +13977,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E74" s="83">
         <v>48</v>
@@ -14039,7 +14003,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C80" s="72" t="s">
         <v>77</v>
@@ -14048,7 +14012,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14056,7 +14020,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E81" s="83">
         <v>2550</v>
@@ -14082,16 +14046,16 @@
         <v>13</v>
       </c>
       <c r="B87" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" s="72" t="s">
         <v>77</v>
       </c>
       <c r="D87" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="85" t="s">
         <v>238</v>
-      </c>
-      <c r="E87" s="85" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14099,7 +14063,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E88" s="83">
         <v>80</v>
@@ -14125,16 +14089,16 @@
         <v>14</v>
       </c>
       <c r="B94" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="72" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="E94" s="85" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14162,16 +14126,16 @@
         <v>15</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C101" s="76" t="s">
         <v>77</v>
       </c>
       <c r="D101" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="85" t="s">
         <v>244</v>
-      </c>
-      <c r="E101" s="85" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -14218,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>77</v>
@@ -14227,13 +14191,13 @@
         <v>25</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="151"/>
       <c r="B4" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" s="83">
         <v>23.5</v>
@@ -14242,7 +14206,7 @@
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" s="83">
         <v>23.5</v>
@@ -14262,7 +14226,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>77</v>
@@ -14271,7 +14235,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14279,7 +14243,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="83">
         <v>588</v>
@@ -14305,16 +14269,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>263</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14342,7 +14306,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>100</v>
@@ -14351,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -14379,7 +14343,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>77</v>
@@ -14388,7 +14352,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14396,7 +14360,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="83">
         <v>4450</v>
@@ -14422,7 +14386,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>77</v>
@@ -14459,7 +14423,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>77</v>
@@ -14468,7 +14432,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -14496,7 +14460,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>77</v>
@@ -14505,7 +14469,7 @@
         <v>25</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14513,7 +14477,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E52" s="83">
         <v>990</v>
@@ -14569,16 +14533,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="47">
         <v>12</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14586,7 +14550,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="106">
         <v>18.5</v>
@@ -14612,16 +14576,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="96">
         <v>48</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14629,7 +14593,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" s="106">
         <v>15.2</v>
@@ -14638,7 +14602,7 @@
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="151"/>
       <c r="B12" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="106">
         <v>15</v>
@@ -14647,7 +14611,7 @@
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="151"/>
       <c r="B13" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="106">
         <v>15</v>
@@ -14656,7 +14620,7 @@
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="151"/>
       <c r="B14" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E14" s="106">
         <v>15.2</v>
@@ -14673,16 +14637,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="96">
         <v>60</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14690,7 +14654,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" s="106">
         <v>14</v>
@@ -14716,16 +14680,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="96">
         <v>40</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -14753,16 +14717,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="96">
         <v>60</v>
       </c>
       <c r="E31" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14770,7 +14734,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E32" s="106">
         <v>11.6</v>
@@ -14779,7 +14743,7 @@
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="151"/>
       <c r="B33" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E33" s="106">
         <v>11.6</v>
@@ -14802,10 +14766,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="96">
         <v>100</v>
@@ -14839,16 +14803,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="96">
         <v>60</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -14876,16 +14840,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="47">
         <v>1</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14913,16 +14877,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C59" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="47">
         <v>1</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14930,7 +14894,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E60" s="106">
         <v>98</v>
@@ -14939,7 +14903,7 @@
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="151"/>
       <c r="B61" s="59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E61" s="106">
         <v>98</v>
@@ -14962,16 +14926,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="47">
         <v>1</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14979,7 +14943,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E67" s="106">
         <v>130</v>
@@ -15005,16 +14969,16 @@
         <v>11</v>
       </c>
       <c r="B73" s="101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="47">
         <v>12</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15022,7 +14986,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E74" s="106">
         <v>36</v>
@@ -15031,7 +14995,7 @@
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="151"/>
       <c r="B75" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E75" s="106">
         <v>36</v>
@@ -15054,14 +15018,14 @@
         <v>12</v>
       </c>
       <c r="B80" s="101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -15089,16 +15053,16 @@
         <v>13</v>
       </c>
       <c r="B87" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" s="52">
         <v>26</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -15126,16 +15090,16 @@
         <v>14</v>
       </c>
       <c r="B94" s="102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C94" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="96">
         <v>72</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15143,7 +15107,7 @@
         <v>75</v>
       </c>
       <c r="B95" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E95" s="106">
         <v>9.9</v>
@@ -15169,16 +15133,16 @@
         <v>15</v>
       </c>
       <c r="B101" s="103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="47">
         <v>72</v>
       </c>
       <c r="E101" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -15186,7 +15150,7 @@
         <v>75</v>
       </c>
       <c r="B102" s="59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E102" s="106">
         <v>7.6</v>
@@ -15195,7 +15159,7 @@
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="151"/>
       <c r="B103" s="59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E103" s="106">
         <v>7.6</v>
@@ -15218,16 +15182,16 @@
         <v>16</v>
       </c>
       <c r="B108" s="103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="47">
         <v>25</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15235,7 +15199,7 @@
         <v>75</v>
       </c>
       <c r="B109" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E109" s="106">
         <v>37</v>
@@ -15244,7 +15208,7 @@
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="151"/>
       <c r="B110" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E110" s="106">
         <v>37</v>
@@ -15267,16 +15231,16 @@
         <v>17</v>
       </c>
       <c r="B115" s="103" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" s="47">
         <v>52</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15284,7 +15248,7 @@
         <v>75</v>
       </c>
       <c r="B116" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E116" s="106">
         <v>11</v>
@@ -15293,7 +15257,7 @@
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="151"/>
       <c r="B117" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E117" s="106">
         <v>11</v>
@@ -15316,16 +15280,16 @@
         <v>18</v>
       </c>
       <c r="B122" s="103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D122" s="47">
         <v>80</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15333,7 +15297,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E123" s="106">
         <v>10.3</v>
@@ -15342,7 +15306,7 @@
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="151"/>
       <c r="B124" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E124" s="106">
         <v>13.2</v>
@@ -15365,16 +15329,16 @@
         <v>19</v>
       </c>
       <c r="B129" s="102" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D129" s="47">
         <v>80</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15382,7 +15346,7 @@
         <v>75</v>
       </c>
       <c r="B130" s="59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E130" s="106">
         <v>13.2</v>
@@ -15408,16 +15372,16 @@
         <v>20</v>
       </c>
       <c r="B136" s="104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D136" s="47">
         <v>64</v>
       </c>
       <c r="E136" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -15445,16 +15409,16 @@
         <v>21</v>
       </c>
       <c r="B143" s="105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C143" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D143" s="96">
         <v>25</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -15482,14 +15446,14 @@
         <v>22</v>
       </c>
       <c r="B150" s="105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C150" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="52"/>
       <c r="E150" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -15517,16 +15481,16 @@
         <v>23</v>
       </c>
       <c r="B157" s="105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C157" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D157" s="96">
         <v>25</v>
       </c>
       <c r="E157" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -15534,7 +15498,7 @@
         <v>75</v>
       </c>
       <c r="B158" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E158" s="106">
         <v>3.9</v>
@@ -15560,16 +15524,16 @@
         <v>24</v>
       </c>
       <c r="B164" s="92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" s="52">
         <v>1</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -15652,14 +15616,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="107"/>
       <c r="E3" s="109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15687,16 +15651,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="52">
         <v>40</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15724,16 +15688,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="52">
         <v>12</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15761,16 +15725,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="52">
         <v>12</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15832,16 +15796,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="47">
         <v>20</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15869,14 +15833,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15904,14 +15868,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15939,7 +15903,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C24" s="96" t="s">
         <v>77</v>
@@ -15948,7 +15912,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15976,16 +15940,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="52">
         <v>1</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -16013,14 +15977,14 @@
         <v>6</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16048,16 +16012,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -16085,16 +16049,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="52">
         <v>1</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -16122,14 +16086,14 @@
         <v>9</v>
       </c>
       <c r="B59" s="107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C59" s="108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="107"/>
       <c r="E59" s="91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -16157,14 +16121,14 @@
         <v>10</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" s="108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">

--- a/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
+++ b/Фриланс/Projects/atena.com.ua/анализ товарных позиций.xlsx
@@ -11313,8 +11313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11989,7 +11989,7 @@
       <c r="A82" s="152"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="29">
+      <c r="A83" s="156">
         <v>13</v>
       </c>
       <c r="B83" s="42" t="s">
